--- a/graphs/delay_aware_slicing/results/average_results.xlsx
+++ b/graphs/delay_aware_slicing/results/average_results.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/phisolani/Github/wifi_monitoring/graphs/delay_aware_slicing/average_results/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/phisolani/Github/wifi_monitoring/graphs/delay_aware_slicing/results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{212AAD44-63C4-A14D-A520-6A636A8ED2CD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B3185C9-004C-AD40-AB41-46147672AE14}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20700" yWindow="500" windowWidth="17700" windowHeight="18820" xr2:uid="{3FEC7344-D201-3244-A186-2559A3F9F96E}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="16">
   <si>
     <t>QoS 1</t>
   </si>
@@ -80,14 +80,14 @@
     <t>MAIN</t>
   </si>
   <si>
-    <t>Rerun?</t>
+    <t>SUM</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -95,25 +95,20 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -128,11 +123,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -447,10 +441,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70784E4A-0428-264E-82D8-1E226FAD8D1C}">
-  <dimension ref="A1:N40"/>
+  <dimension ref="A1:M40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -465,11 +459,17 @@
       <c r="C1" t="s">
         <v>7</v>
       </c>
+      <c r="D1" t="s">
+        <v>15</v>
+      </c>
       <c r="I1" t="s">
         <v>6</v>
       </c>
       <c r="J1" t="s">
         <v>7</v>
+      </c>
+      <c r="K1" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
@@ -515,380 +515,170 @@
         <v>14</v>
       </c>
       <c r="B3">
-        <v>1.4891701443298961</v>
+        <v>72.934771999999953</v>
       </c>
       <c r="C3">
-        <v>4.44720344827586</v>
+        <v>123.32559599999998</v>
       </c>
       <c r="D3">
-        <v>4.5007679999999972</v>
+        <v>107.44282799999996</v>
       </c>
       <c r="E3">
-        <v>4.4866166766169115</v>
+        <v>112.11378399999992</v>
       </c>
       <c r="F3">
-        <v>2.0476957090909083</v>
+        <v>28.427899999999976</v>
       </c>
       <c r="H3" t="s">
         <v>14</v>
       </c>
       <c r="I3" s="1">
-        <v>2.0798696747404839</v>
+        <v>75.691383999999999</v>
       </c>
       <c r="J3" s="1">
-        <v>5.2712940521739107</v>
+        <v>174.13159199999998</v>
       </c>
       <c r="K3" s="1">
-        <v>5.4568233165829128</v>
+        <v>158.272672</v>
       </c>
       <c r="L3" s="1">
-        <v>5.0526225454545424</v>
+        <v>114.94627599999995</v>
       </c>
       <c r="M3" s="1">
-        <v>2.0950106666666639</v>
+        <v>28.522207999999988</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>1</v>
       </c>
-      <c r="B4">
-        <v>2.0197117800687288</v>
-      </c>
-      <c r="C4">
-        <v>3.8516015172413769</v>
-      </c>
-      <c r="D4">
-        <v>3.8312550845771134</v>
-      </c>
-      <c r="E4">
-        <v>7.7865755939086263</v>
-      </c>
-      <c r="F4">
-        <v>1.9784773818181804</v>
+      <c r="B4" s="2">
+        <v>73.228536000000005</v>
+      </c>
+      <c r="C4" s="2">
+        <v>125.048072</v>
+      </c>
+      <c r="D4" s="2">
+        <v>109.166388</v>
+      </c>
+      <c r="E4" s="2">
+        <v>67.081171999999995</v>
+      </c>
+      <c r="F4" s="2">
+        <v>28.346599999999999</v>
       </c>
       <c r="H4">
         <v>1</v>
       </c>
-      <c r="I4" s="1">
-        <v>2.0732040137457037</v>
-      </c>
-      <c r="J4" s="1">
-        <v>5.9590530216450217</v>
-      </c>
-      <c r="K4" s="1">
-        <v>6.2352111442786065</v>
-      </c>
-      <c r="L4" s="1">
-        <v>4.9504482412060309</v>
-      </c>
-      <c r="M4" s="1">
-        <v>2.0668827961165035</v>
-      </c>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>2</v>
       </c>
-      <c r="B5">
-        <v>2.0157184879725079</v>
-      </c>
-      <c r="C5">
-        <v>4.1425994482758588</v>
-      </c>
-      <c r="D5">
-        <v>4.1988364356435621</v>
-      </c>
-      <c r="E5">
-        <v>6.4082571098265833</v>
-      </c>
-      <c r="F5">
-        <v>2.0357718899082555</v>
-      </c>
       <c r="H5">
         <v>2</v>
       </c>
-      <c r="I5" s="1">
-        <v>2.0657836426116822</v>
-      </c>
-      <c r="J5" s="1">
-        <v>5.2938006210045607</v>
-      </c>
-      <c r="K5" s="1">
-        <v>5.384414896551724</v>
-      </c>
-      <c r="L5" s="1">
-        <v>5.6259055276381922</v>
-      </c>
-      <c r="M5" s="1">
-        <v>2.0569820377358483</v>
-      </c>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>3</v>
       </c>
-      <c r="B6">
-        <v>2.014704333333333</v>
-      </c>
-      <c r="C6">
-        <v>3.5952067074235776</v>
-      </c>
-      <c r="D6">
-        <v>3.5348205025125616</v>
-      </c>
-      <c r="E6">
-        <v>10.336016646464644</v>
-      </c>
-      <c r="F6">
-        <v>1.9653831775700921</v>
-      </c>
       <c r="H6">
         <v>3</v>
       </c>
-      <c r="I6" s="1">
-        <v>2.0928426666666669</v>
-      </c>
-      <c r="J6" s="1">
-        <v>6.0457152280701738</v>
-      </c>
-      <c r="K6" s="1">
-        <v>6.3306475959595927</v>
-      </c>
-      <c r="L6" s="1">
-        <v>4.7161226666666654</v>
-      </c>
-      <c r="M6" s="1">
-        <v>2.0775879603960368</v>
-      </c>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>4</v>
       </c>
-      <c r="B7">
-        <v>2.0170463438596502</v>
-      </c>
-      <c r="C7">
-        <v>3.768427235555555</v>
-      </c>
-      <c r="D7">
-        <v>3.7362462680412376</v>
-      </c>
-      <c r="E7">
-        <v>6.6133834226804051</v>
-      </c>
-      <c r="F7">
-        <v>2.0226808543689314</v>
-      </c>
       <c r="H7">
         <v>4</v>
       </c>
-      <c r="I7" s="3">
-        <v>2.0834569218106997</v>
-      </c>
-      <c r="J7" s="3">
-        <v>4.4760587397260254</v>
-      </c>
-      <c r="K7" s="3">
-        <v>4.5424848842105234</v>
-      </c>
-      <c r="L7" s="3">
-        <v>9.3798760888888779</v>
-      </c>
-      <c r="M7" s="3">
-        <v>2.0641185684210503</v>
-      </c>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>5</v>
       </c>
-      <c r="B8">
-        <v>2.035237938144328</v>
-      </c>
-      <c r="C8">
-        <v>4.4138237241379326</v>
-      </c>
-      <c r="D8">
-        <v>4.4494658217821765</v>
-      </c>
-      <c r="E8">
-        <v>5.0643599593908606</v>
-      </c>
-      <c r="F8">
-        <v>1.9745355636363635</v>
-      </c>
       <c r="H8">
         <v>5</v>
       </c>
-      <c r="I8" s="3">
-        <v>2.0688534559386969</v>
-      </c>
-      <c r="J8" s="3">
-        <v>4.567180703517586</v>
-      </c>
-      <c r="K8" s="3">
-        <v>4.6356201656804732</v>
-      </c>
-      <c r="L8" s="3">
-        <v>6.9871834352941171</v>
-      </c>
-      <c r="M8" s="3">
-        <v>2.0540715999999981</v>
-      </c>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+      <c r="M8" s="1"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>6</v>
       </c>
-      <c r="B9">
-        <v>2.0339129379310319</v>
-      </c>
-      <c r="C9">
-        <v>3.8668110129870104</v>
-      </c>
-      <c r="D9">
-        <v>3.8616849599999998</v>
-      </c>
-      <c r="E9">
-        <v>5.1098561608040178</v>
-      </c>
-      <c r="F9">
-        <v>2.0267252363636343</v>
-      </c>
       <c r="H9">
         <v>6</v>
       </c>
-      <c r="I9" s="1">
-        <v>2.0733828178694145</v>
-      </c>
-      <c r="J9" s="1">
-        <v>5.532430378854623</v>
-      </c>
-      <c r="K9" s="1">
-        <v>5.7512968121827388</v>
-      </c>
-      <c r="L9" s="1">
-        <v>6.1122499502487528</v>
-      </c>
-      <c r="M9" s="1">
-        <v>2.0696910545454532</v>
-      </c>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>7</v>
       </c>
-      <c r="B10">
-        <v>2.0404232577319577</v>
-      </c>
-      <c r="C10">
-        <v>3.6224663448275871</v>
-      </c>
-      <c r="D10">
-        <v>3.5745382970297026</v>
-      </c>
-      <c r="E10">
-        <v>10.226013771144268</v>
-      </c>
-      <c r="F10">
-        <v>2.0384718545454517</v>
-      </c>
       <c r="H10">
         <v>7</v>
       </c>
-      <c r="I10" s="1">
-        <v>2.0638163862068963</v>
-      </c>
-      <c r="J10" s="1">
-        <v>5.1306149779735675</v>
-      </c>
-      <c r="K10" s="1">
-        <v>5.2776823553299472</v>
-      </c>
-      <c r="L10" s="1">
-        <v>6.2755647035175892</v>
-      </c>
-      <c r="M10" s="1">
-        <v>2.044343703703702</v>
-      </c>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+      <c r="M10" s="1"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>8</v>
       </c>
-      <c r="B11">
-        <v>2.0479032302405504</v>
-      </c>
-      <c r="C11">
-        <v>4.0791060779220754</v>
-      </c>
-      <c r="D11">
-        <v>4.1121323199999971</v>
-      </c>
-      <c r="E11">
-        <v>4.7371586321243484</v>
-      </c>
-      <c r="F11">
-        <v>2.0012430091743103</v>
-      </c>
       <c r="H11">
         <v>8</v>
       </c>
-      <c r="I11" s="1">
-        <v>2.0776443161512019</v>
-      </c>
-      <c r="J11" s="1">
-        <v>4.7183287017543876</v>
-      </c>
-      <c r="K11" s="1">
-        <v>4.7996016161616186</v>
-      </c>
-      <c r="L11" s="1">
-        <v>6.8392741890547271</v>
-      </c>
-      <c r="M11" s="1">
-        <v>2.0676413090909076</v>
-      </c>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
+      <c r="M11" s="1"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>9</v>
       </c>
-      <c r="B12">
-        <v>2.0437609347079029</v>
-      </c>
-      <c r="C12">
-        <v>4.0628319999999984</v>
-      </c>
-      <c r="D12">
-        <v>4.0677690297029709</v>
-      </c>
-      <c r="E12">
-        <v>3.6610509054726328</v>
-      </c>
-      <c r="F12">
-        <v>1.9855754954954952</v>
-      </c>
       <c r="H12">
         <v>9</v>
       </c>
-      <c r="I12" s="1">
-        <v>2.0771973058419237</v>
-      </c>
-      <c r="J12" s="1">
-        <v>5.3079772813852779</v>
-      </c>
-      <c r="K12" s="1">
-        <v>5.4480766732673258</v>
-      </c>
-      <c r="L12" s="1">
-        <v>6.0056404378109463</v>
-      </c>
-      <c r="M12" s="1">
-        <v>2.0640292473118276</v>
-      </c>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
+      <c r="M12" s="1"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
@@ -896,46 +686,46 @@
       </c>
       <c r="B13">
         <f>AVERAGE(B3:B12)</f>
-        <v>1.9757589388319885</v>
+        <v>73.081653999999986</v>
       </c>
       <c r="C13">
         <f t="shared" ref="C13:F13" si="0">AVERAGE(C3:C12)</f>
-        <v>3.9850077516646834</v>
+        <v>124.18683399999999</v>
       </c>
       <c r="D13">
         <f t="shared" si="0"/>
-        <v>3.9867516719289329</v>
+        <v>108.30460799999997</v>
       </c>
       <c r="E13">
         <f t="shared" si="0"/>
-        <v>6.4429288878433297</v>
+        <v>89.597477999999967</v>
       </c>
       <c r="F13">
         <f t="shared" si="0"/>
-        <v>2.0076560171971627</v>
+        <v>28.387249999999987</v>
       </c>
       <c r="H13" t="s">
         <v>9</v>
       </c>
       <c r="I13" s="1">
         <f>AVERAGE(I3:I12)</f>
-        <v>2.075605120158337</v>
+        <v>75.691383999999999</v>
       </c>
       <c r="J13" s="1">
         <f t="shared" ref="J13" si="1">AVERAGE(J3:J12)</f>
-        <v>5.230245370610513</v>
+        <v>174.13159199999998</v>
       </c>
       <c r="K13" s="1">
         <f t="shared" ref="K13" si="2">AVERAGE(K3:K12)</f>
-        <v>5.3861859460205457</v>
+        <v>158.272672</v>
       </c>
       <c r="L13" s="1">
         <f t="shared" ref="L13" si="3">AVERAGE(L3:L12)</f>
-        <v>6.1944887785780436</v>
+        <v>114.94627599999995</v>
       </c>
       <c r="M13" s="1">
         <f t="shared" ref="M13" si="4">AVERAGE(M3:M12)</f>
-        <v>2.0660358943987993</v>
+        <v>28.522207999999988</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.2">
@@ -944,46 +734,46 @@
       </c>
       <c r="B14">
         <f>STDEV(B3:B12)</f>
-        <v>0.17141530129329366</v>
+        <v>0.20772251646852224</v>
       </c>
       <c r="C14">
         <f t="shared" ref="C14:F14" si="5">STDEV(C3:C12)</f>
-        <v>0.29801383074285431</v>
+        <v>1.2179744600311</v>
       </c>
       <c r="D14">
         <f t="shared" si="5"/>
-        <v>0.33703226238463402</v>
+        <v>1.2187409637819102</v>
       </c>
       <c r="E14">
         <f t="shared" si="5"/>
-        <v>2.3441818475608311</v>
+        <v>31.842865319742618</v>
       </c>
       <c r="F14">
         <f t="shared" si="5"/>
-        <v>3.0178546824033432E-2</v>
+        <v>5.7487781310450403E-2</v>
       </c>
       <c r="H14" t="s">
         <v>10</v>
       </c>
-      <c r="I14">
+      <c r="I14" t="e">
         <f>STDEV(I3:I12)</f>
-        <v>8.6627438476342619E-3</v>
-      </c>
-      <c r="J14">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J14" t="e">
         <f t="shared" ref="J14:M14" si="6">STDEV(J3:J12)</f>
-        <v>0.53537848417361533</v>
-      </c>
-      <c r="K14">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K14" t="e">
         <f t="shared" si="6"/>
-        <v>0.61337096392472035</v>
-      </c>
-      <c r="L14">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L14" t="e">
         <f t="shared" si="6"/>
-        <v>1.3581095608892533</v>
-      </c>
-      <c r="M14">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M14" t="e">
         <f t="shared" si="6"/>
-        <v>1.3715413149905625E-2</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.2">
@@ -992,46 +782,46 @@
       </c>
       <c r="B15">
         <f>B14/(SQRT(10))</f>
-        <v>5.4206277789081443E-2</v>
+        <v>6.5687627334236609E-2</v>
       </c>
       <c r="C15">
         <f t="shared" ref="C15:F15" si="7">C14/(SQRT(10))</f>
-        <v>9.4240247937932869E-2</v>
+        <v>0.38515734256119921</v>
       </c>
       <c r="D15">
         <f t="shared" si="7"/>
-        <v>0.10657895940949356</v>
+        <v>0.38539973232996144</v>
       </c>
       <c r="E15">
         <f t="shared" si="7"/>
-        <v>0.74129538879138535</v>
+        <v>10.06959816363725</v>
       </c>
       <c r="F15">
         <f t="shared" si="7"/>
-        <v>9.5432944437986306E-3</v>
+        <v>1.8179232657068257E-2</v>
       </c>
       <c r="H15" t="s">
         <v>11</v>
       </c>
-      <c r="I15">
+      <c r="I15" t="e">
         <f>I14/(SQRT(10))</f>
-        <v>2.7394001345134897E-3</v>
-      </c>
-      <c r="J15">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J15" t="e">
         <f t="shared" ref="J15" si="8">J14/(SQRT(10))</f>
-        <v>0.1693015420237034</v>
-      </c>
-      <c r="K15">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K15" t="e">
         <f t="shared" ref="K15" si="9">K14/(SQRT(10))</f>
-        <v>0.1939649296615088</v>
-      </c>
-      <c r="L15">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L15" t="e">
         <f t="shared" ref="L15" si="10">L14/(SQRT(10))</f>
-        <v>0.42947195244611724</v>
-      </c>
-      <c r="M15">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M15" t="e">
         <f t="shared" ref="M15" si="11">M14/(SQRT(10))</f>
-        <v>4.3371944603926181E-3</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.2">
@@ -1040,63 +830,69 @@
       </c>
       <c r="B16">
         <f>2*B15</f>
-        <v>0.10841255557816289</v>
+        <v>0.13137525466847322</v>
       </c>
       <c r="C16">
         <f t="shared" ref="C16:F16" si="12">2*C15</f>
-        <v>0.18848049587586574</v>
+        <v>0.77031468512239842</v>
       </c>
       <c r="D16">
         <f t="shared" si="12"/>
-        <v>0.21315791881898713</v>
+        <v>0.77079946465992288</v>
       </c>
       <c r="E16">
         <f t="shared" si="12"/>
-        <v>1.4825907775827707</v>
+        <v>20.139196327274501</v>
       </c>
       <c r="F16">
         <f t="shared" si="12"/>
-        <v>1.9086588887597261E-2</v>
+        <v>3.6358465314136515E-2</v>
       </c>
       <c r="H16" t="s">
         <v>12</v>
       </c>
-      <c r="I16">
+      <c r="I16" t="e">
         <f>2*I15</f>
-        <v>5.4788002690269793E-3</v>
-      </c>
-      <c r="J16">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J16" t="e">
         <f t="shared" ref="J16" si="13">2*J15</f>
-        <v>0.3386030840474068</v>
-      </c>
-      <c r="K16">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K16" t="e">
         <f t="shared" ref="K16" si="14">2*K15</f>
-        <v>0.3879298593230176</v>
-      </c>
-      <c r="L16">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L16" t="e">
         <f t="shared" ref="L16" si="15">2*L15</f>
-        <v>0.85894390489223449</v>
-      </c>
-      <c r="M16">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M16" t="e">
         <f t="shared" ref="M16" si="16">2*M15</f>
-        <v>8.6743889207852361E-3</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B25" t="s">
         <v>5</v>
       </c>
       <c r="C25" t="s">
         <v>13</v>
       </c>
+      <c r="D25" t="s">
+        <v>9</v>
+      </c>
       <c r="I25" t="s">
         <v>6</v>
       </c>
       <c r="J25" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="K25" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>8</v>
       </c>
@@ -1134,582 +930,326 @@
         <v>4</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>14</v>
       </c>
-      <c r="B27">
-        <v>57.809014492753676</v>
-      </c>
-      <c r="C27">
-        <v>419.1407012987014</v>
-      </c>
-      <c r="D27">
-        <v>479.45533333333356</v>
-      </c>
-      <c r="E27">
-        <v>488.52808999999979</v>
-      </c>
-      <c r="F27">
-        <v>170.77869724770642</v>
-      </c>
       <c r="H27" t="s">
         <v>14</v>
       </c>
-      <c r="I27" s="1">
-        <v>25.64530208333332</v>
-      </c>
-      <c r="J27" s="1">
-        <v>373.96156331877717</v>
-      </c>
-      <c r="K27" s="1">
-        <v>425.97386934673347</v>
-      </c>
-      <c r="L27" s="1">
-        <v>478.41580952380951</v>
-      </c>
-      <c r="M27" s="1">
-        <v>108.54585046728971</v>
-      </c>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="I27" s="1"/>
+      <c r="J27" s="1"/>
+      <c r="K27" s="1"/>
+      <c r="L27" s="1"/>
+      <c r="M27" s="1"/>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>1</v>
       </c>
-      <c r="B28">
-        <v>93.185229166666687</v>
-      </c>
-      <c r="C28">
-        <v>309.51735526315787</v>
-      </c>
-      <c r="D28">
-        <v>358.88904040404032</v>
-      </c>
-      <c r="E28">
-        <v>189.04132544378706</v>
-      </c>
-      <c r="F28">
-        <v>217.48727102803747</v>
-      </c>
       <c r="H28">
         <v>1</v>
       </c>
-      <c r="I28" s="1">
-        <v>19.916206896551728</v>
-      </c>
-      <c r="J28" s="1">
-        <v>352.59764935064942</v>
-      </c>
-      <c r="K28" s="1">
-        <v>408.95377386934638</v>
-      </c>
-      <c r="L28" s="1">
-        <v>492.7144331550802</v>
-      </c>
-      <c r="M28" s="1">
-        <v>90.210881188118805</v>
-      </c>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="I28" s="1"/>
+      <c r="J28" s="1"/>
+      <c r="K28" s="1"/>
+      <c r="L28" s="1"/>
+      <c r="M28" s="1"/>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>2</v>
       </c>
-      <c r="B29">
-        <v>84.326819444444425</v>
-      </c>
-      <c r="C29">
-        <v>331.37808771929832</v>
-      </c>
-      <c r="D29">
-        <v>372.81659595959604</v>
-      </c>
-      <c r="E29">
-        <v>279.1985357142857</v>
-      </c>
-      <c r="F29">
-        <v>136.60270642201834</v>
-      </c>
       <c r="H29">
         <v>2</v>
       </c>
-      <c r="I29" s="1">
-        <v>23.272137931034475</v>
-      </c>
-      <c r="J29" s="1">
-        <v>375.90425742574274</v>
-      </c>
-      <c r="K29" s="1">
-        <v>398.40102150537632</v>
-      </c>
-      <c r="L29" s="1">
-        <v>435.59523529411786</v>
-      </c>
-      <c r="M29" s="1">
-        <v>119.87388461538465</v>
-      </c>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="I29" s="1"/>
+      <c r="J29" s="1"/>
+      <c r="K29" s="1"/>
+      <c r="L29" s="1"/>
+      <c r="M29" s="1"/>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>3</v>
       </c>
-      <c r="B30">
-        <v>112.73768771929821</v>
-      </c>
-      <c r="C30">
-        <v>291.75477876106203</v>
-      </c>
-      <c r="D30">
-        <v>331.52219387755099</v>
-      </c>
-      <c r="E30">
-        <v>208.21731313131295</v>
-      </c>
-      <c r="F30">
-        <v>215.87923809523798</v>
-      </c>
       <c r="H30">
         <v>3</v>
       </c>
-      <c r="I30" s="1">
-        <v>25.436103806228385</v>
-      </c>
-      <c r="J30" s="1">
-        <v>339.05279295154185</v>
-      </c>
-      <c r="K30" s="1">
-        <v>393.92497448979577</v>
-      </c>
-      <c r="L30" s="1">
-        <v>435.52561375661389</v>
-      </c>
-      <c r="M30" s="1">
-        <v>101.35953465346535</v>
-      </c>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="I30" s="1"/>
+      <c r="J30" s="1"/>
+      <c r="K30" s="1"/>
+      <c r="L30" s="1"/>
+      <c r="M30" s="1"/>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>4</v>
       </c>
-      <c r="B31">
-        <v>87.944731448763221</v>
-      </c>
-      <c r="C31">
-        <v>316.33873542600895</v>
-      </c>
-      <c r="D31">
-        <v>369.2252227979273</v>
-      </c>
-      <c r="E31">
-        <v>162.13298742138369</v>
-      </c>
-      <c r="F31">
-        <v>198.7795196078431</v>
-      </c>
       <c r="H31">
         <v>4</v>
       </c>
-      <c r="I31" s="2">
-        <v>26.619937007874004</v>
-      </c>
-      <c r="J31" s="2">
-        <v>463.62546575342458</v>
-      </c>
-      <c r="K31" s="2">
-        <v>521.1634232804231</v>
-      </c>
-      <c r="L31" s="2">
-        <v>226.7741666666667</v>
-      </c>
-      <c r="M31" s="2">
-        <v>39.414617021276605</v>
-      </c>
-      <c r="N31" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="I31" s="1"/>
+      <c r="J31" s="1"/>
+      <c r="K31" s="1"/>
+      <c r="L31" s="1"/>
+      <c r="M31" s="1"/>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>5</v>
       </c>
-      <c r="B32">
-        <v>85.104375000000047</v>
-      </c>
-      <c r="C32">
-        <v>379.25587772925769</v>
-      </c>
-      <c r="D32">
-        <v>423.93045728643222</v>
-      </c>
-      <c r="E32">
-        <v>225.26574576271193</v>
-      </c>
-      <c r="F32">
-        <v>157.55337383177567</v>
-      </c>
       <c r="H32">
         <v>5</v>
       </c>
-      <c r="I32" s="2">
-        <v>34.706100000000013</v>
-      </c>
-      <c r="J32" s="2">
-        <v>367.34057731958762</v>
-      </c>
-      <c r="K32" s="2">
-        <v>435.15167283950626</v>
-      </c>
-      <c r="L32" s="2">
-        <v>318.53897515527945</v>
-      </c>
-      <c r="M32" s="2">
-        <v>104.73336708860764</v>
-      </c>
-      <c r="N32" t="s">
-        <v>15</v>
-      </c>
+      <c r="I32" s="1"/>
+      <c r="J32" s="1"/>
+      <c r="K32" s="1"/>
+      <c r="L32" s="1"/>
+      <c r="M32" s="1"/>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>6</v>
       </c>
-      <c r="B33">
-        <v>95.893944250871087</v>
-      </c>
-      <c r="C33">
-        <v>339.9815462555066</v>
-      </c>
-      <c r="D33">
-        <v>387.85478391959799</v>
-      </c>
-      <c r="E33">
-        <v>215.86844029850747</v>
-      </c>
-      <c r="F33">
-        <v>212.76226605504593</v>
-      </c>
       <c r="H33">
         <v>6</v>
       </c>
-      <c r="I33" s="1">
-        <v>34.50518620689656</v>
-      </c>
-      <c r="J33" s="1">
-        <v>339.02261674008793</v>
-      </c>
-      <c r="K33" s="1">
-        <v>394.16242639593872</v>
-      </c>
-      <c r="L33" s="1">
-        <v>429.78855440414526</v>
-      </c>
-      <c r="M33" s="1">
-        <v>66.912327272727282</v>
-      </c>
+      <c r="I33" s="1"/>
+      <c r="J33" s="1"/>
+      <c r="K33" s="1"/>
+      <c r="L33" s="1"/>
+      <c r="M33" s="1"/>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>7</v>
       </c>
-      <c r="B34">
-        <v>100.50007241379312</v>
-      </c>
-      <c r="C34">
-        <v>272.79294805194792</v>
-      </c>
-      <c r="D34">
-        <v>299.37323383084566</v>
-      </c>
-      <c r="E34">
-        <v>206.94082412060311</v>
-      </c>
-      <c r="F34">
-        <v>162.96139999999994</v>
-      </c>
       <c r="H34">
         <v>7</v>
       </c>
-      <c r="I34" s="1">
-        <v>45.28341176470591</v>
-      </c>
-      <c r="J34" s="1">
-        <v>364.48141333333342</v>
-      </c>
-      <c r="K34" s="1">
-        <v>422.22554639175263</v>
-      </c>
-      <c r="L34" s="1">
-        <v>423.92654973821976</v>
-      </c>
-      <c r="M34" s="1">
-        <v>79.472537037037071</v>
-      </c>
+      <c r="I34" s="1"/>
+      <c r="J34" s="1"/>
+      <c r="K34" s="1"/>
+      <c r="L34" s="1"/>
+      <c r="M34" s="1"/>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>8</v>
       </c>
-      <c r="B35">
-        <v>98.759813793103433</v>
-      </c>
-      <c r="C35">
-        <v>388.75817467248891</v>
-      </c>
-      <c r="D35">
-        <v>436.94206499999973</v>
-      </c>
-      <c r="E35">
-        <v>205.13521212121208</v>
-      </c>
-      <c r="F35">
-        <v>177.28533027522928</v>
-      </c>
       <c r="H35">
         <v>8</v>
       </c>
-      <c r="I35" s="1">
-        <v>47.162487972508579</v>
-      </c>
-      <c r="J35" s="1">
-        <v>385.67684931506852</v>
-      </c>
-      <c r="K35" s="1">
-        <v>447.98684656084663</v>
-      </c>
-      <c r="L35" s="1">
-        <v>400.32234196891199</v>
-      </c>
-      <c r="M35" s="1">
-        <v>135.73159999999999</v>
-      </c>
+      <c r="I35" s="1"/>
+      <c r="J35" s="1"/>
+      <c r="K35" s="1"/>
+      <c r="L35" s="1"/>
+      <c r="M35" s="1"/>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>9</v>
       </c>
-      <c r="B36">
-        <v>77.265055363321821</v>
-      </c>
-      <c r="C36">
-        <v>349.51369868995653</v>
-      </c>
-      <c r="D36">
-        <v>401.86038000000025</v>
-      </c>
-      <c r="E36">
-        <v>221.78055384615391</v>
-      </c>
-      <c r="F36">
-        <v>146.8406055045871</v>
-      </c>
       <c r="H36">
         <v>9</v>
       </c>
-      <c r="I36" s="1">
-        <v>38.277817869415792</v>
-      </c>
-      <c r="J36" s="1">
-        <v>381.0547619047619</v>
-      </c>
-      <c r="K36" s="1">
-        <v>436.32575247524744</v>
-      </c>
-      <c r="L36" s="1">
-        <v>432.4687083333335</v>
-      </c>
-      <c r="M36" s="1">
-        <v>119.22680434782606</v>
-      </c>
+      <c r="I36" s="1"/>
+      <c r="J36" s="1"/>
+      <c r="K36" s="1"/>
+      <c r="L36" s="1"/>
+      <c r="M36" s="1"/>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>9</v>
       </c>
-      <c r="B37">
+      <c r="B37" t="e">
         <f>AVERAGE(B27:B36)</f>
-        <v>89.352674309301577</v>
-      </c>
-      <c r="C37">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C37" t="e">
         <f t="shared" ref="C37" si="17">AVERAGE(C27:C36)</f>
-        <v>339.84319038673863</v>
-      </c>
-      <c r="D37">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D37" t="e">
         <f t="shared" ref="D37:E37" si="18">AVERAGE(D27:D36)</f>
-        <v>386.18693064093236</v>
-      </c>
-      <c r="E37">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E37" t="e">
         <f t="shared" si="18"/>
-        <v>240.21090278599576</v>
-      </c>
-      <c r="F37">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F37" t="e">
         <f t="shared" ref="F37" si="19">AVERAGE(F27:F36)</f>
-        <v>179.69304080674812</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="H37" t="s">
         <v>9</v>
       </c>
-      <c r="I37">
+      <c r="I37" t="e">
         <f>AVERAGE(I27:I36)</f>
-        <v>32.082469153854873</v>
-      </c>
-      <c r="J37">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J37" t="e">
         <f t="shared" ref="J37" si="20">AVERAGE(J27:J36)</f>
-        <v>374.27179474129753</v>
-      </c>
-      <c r="K37">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K37" t="e">
         <f t="shared" ref="K37" si="21">AVERAGE(K27:K36)</f>
-        <v>428.42693071549667</v>
-      </c>
-      <c r="L37">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L37" t="e">
         <f t="shared" ref="L37" si="22">AVERAGE(L27:L36)</f>
-        <v>407.40703879961779</v>
-      </c>
-      <c r="M37">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M37" t="e">
         <f t="shared" ref="M37" si="23">AVERAGE(M27:M36)</f>
-        <v>96.548140369173311</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>10</v>
       </c>
-      <c r="B38">
+      <c r="B38" t="e">
         <f>STDEV(B27:B36)</f>
-        <v>14.920146233959088</v>
-      </c>
-      <c r="C38">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C38" t="e">
         <f t="shared" ref="C38:F38" si="24">STDEV(C27:C36)</f>
-        <v>45.557866369419351</v>
-      </c>
-      <c r="D38">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D38" t="e">
         <f t="shared" si="24"/>
-        <v>52.37109333155329</v>
-      </c>
-      <c r="E38">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E38" t="e">
         <f t="shared" si="24"/>
-        <v>92.142601107525238</v>
-      </c>
-      <c r="F38">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F38" t="e">
         <f t="shared" si="24"/>
-        <v>29.790279390320507</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="H38" t="s">
         <v>10</v>
       </c>
-      <c r="I38">
+      <c r="I38" t="e">
         <f>STDEV(I27:I36)</f>
-        <v>9.3920629556874804</v>
-      </c>
-      <c r="J38">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J38" t="e">
         <f t="shared" ref="J38:M38" si="25">STDEV(J27:J36)</f>
-        <v>35.370213728769542</v>
-      </c>
-      <c r="K38">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K38" t="e">
         <f t="shared" si="25"/>
-        <v>37.682792833618386</v>
-      </c>
-      <c r="L38">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L38" t="e">
         <f t="shared" si="25"/>
-        <v>78.798406394632963</v>
-      </c>
-      <c r="M38">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M38" t="e">
         <f t="shared" si="25"/>
-        <v>28.48412061182173</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>11</v>
       </c>
-      <c r="B39">
+      <c r="B39" t="e">
         <f>B38/(SQRT(10))</f>
-        <v>4.7181645122094196</v>
-      </c>
-      <c r="C39">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C39" t="e">
         <f t="shared" ref="C39" si="26">C38/(SQRT(10))</f>
-        <v>14.406662306495111</v>
-      </c>
-      <c r="D39">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D39" t="e">
         <f t="shared" ref="D39" si="27">D38/(SQRT(10))</f>
-        <v>16.561193848096416</v>
-      </c>
-      <c r="E39">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E39" t="e">
         <f t="shared" ref="E39" si="28">E38/(SQRT(10))</f>
-        <v>29.138048903213321</v>
-      </c>
-      <c r="F39">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F39" t="e">
         <f t="shared" ref="F39" si="29">F38/(SQRT(10))</f>
-        <v>9.4205135006185028</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="H39" t="s">
         <v>11</v>
       </c>
-      <c r="I39">
+      <c r="I39" t="e">
         <f>I38/(SQRT(10))</f>
-        <v>2.9700310867665518</v>
-      </c>
-      <c r="J39">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J39" t="e">
         <f t="shared" ref="J39" si="30">J38/(SQRT(10))</f>
-        <v>11.185043670986882</v>
-      </c>
-      <c r="K39">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K39" t="e">
         <f t="shared" ref="K39" si="31">K38/(SQRT(10))</f>
-        <v>11.916345395050451</v>
-      </c>
-      <c r="L39">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L39" t="e">
         <f t="shared" ref="L39" si="32">L38/(SQRT(10))</f>
-        <v>24.918244019861696</v>
-      </c>
-      <c r="M39">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M39" t="e">
         <f t="shared" ref="M39" si="33">M38/(SQRT(10))</f>
-        <v>9.0074698280305512</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>12</v>
       </c>
-      <c r="B40">
+      <c r="B40" t="e">
         <f>2*B39</f>
-        <v>9.4363290244188391</v>
-      </c>
-      <c r="C40">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C40" t="e">
         <f t="shared" ref="C40" si="34">2*C39</f>
-        <v>28.813324612990222</v>
-      </c>
-      <c r="D40">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D40" t="e">
         <f t="shared" ref="D40" si="35">2*D39</f>
-        <v>33.122387696192831</v>
-      </c>
-      <c r="E40">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E40" t="e">
         <f t="shared" ref="E40" si="36">2*E39</f>
-        <v>58.276097806426641</v>
-      </c>
-      <c r="F40">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F40" t="e">
         <f t="shared" ref="F40" si="37">2*F39</f>
-        <v>18.841027001237006</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="H40" t="s">
         <v>12</v>
       </c>
-      <c r="I40">
+      <c r="I40" t="e">
         <f>2*I39</f>
-        <v>5.9400621735331036</v>
-      </c>
-      <c r="J40">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J40" t="e">
         <f t="shared" ref="J40" si="38">2*J39</f>
-        <v>22.370087341973765</v>
-      </c>
-      <c r="K40">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K40" t="e">
         <f t="shared" ref="K40" si="39">2*K39</f>
-        <v>23.832690790100902</v>
-      </c>
-      <c r="L40">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L40" t="e">
         <f t="shared" ref="L40" si="40">2*L39</f>
-        <v>49.836488039723392</v>
-      </c>
-      <c r="M40">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M40" t="e">
         <f t="shared" ref="M40" si="41">2*M39</f>
-        <v>18.014939656061102</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
   </sheetData>

--- a/graphs/delay_aware_slicing/results/average_results.xlsx
+++ b/graphs/delay_aware_slicing/results/average_results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/phisolani/Github/wifi_monitoring/graphs/delay_aware_slicing/results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B3185C9-004C-AD40-AB41-46147672AE14}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82571B15-6EC3-BA4B-B2DA-3B8D094D028E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20700" yWindow="500" windowWidth="17700" windowHeight="18820" xr2:uid="{3FEC7344-D201-3244-A186-2559A3F9F96E}"/>
   </bookViews>

--- a/graphs/delay_aware_slicing/results/average_results.xlsx
+++ b/graphs/delay_aware_slicing/results/average_results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/phisolani/Github/wifi_monitoring/graphs/delay_aware_slicing/results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82571B15-6EC3-BA4B-B2DA-3B8D094D028E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FD98B7E-B39E-8445-BA2A-9CB1819237BC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20700" yWindow="500" windowWidth="17700" windowHeight="18820" xr2:uid="{3FEC7344-D201-3244-A186-2559A3F9F96E}"/>
+    <workbookView xWindow="19760" yWindow="500" windowWidth="18640" windowHeight="18820" xr2:uid="{3FEC7344-D201-3244-A186-2559A3F9F96E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -87,6 +87,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0000000"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -123,10 +126,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -444,11 +448,13 @@
   <dimension ref="A1:M40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="2" max="2" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="6" width="11.6640625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -550,7 +556,7 @@
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B4" s="2">
         <v>73.228536000000005</v>
@@ -568,117 +574,327 @@
         <v>28.346599999999999</v>
       </c>
       <c r="H4">
-        <v>1</v>
-      </c>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
-      <c r="M4" s="1"/>
+        <v>2</v>
+      </c>
+      <c r="I4" s="1">
+        <v>76.018751999999978</v>
+      </c>
+      <c r="J4" s="1">
+        <v>120.89635199999995</v>
+      </c>
+      <c r="K4" s="1">
+        <v>105.55233199999992</v>
+      </c>
+      <c r="L4" s="1">
+        <v>183.20250399999986</v>
+      </c>
+      <c r="M4" s="1">
+        <v>26.472363999999992</v>
+      </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>74.508739999999989</v>
+      </c>
+      <c r="C5">
+        <v>134.52006399999996</v>
+      </c>
+      <c r="D5">
+        <v>119.01994799999997</v>
+      </c>
+      <c r="E5">
+        <v>119.02753599999987</v>
+      </c>
+      <c r="F5">
+        <v>28.077767999999981</v>
       </c>
       <c r="H5">
-        <v>2</v>
-      </c>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
-      <c r="L5" s="1"/>
-      <c r="M5" s="1"/>
+        <v>3</v>
+      </c>
+      <c r="I5" s="1">
+        <v>75.046403999999896</v>
+      </c>
+      <c r="J5" s="1">
+        <v>157.04341599999995</v>
+      </c>
+      <c r="K5" s="1">
+        <v>141.34492800000004</v>
+      </c>
+      <c r="L5" s="1">
+        <v>152.51337999999993</v>
+      </c>
+      <c r="M5" s="1">
+        <v>26.752035999999993</v>
+      </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6">
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>73.655631999999969</v>
+      </c>
+      <c r="C6">
+        <v>135.21382399999993</v>
+      </c>
+      <c r="D6">
+        <v>119.40585199999998</v>
+      </c>
+      <c r="E6">
+        <v>119.47414400000001</v>
+      </c>
+      <c r="F6">
+        <v>27.996467999999989</v>
       </c>
       <c r="H6">
-        <v>3</v>
-      </c>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
-      <c r="L6" s="1"/>
-      <c r="M6" s="1"/>
+        <v>4</v>
+      </c>
+      <c r="I6" s="1">
+        <v>75.186239999999913</v>
+      </c>
+      <c r="J6" s="1">
+        <v>149.62343599999994</v>
+      </c>
+      <c r="K6" s="1">
+        <v>133.83389199999993</v>
+      </c>
+      <c r="L6" s="1">
+        <v>146.28688399999999</v>
+      </c>
+      <c r="M6" s="1">
+        <v>28.155815999999984</v>
+      </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7">
-        <v>4</v>
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>74.716867999999963</v>
+      </c>
+      <c r="C7">
+        <v>130.38460399999997</v>
+      </c>
+      <c r="D7">
+        <v>115.20101599999995</v>
+      </c>
+      <c r="E7">
+        <v>116.04111599999997</v>
+      </c>
+      <c r="F7">
+        <v>28.278307999999974</v>
       </c>
       <c r="H7">
-        <v>4</v>
-      </c>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="1"/>
-      <c r="M7" s="1"/>
+        <v>5</v>
+      </c>
+      <c r="I7" s="1">
+        <v>75.594908000000032</v>
+      </c>
+      <c r="J7" s="1">
+        <v>141.15522800000002</v>
+      </c>
+      <c r="K7" s="1">
+        <v>126.32719200000001</v>
+      </c>
+      <c r="L7" s="1">
+        <v>165.02057199999987</v>
+      </c>
+      <c r="M7" s="1">
+        <v>28.423563999999971</v>
+      </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8">
-        <v>5</v>
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>74.804671999999982</v>
+      </c>
+      <c r="C8">
+        <v>138.29780399999996</v>
+      </c>
+      <c r="D8">
+        <v>123.14348399999997</v>
+      </c>
+      <c r="E8">
+        <v>122.78251199999997</v>
+      </c>
+      <c r="F8">
+        <v>27.869639999999976</v>
       </c>
       <c r="H8">
-        <v>5</v>
-      </c>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
-      <c r="L8" s="1"/>
-      <c r="M8" s="1"/>
+        <v>6</v>
+      </c>
+      <c r="I8" s="1">
+        <v>75.708728000000008</v>
+      </c>
+      <c r="J8" s="1">
+        <v>145.62130799999994</v>
+      </c>
+      <c r="K8" s="1">
+        <v>129.33312399999994</v>
+      </c>
+      <c r="L8" s="1">
+        <v>146.54704399999989</v>
+      </c>
+      <c r="M8" s="1">
+        <v>28.463671999999956</v>
+      </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>58.758219999999987</v>
+      </c>
+      <c r="C9">
+        <v>64.535939999999982</v>
+      </c>
+      <c r="D9">
+        <v>55.892123999999967</v>
+      </c>
+      <c r="E9">
+        <v>73.596011999999973</v>
+      </c>
+      <c r="F9">
+        <v>6.3023759999999918</v>
       </c>
       <c r="H9">
-        <v>6</v>
-      </c>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
-      <c r="L9" s="1"/>
-      <c r="M9" s="1"/>
+        <v>7</v>
+      </c>
+      <c r="I9" s="1">
+        <v>75.826883999999993</v>
+      </c>
+      <c r="J9" s="1">
+        <v>126.11797999999992</v>
+      </c>
+      <c r="K9" s="1">
+        <v>110.38588799999994</v>
+      </c>
+      <c r="L9" s="1">
+        <v>224.94409199999984</v>
+      </c>
+      <c r="M9" s="1">
+        <v>28.63169199999998</v>
+      </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>74.793831999999966</v>
+      </c>
+      <c r="C10">
+        <v>73.716335999999956</v>
+      </c>
+      <c r="D10">
+        <v>57.851995999999986</v>
+      </c>
+      <c r="E10">
+        <v>63.88228799999996</v>
+      </c>
+      <c r="F10">
+        <v>10.399895999999995</v>
       </c>
       <c r="H10">
-        <v>7</v>
-      </c>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
-      <c r="L10" s="1"/>
-      <c r="M10" s="1"/>
+        <v>8</v>
+      </c>
+      <c r="I10" s="1">
+        <v>75.633931999999959</v>
+      </c>
+      <c r="J10" s="1">
+        <v>178.65837599999995</v>
+      </c>
+      <c r="K10" s="1">
+        <v>163.44551999999996</v>
+      </c>
+      <c r="L10" s="1">
+        <v>99.443991999999994</v>
+      </c>
+      <c r="M10" s="1">
+        <v>25.459907999999999</v>
+      </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>74.64207199999997</v>
+      </c>
+      <c r="C11">
+        <v>77.749899999999968</v>
+      </c>
+      <c r="D11">
+        <v>62.238943999999989</v>
+      </c>
+      <c r="E11">
+        <v>222.68720399999978</v>
+      </c>
+      <c r="F11">
+        <v>12.855155999999988</v>
       </c>
       <c r="H11">
-        <v>8</v>
-      </c>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
-      <c r="K11" s="1"/>
-      <c r="L11" s="1"/>
-      <c r="M11" s="1"/>
+        <v>9</v>
+      </c>
+      <c r="I11" s="1">
+        <v>75.655611999999948</v>
+      </c>
+      <c r="J11" s="1">
+        <v>122.56354399999994</v>
+      </c>
+      <c r="K11" s="1">
+        <v>106.25476400000002</v>
+      </c>
+      <c r="L11" s="1">
+        <v>227.87414399999983</v>
+      </c>
+      <c r="M11" s="1">
+        <v>28.24578799999998</v>
+      </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>73.112547999999947</v>
+      </c>
+      <c r="C12">
+        <v>40.242415999999984</v>
+      </c>
+      <c r="D12">
+        <v>40.329135999999991</v>
+      </c>
+      <c r="E12">
+        <v>207.12529999999975</v>
+      </c>
+      <c r="F12">
+        <v>28.141723999999972</v>
       </c>
       <c r="H12">
-        <v>9</v>
-      </c>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
-      <c r="K12" s="1"/>
-      <c r="L12" s="1"/>
-      <c r="M12" s="1"/>
+        <v>10</v>
+      </c>
+      <c r="I12" s="1">
+        <v>75.697887999999963</v>
+      </c>
+      <c r="J12" s="1">
+        <v>174.75163999999995</v>
+      </c>
+      <c r="K12" s="1">
+        <v>158.95125599999997</v>
+      </c>
+      <c r="L12" s="1">
+        <v>120.26437999999996</v>
+      </c>
+      <c r="M12" s="1">
+        <v>28.694563999999982</v>
+      </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
@@ -686,46 +902,46 @@
       </c>
       <c r="B13">
         <f>AVERAGE(B3:B12)</f>
-        <v>73.081653999999986</v>
+        <v>72.51558919999998</v>
       </c>
       <c r="C13">
         <f t="shared" ref="C13:F13" si="0">AVERAGE(C3:C12)</f>
-        <v>124.18683399999999</v>
+        <v>104.30345559999998</v>
       </c>
       <c r="D13">
         <f t="shared" si="0"/>
-        <v>108.30460799999997</v>
+        <v>90.969171599999967</v>
       </c>
       <c r="E13">
         <f t="shared" si="0"/>
-        <v>89.597477999999967</v>
+        <v>122.38110679999993</v>
       </c>
       <c r="F13">
         <f t="shared" si="0"/>
-        <v>28.387249999999987</v>
+        <v>22.669583599999985</v>
       </c>
       <c r="H13" t="s">
         <v>9</v>
       </c>
       <c r="I13" s="1">
         <f>AVERAGE(I3:I12)</f>
-        <v>75.691383999999999</v>
+        <v>75.606073199999955</v>
       </c>
       <c r="J13" s="1">
         <f t="shared" ref="J13" si="1">AVERAGE(J3:J12)</f>
-        <v>174.13159199999998</v>
+        <v>149.05628719999996</v>
       </c>
       <c r="K13" s="1">
         <f t="shared" ref="K13" si="2">AVERAGE(K3:K12)</f>
-        <v>158.272672</v>
+        <v>133.37015679999996</v>
       </c>
       <c r="L13" s="1">
         <f t="shared" ref="L13" si="3">AVERAGE(L3:L12)</f>
-        <v>114.94627599999995</v>
+        <v>158.10432679999994</v>
       </c>
       <c r="M13" s="1">
         <f t="shared" ref="M13" si="4">AVERAGE(M3:M12)</f>
-        <v>28.522207999999988</v>
+        <v>27.782161199999983</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.2">
@@ -734,46 +950,46 @@
       </c>
       <c r="B14">
         <f>STDEV(B3:B12)</f>
-        <v>0.20772251646852224</v>
+        <v>4.8918954511615684</v>
       </c>
       <c r="C14">
         <f t="shared" ref="C14:F14" si="5">STDEV(C3:C12)</f>
-        <v>1.2179744600311</v>
+        <v>36.243700678512596</v>
       </c>
       <c r="D14">
         <f t="shared" si="5"/>
-        <v>1.2187409637819102</v>
+        <v>32.553145131747954</v>
       </c>
       <c r="E14">
         <f t="shared" si="5"/>
-        <v>31.842865319742618</v>
+        <v>54.025243973872904</v>
       </c>
       <c r="F14">
         <f t="shared" si="5"/>
-        <v>5.7487781310450403E-2</v>
+        <v>8.982744463928384</v>
       </c>
       <c r="H14" t="s">
         <v>10</v>
       </c>
-      <c r="I14" t="e">
+      <c r="I14">
         <f>STDEV(I3:I12)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J14" t="e">
+        <v>0.28638581121932449</v>
+      </c>
+      <c r="J14">
         <f t="shared" ref="J14:M14" si="6">STDEV(J3:J12)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K14" t="e">
+        <v>21.920717649441606</v>
+      </c>
+      <c r="K14">
         <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L14" t="e">
+        <v>21.975038616528341</v>
+      </c>
+      <c r="L14">
         <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M14" t="e">
+        <v>43.529210854120961</v>
+      </c>
+      <c r="M14">
         <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
+        <v>1.130479717008346</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.2">
@@ -782,46 +998,46 @@
       </c>
       <c r="B15">
         <f>B14/(SQRT(10))</f>
-        <v>6.5687627334236609E-2</v>
+        <v>1.5469531701087542</v>
       </c>
       <c r="C15">
         <f t="shared" ref="C15:F15" si="7">C14/(SQRT(10))</f>
-        <v>0.38515734256119921</v>
+        <v>11.46126449774899</v>
       </c>
       <c r="D15">
         <f t="shared" si="7"/>
-        <v>0.38539973232996144</v>
+        <v>10.294208361834558</v>
       </c>
       <c r="E15">
         <f t="shared" si="7"/>
-        <v>10.06959816363725</v>
+        <v>17.084282210372464</v>
       </c>
       <c r="F15">
         <f t="shared" si="7"/>
-        <v>1.8179232657068257E-2</v>
+        <v>2.8405932145281909</v>
       </c>
       <c r="H15" t="s">
         <v>11</v>
       </c>
-      <c r="I15" t="e">
+      <c r="I15">
         <f>I14/(SQRT(10))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J15" t="e">
+        <v>9.0563145300806863E-2</v>
+      </c>
+      <c r="J15">
         <f t="shared" ref="J15" si="8">J14/(SQRT(10))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K15" t="e">
+        <v>6.9319395717687895</v>
+      </c>
+      <c r="K15">
         <f t="shared" ref="K15" si="9">K14/(SQRT(10))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L15" t="e">
+        <v>6.9491173698385014</v>
+      </c>
+      <c r="L15">
         <f t="shared" ref="L15" si="10">L14/(SQRT(10))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M15" t="e">
+        <v>13.765145104874565</v>
+      </c>
+      <c r="M15">
         <f t="shared" ref="M15" si="11">M14/(SQRT(10))</f>
-        <v>#DIV/0!</v>
+        <v>0.3574890754368964</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.2">
@@ -830,46 +1046,46 @@
       </c>
       <c r="B16">
         <f>2*B15</f>
-        <v>0.13137525466847322</v>
+        <v>3.0939063402175084</v>
       </c>
       <c r="C16">
         <f t="shared" ref="C16:F16" si="12">2*C15</f>
-        <v>0.77031468512239842</v>
+        <v>22.922528995497981</v>
       </c>
       <c r="D16">
         <f t="shared" si="12"/>
-        <v>0.77079946465992288</v>
+        <v>20.588416723669116</v>
       </c>
       <c r="E16">
         <f t="shared" si="12"/>
-        <v>20.139196327274501</v>
+        <v>34.168564420744929</v>
       </c>
       <c r="F16">
         <f t="shared" si="12"/>
-        <v>3.6358465314136515E-2</v>
+        <v>5.6811864290563818</v>
       </c>
       <c r="H16" t="s">
         <v>12</v>
       </c>
-      <c r="I16" t="e">
+      <c r="I16">
         <f>2*I15</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J16" t="e">
+        <v>0.18112629060161373</v>
+      </c>
+      <c r="J16">
         <f t="shared" ref="J16" si="13">2*J15</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K16" t="e">
+        <v>13.863879143537579</v>
+      </c>
+      <c r="K16">
         <f t="shared" ref="K16" si="14">2*K15</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L16" t="e">
+        <v>13.898234739677003</v>
+      </c>
+      <c r="L16">
         <f t="shared" ref="L16" si="15">2*L15</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M16" t="e">
+        <v>27.530290209749129</v>
+      </c>
+      <c r="M16">
         <f t="shared" ref="M16" si="16">2*M15</f>
-        <v>#DIV/0!</v>
+        <v>0.71497815087379279</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.2">
@@ -934,322 +1150,572 @@
       <c r="A27" t="s">
         <v>14</v>
       </c>
+      <c r="B27">
+        <v>69.870230496453914</v>
+      </c>
+      <c r="C27">
+        <v>354.77367391304358</v>
+      </c>
+      <c r="D27">
+        <v>404.86795979899489</v>
+      </c>
+      <c r="E27">
+        <v>314.15504761904754</v>
+      </c>
+      <c r="F27">
+        <v>25.038018348623851</v>
+      </c>
       <c r="H27" t="s">
         <v>14</v>
       </c>
-      <c r="I27" s="1"/>
-      <c r="J27" s="1"/>
-      <c r="K27" s="1"/>
-      <c r="L27" s="1"/>
-      <c r="M27" s="1"/>
+      <c r="I27">
+        <v>16.302378006872853</v>
+      </c>
+      <c r="J27">
+        <v>327.45672294372292</v>
+      </c>
+      <c r="K27">
+        <v>378.39915499999989</v>
+      </c>
+      <c r="L27">
+        <v>386.06465803108802</v>
+      </c>
+      <c r="M27">
+        <v>93.6107962962963</v>
+      </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A28">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="B28" s="3">
+        <v>59.899591549295778</v>
+      </c>
+      <c r="C28" s="3">
+        <v>403.31300446428577</v>
+      </c>
+      <c r="D28" s="3">
+        <v>477.12081865284983</v>
+      </c>
+      <c r="E28" s="3">
+        <v>384.74177099236641</v>
+      </c>
+      <c r="F28" s="3">
+        <v>44.96678181818185</v>
       </c>
       <c r="H28">
-        <v>1</v>
-      </c>
-      <c r="I28" s="1"/>
-      <c r="J28" s="1"/>
-      <c r="K28" s="1"/>
-      <c r="L28" s="1"/>
-      <c r="M28" s="1"/>
+        <v>2</v>
+      </c>
+      <c r="I28">
+        <v>37.296900343642605</v>
+      </c>
+      <c r="J28">
+        <v>339.69103589743611</v>
+      </c>
+      <c r="K28">
+        <v>401.50321212121281</v>
+      </c>
+      <c r="L28">
+        <v>356.06701685393267</v>
+      </c>
+      <c r="M28">
+        <v>87.862999999999985</v>
+      </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A29">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="B29" s="3">
+        <v>60.707031034482796</v>
+      </c>
+      <c r="C29" s="3">
+        <v>397.22962931034448</v>
+      </c>
+      <c r="D29" s="3">
+        <v>453.61965517241384</v>
+      </c>
+      <c r="E29" s="3">
+        <v>447.18656783919573</v>
+      </c>
+      <c r="F29" s="3">
+        <v>116.91051851851844</v>
       </c>
       <c r="H29">
-        <v>2</v>
-      </c>
-      <c r="I29" s="1"/>
-      <c r="J29" s="1"/>
-      <c r="K29" s="1"/>
-      <c r="L29" s="1"/>
-      <c r="M29" s="1"/>
+        <v>3</v>
+      </c>
+      <c r="I29">
+        <v>28.285096219931265</v>
+      </c>
+      <c r="J29">
+        <v>372.98395217391328</v>
+      </c>
+      <c r="K29">
+        <v>427.03337000000005</v>
+      </c>
+      <c r="L29">
+        <v>430.33814659685885</v>
+      </c>
+      <c r="M29">
+        <v>60.893941176470641</v>
+      </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A30">
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="B30" s="3">
+        <v>80.258698473282422</v>
+      </c>
+      <c r="C30" s="3">
+        <v>400.80207327586226</v>
+      </c>
+      <c r="D30" s="3">
+        <v>454.81207425742593</v>
+      </c>
+      <c r="E30" s="3">
+        <v>440.00508499999995</v>
+      </c>
+      <c r="F30" s="3">
+        <v>135.1410181818182</v>
       </c>
       <c r="H30">
-        <v>3</v>
-      </c>
-      <c r="I30" s="1"/>
-      <c r="J30" s="1"/>
-      <c r="K30" s="1"/>
-      <c r="L30" s="1"/>
-      <c r="M30" s="1"/>
+        <v>4</v>
+      </c>
+      <c r="I30">
+        <v>37.011748275862075</v>
+      </c>
+      <c r="J30">
+        <v>367.545691304348</v>
+      </c>
+      <c r="K30">
+        <v>421.93867839196014</v>
+      </c>
+      <c r="L30">
+        <v>447.29825581395357</v>
+      </c>
+      <c r="M30">
+        <v>91.863082568807371</v>
+      </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A31">
-        <v>4</v>
+        <v>5</v>
+      </c>
+      <c r="B31" s="3">
+        <v>84.88603436426115</v>
+      </c>
+      <c r="C31" s="3">
+        <v>382.2948441558442</v>
+      </c>
+      <c r="D31" s="3">
+        <v>441.29357286432185</v>
+      </c>
+      <c r="E31" s="3">
+        <v>439.13515075376893</v>
+      </c>
+      <c r="F31" s="3">
+        <v>171.64369090909088</v>
       </c>
       <c r="H31">
-        <v>4</v>
-      </c>
-      <c r="I31" s="1"/>
-      <c r="J31" s="1"/>
-      <c r="K31" s="1"/>
-      <c r="L31" s="1"/>
-      <c r="M31" s="1"/>
+        <v>5</v>
+      </c>
+      <c r="I31">
+        <v>22.667783505154627</v>
+      </c>
+      <c r="J31">
+        <v>447.04052155172417</v>
+      </c>
+      <c r="K31">
+        <v>515.57288500000016</v>
+      </c>
+      <c r="L31">
+        <v>270.88068589743585</v>
+      </c>
+      <c r="M31">
+        <v>57.970431192660534</v>
+      </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A32">
-        <v>5</v>
+        <v>6</v>
+      </c>
+      <c r="B32" s="3">
+        <v>50.460185567010285</v>
+      </c>
+      <c r="C32" s="3">
+        <v>417.10914285714284</v>
+      </c>
+      <c r="D32" s="3">
+        <v>479.57054726368153</v>
+      </c>
+      <c r="E32" s="3">
+        <v>461.60328000000015</v>
+      </c>
+      <c r="F32" s="3">
+        <v>2.2614678899082551E-2</v>
       </c>
       <c r="H32">
-        <v>5</v>
-      </c>
-      <c r="I32" s="1"/>
-      <c r="J32" s="1"/>
-      <c r="K32" s="1"/>
-      <c r="L32" s="1"/>
-      <c r="M32" s="1"/>
+        <v>6</v>
+      </c>
+      <c r="I32">
+        <v>15.542048275862074</v>
+      </c>
+      <c r="J32">
+        <v>419.24741125541095</v>
+      </c>
+      <c r="K32">
+        <v>486.60004020100496</v>
+      </c>
+      <c r="L32">
+        <v>261.4841136363637</v>
+      </c>
+      <c r="M32">
+        <v>34.885648148148157</v>
+      </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A33">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="B33" s="3">
+        <v>38.401207468879669</v>
+      </c>
+      <c r="C33" s="3">
+        <v>261.66430468750002</v>
+      </c>
+      <c r="D33" s="3">
+        <v>281.06546428571431</v>
+      </c>
+      <c r="E33" s="3">
+        <v>319.70802542372894</v>
+      </c>
+      <c r="F33" s="3">
+        <v>212.13016666666667</v>
       </c>
       <c r="H33">
-        <v>6</v>
-      </c>
-      <c r="I33" s="1"/>
-      <c r="J33" s="1"/>
-      <c r="K33" s="1"/>
-      <c r="L33" s="1"/>
-      <c r="M33" s="1"/>
+        <v>7</v>
+      </c>
+      <c r="I33">
+        <v>11.605697594501715</v>
+      </c>
+      <c r="J33">
+        <v>334.41920779220783</v>
+      </c>
+      <c r="K33">
+        <v>386.85049253731324</v>
+      </c>
+      <c r="L33">
+        <v>262.55604519774005</v>
+      </c>
+      <c r="M33">
+        <v>24.754654545454542</v>
+      </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A34">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="B34" s="3">
+        <v>21.341689655172416</v>
+      </c>
+      <c r="C34" s="3">
+        <v>254.95032592592594</v>
+      </c>
+      <c r="D34" s="3">
+        <v>334.84668571428551</v>
+      </c>
+      <c r="E34" s="3">
+        <v>395.66077631578946</v>
+      </c>
+      <c r="F34" s="3">
+        <v>76.946266666666659</v>
       </c>
       <c r="H34">
-        <v>7</v>
-      </c>
-      <c r="I34" s="1"/>
-      <c r="J34" s="1"/>
-      <c r="K34" s="1"/>
-      <c r="L34" s="1"/>
-      <c r="M34" s="1"/>
+        <v>8</v>
+      </c>
+      <c r="I34">
+        <v>23.298210344827588</v>
+      </c>
+      <c r="J34">
+        <v>306.4087359307365</v>
+      </c>
+      <c r="K34">
+        <v>353.78333830845787</v>
+      </c>
+      <c r="L34">
+        <v>451.95949342105285</v>
+      </c>
+      <c r="M34">
+        <v>56.270949494949484</v>
+      </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A35">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="B35" s="3">
+        <v>47.551453608247442</v>
+      </c>
+      <c r="C35" s="3">
+        <v>256.10612738853507</v>
+      </c>
+      <c r="D35" s="3">
+        <v>315.58229133858265</v>
+      </c>
+      <c r="E35" s="3">
+        <v>214.83236499999998</v>
+      </c>
+      <c r="F35" s="3">
+        <v>142.36702040816328</v>
       </c>
       <c r="H35">
-        <v>8</v>
-      </c>
-      <c r="I35" s="1"/>
-      <c r="J35" s="1"/>
-      <c r="K35" s="1"/>
-      <c r="L35" s="1"/>
-      <c r="M35" s="1"/>
+        <v>9</v>
+      </c>
+      <c r="I35">
+        <v>8.903658620689658</v>
+      </c>
+      <c r="J35">
+        <v>272.29620434782601</v>
+      </c>
+      <c r="K35">
+        <v>309.37971000000005</v>
+      </c>
+      <c r="L35">
+        <v>215.0677528089887</v>
+      </c>
+      <c r="M35">
+        <v>24.010201834862389</v>
+      </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A36">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="B36" s="3">
+        <v>35.089734982332466</v>
+      </c>
+      <c r="C36" s="3">
+        <v>601.28342857142866</v>
+      </c>
+      <c r="D36" s="3">
+        <v>574.81121874999997</v>
+      </c>
+      <c r="E36" s="3">
+        <v>228.1692311557789</v>
+      </c>
+      <c r="F36" s="3">
+        <v>95.346238532110036</v>
       </c>
       <c r="H36">
-        <v>9</v>
-      </c>
-      <c r="I36" s="1"/>
-      <c r="J36" s="1"/>
-      <c r="K36" s="1"/>
-      <c r="L36" s="1"/>
-      <c r="M36" s="1"/>
+        <v>10</v>
+      </c>
+      <c r="I36">
+        <v>23.168755172413796</v>
+      </c>
+      <c r="J36">
+        <v>329.05888744588771</v>
+      </c>
+      <c r="K36">
+        <v>375.20042000000001</v>
+      </c>
+      <c r="L36">
+        <v>369.13502604166678</v>
+      </c>
+      <c r="M36">
+        <v>67.803394495412832</v>
+      </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>9</v>
       </c>
-      <c r="B37" t="e">
+      <c r="B37">
         <f>AVERAGE(B27:B36)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C37" t="e">
+        <v>54.846585719941842</v>
+      </c>
+      <c r="C37">
         <f t="shared" ref="C37" si="17">AVERAGE(C27:C36)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D37" t="e">
+        <v>372.95265545499132</v>
+      </c>
+      <c r="D37">
         <f t="shared" ref="D37:E37" si="18">AVERAGE(D27:D36)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E37" t="e">
+        <v>421.75902880982704</v>
+      </c>
+      <c r="E37">
         <f t="shared" si="18"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F37" t="e">
+        <v>364.51973000996759</v>
+      </c>
+      <c r="F37">
         <f t="shared" ref="F37" si="19">AVERAGE(F27:F36)</f>
-        <v>#DIV/0!</v>
+        <v>102.0512334728739</v>
       </c>
       <c r="H37" t="s">
         <v>9</v>
       </c>
-      <c r="I37" t="e">
+      <c r="I37">
         <f>AVERAGE(I27:I36)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J37" t="e">
+        <v>22.408227635975827</v>
+      </c>
+      <c r="J37">
         <f t="shared" ref="J37" si="20">AVERAGE(J27:J36)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K37" t="e">
+        <v>351.61483706432131</v>
+      </c>
+      <c r="K37">
         <f t="shared" ref="K37" si="21">AVERAGE(K27:K36)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L37" t="e">
+        <v>405.62613015599493</v>
+      </c>
+      <c r="L37">
         <f t="shared" ref="L37" si="22">AVERAGE(L27:L36)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M37" t="e">
+        <v>345.08511942990805</v>
+      </c>
+      <c r="M37">
         <f t="shared" ref="M37" si="23">AVERAGE(M27:M36)</f>
-        <v>#DIV/0!</v>
+        <v>59.99260997530623</v>
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>10</v>
       </c>
-      <c r="B38" t="e">
+      <c r="B38">
         <f>STDEV(B27:B36)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C38" t="e">
+        <v>20.247229371608157</v>
+      </c>
+      <c r="C38">
         <f t="shared" ref="C38:F38" si="24">STDEV(C27:C36)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D38" t="e">
+        <v>103.68325667242058</v>
+      </c>
+      <c r="D38">
         <f t="shared" si="24"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E38" t="e">
+        <v>88.962236867526016</v>
+      </c>
+      <c r="E38">
         <f t="shared" si="24"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F38" t="e">
+        <v>90.949114695030232</v>
+      </c>
+      <c r="F38">
         <f t="shared" si="24"/>
-        <v>#DIV/0!</v>
+        <v>66.813423333981447</v>
       </c>
       <c r="H38" t="s">
         <v>10</v>
       </c>
-      <c r="I38" t="e">
+      <c r="I38">
         <f>STDEV(I27:I36)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J38" t="e">
+        <v>9.7434004634344706</v>
+      </c>
+      <c r="J38">
         <f t="shared" ref="J38:M38" si="25">STDEV(J27:J36)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K38" t="e">
+        <v>51.914402482554159</v>
+      </c>
+      <c r="K38">
         <f t="shared" si="25"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L38" t="e">
+        <v>60.87969525724678</v>
+      </c>
+      <c r="L38">
         <f t="shared" si="25"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M38" t="e">
+        <v>86.748069598661445</v>
+      </c>
+      <c r="M38">
         <f t="shared" si="25"/>
-        <v>#DIV/0!</v>
+        <v>26.181493807947362</v>
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>11</v>
       </c>
-      <c r="B39" t="e">
+      <c r="B39">
         <f>B38/(SQRT(10))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C39" t="e">
+        <v>6.4027361122141526</v>
+      </c>
+      <c r="C39">
         <f t="shared" ref="C39" si="26">C38/(SQRT(10))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D39" t="e">
+        <v>32.787524630869967</v>
+      </c>
+      <c r="D39">
         <f t="shared" ref="D39" si="27">D38/(SQRT(10))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E39" t="e">
+        <v>28.132329424478527</v>
+      </c>
+      <c r="E39">
         <f t="shared" ref="E39" si="28">E38/(SQRT(10))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F39" t="e">
+        <v>28.760635361218576</v>
+      </c>
+      <c r="F39">
         <f t="shared" ref="F39" si="29">F38/(SQRT(10))</f>
-        <v>#DIV/0!</v>
+        <v>21.128259600842224</v>
       </c>
       <c r="H39" t="s">
         <v>11</v>
       </c>
-      <c r="I39" t="e">
+      <c r="I39">
         <f>I38/(SQRT(10))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J39" t="e">
+        <v>3.0811337619593058</v>
+      </c>
+      <c r="J39">
         <f t="shared" ref="J39" si="30">J38/(SQRT(10))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K39" t="e">
+        <v>16.416775521157085</v>
+      </c>
+      <c r="K39">
         <f t="shared" ref="K39" si="31">K38/(SQRT(10))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L39" t="e">
+        <v>19.251850026985032</v>
+      </c>
+      <c r="L39">
         <f t="shared" ref="L39" si="32">L38/(SQRT(10))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M39" t="e">
+        <v>27.432148255457882</v>
+      </c>
+      <c r="M39">
         <f t="shared" ref="M39" si="33">M38/(SQRT(10))</f>
-        <v>#DIV/0!</v>
+        <v>8.2793152978708697</v>
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>12</v>
       </c>
-      <c r="B40" t="e">
+      <c r="B40">
         <f>2*B39</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C40" t="e">
+        <v>12.805472224428305</v>
+      </c>
+      <c r="C40">
         <f t="shared" ref="C40" si="34">2*C39</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D40" t="e">
+        <v>65.575049261739935</v>
+      </c>
+      <c r="D40">
         <f t="shared" ref="D40" si="35">2*D39</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E40" t="e">
+        <v>56.264658848957055</v>
+      </c>
+      <c r="E40">
         <f t="shared" ref="E40" si="36">2*E39</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F40" t="e">
+        <v>57.521270722437151</v>
+      </c>
+      <c r="F40">
         <f t="shared" ref="F40" si="37">2*F39</f>
-        <v>#DIV/0!</v>
+        <v>42.256519201684448</v>
       </c>
       <c r="H40" t="s">
         <v>12</v>
       </c>
-      <c r="I40" t="e">
+      <c r="I40">
         <f>2*I39</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J40" t="e">
+        <v>6.1622675239186115</v>
+      </c>
+      <c r="J40">
         <f t="shared" ref="J40" si="38">2*J39</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K40" t="e">
+        <v>32.83355104231417</v>
+      </c>
+      <c r="K40">
         <f t="shared" ref="K40" si="39">2*K39</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L40" t="e">
+        <v>38.503700053970064</v>
+      </c>
+      <c r="L40">
         <f t="shared" ref="L40" si="40">2*L39</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M40" t="e">
+        <v>54.864296510915764</v>
+      </c>
+      <c r="M40">
         <f t="shared" ref="M40" si="41">2*M39</f>
-        <v>#DIV/0!</v>
+        <v>16.558630595741739</v>
       </c>
     </row>
   </sheetData>

--- a/graphs/delay_aware_slicing/results/average_results.xlsx
+++ b/graphs/delay_aware_slicing/results/average_results.xlsx
@@ -8,13 +8,35 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/phisolani/Github/wifi_monitoring/graphs/delay_aware_slicing/results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FD98B7E-B39E-8445-BA2A-9CB1819237BC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F5356819-4A64-7343-B1EE-D3629EEE0FCA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19760" yWindow="500" windowWidth="18640" windowHeight="18820" xr2:uid="{3FEC7344-D201-3244-A186-2559A3F9F96E}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22180" windowHeight="21600" xr2:uid="{3FEC7344-D201-3244-A186-2559A3F9F96E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlchart.v1.0" hidden="1">Sheet1!$AA$3:$AA$12</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">Sheet1!$W$3:$W$12</definedName>
+    <definedName name="_xlchart.v1.10" hidden="1">Sheet1!$K$3:$K$12</definedName>
+    <definedName name="_xlchart.v1.11" hidden="1">Sheet1!$L$2</definedName>
+    <definedName name="_xlchart.v1.12" hidden="1">Sheet1!$L$3:$L$12</definedName>
+    <definedName name="_xlchart.v1.13" hidden="1">Sheet1!$M$2</definedName>
+    <definedName name="_xlchart.v1.14" hidden="1">Sheet1!$M$3:$M$12</definedName>
+    <definedName name="_xlchart.v1.15" hidden="1">Sheet1!$I$27:$I$36</definedName>
+    <definedName name="_xlchart.v1.16" hidden="1">Sheet1!$J$27:$J$36</definedName>
+    <definedName name="_xlchart.v1.17" hidden="1">Sheet1!$K$27:$K$36</definedName>
+    <definedName name="_xlchart.v1.18" hidden="1">Sheet1!$L$27:$L$36</definedName>
+    <definedName name="_xlchart.v1.19" hidden="1">Sheet1!$M$27:$M$36</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">Sheet1!$X$3:$X$12</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">Sheet1!$Y$3:$Y$12</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">Sheet1!$Z$3:$Z$12</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">Sheet1!$I$2</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">Sheet1!$I$3:$I$12</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">Sheet1!$J$2</definedName>
+    <definedName name="_xlchart.v1.8" hidden="1">Sheet1!$J$3:$J$12</definedName>
+    <definedName name="_xlchart.v1.9" hidden="1">Sheet1!$K$2</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -71,9 +93,6 @@
     <t>SDT ERROR</t>
   </si>
   <si>
-    <t>95% CONF</t>
-  </si>
-  <si>
     <t>DELAY</t>
   </si>
   <si>
@@ -82,13 +101,17 @@
   <si>
     <t>SUM</t>
   </si>
+  <si>
+    <t>T Student 95% CONF</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0000000"/>
+    <numFmt numFmtId="165" formatCode="0.00000000"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -126,11 +149,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -445,20 +469,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70784E4A-0428-264E-82D8-1E226FAD8D1C}">
-  <dimension ref="A1:M40"/>
+  <dimension ref="A1:AA36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
+      <selection activeCell="Y4" sqref="Y4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="6" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="5" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.33203125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="19" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="23" max="25" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="12.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
         <v>5</v>
       </c>
@@ -466,7 +501,7 @@
         <v>7</v>
       </c>
       <c r="D1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I1" t="s">
         <v>6</v>
@@ -475,10 +510,28 @@
         <v>7</v>
       </c>
       <c r="K1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>12</v>
+      </c>
+      <c r="R1" t="s">
+        <v>9</v>
+      </c>
+      <c r="W1" t="s">
+        <v>6</v>
+      </c>
+      <c r="X1" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -515,10 +568,46 @@
       <c r="M2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O2" t="s">
+        <v>8</v>
+      </c>
+      <c r="P2" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>1</v>
+      </c>
+      <c r="R2" t="s">
+        <v>2</v>
+      </c>
+      <c r="S2" t="s">
+        <v>3</v>
+      </c>
+      <c r="T2" t="s">
+        <v>4</v>
+      </c>
+      <c r="V2" t="s">
+        <v>8</v>
+      </c>
+      <c r="W2" t="s">
+        <v>0</v>
+      </c>
+      <c r="X2" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B3">
         <v>72.934771999999953</v>
@@ -536,7 +625,7 @@
         <v>28.427899999999976</v>
       </c>
       <c r="H3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I3" s="1">
         <v>75.691383999999999</v>
@@ -553,8 +642,44 @@
       <c r="M3" s="1">
         <v>28.522207999999988</v>
       </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O3" t="s">
+        <v>13</v>
+      </c>
+      <c r="P3">
+        <v>69.870230496453914</v>
+      </c>
+      <c r="Q3">
+        <v>354.77367391304358</v>
+      </c>
+      <c r="R3">
+        <v>404.86795979899489</v>
+      </c>
+      <c r="S3">
+        <v>314.15504761904754</v>
+      </c>
+      <c r="T3">
+        <v>25.038018348623851</v>
+      </c>
+      <c r="V3" t="s">
+        <v>13</v>
+      </c>
+      <c r="W3">
+        <v>16.302378006872853</v>
+      </c>
+      <c r="X3">
+        <v>327.45672294372292</v>
+      </c>
+      <c r="Y3">
+        <v>378.39915500000001</v>
+      </c>
+      <c r="Z3">
+        <v>386.06465803108802</v>
+      </c>
+      <c r="AA3">
+        <v>93.6107962962963</v>
+      </c>
+    </row>
+    <row r="4" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>2</v>
       </c>
@@ -591,8 +716,44 @@
       <c r="M4" s="1">
         <v>26.472363999999992</v>
       </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O4">
+        <v>2</v>
+      </c>
+      <c r="P4" s="3">
+        <v>59.899591549295778</v>
+      </c>
+      <c r="Q4" s="3">
+        <v>403.31300446428577</v>
+      </c>
+      <c r="R4" s="3">
+        <v>477.12081865284983</v>
+      </c>
+      <c r="S4" s="3">
+        <v>384.74177099236641</v>
+      </c>
+      <c r="T4" s="3">
+        <v>44.96678181818185</v>
+      </c>
+      <c r="V4">
+        <v>2</v>
+      </c>
+      <c r="W4">
+        <v>37.296900343642605</v>
+      </c>
+      <c r="X4">
+        <v>339.69103589743611</v>
+      </c>
+      <c r="Y4">
+        <v>401.50321212121281</v>
+      </c>
+      <c r="Z4">
+        <v>356.06701685393267</v>
+      </c>
+      <c r="AA4">
+        <v>87.862999999999985</v>
+      </c>
+    </row>
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>3</v>
       </c>
@@ -629,8 +790,44 @@
       <c r="M5" s="1">
         <v>26.752035999999993</v>
       </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O5">
+        <v>3</v>
+      </c>
+      <c r="P5" s="3">
+        <v>60.707031034482796</v>
+      </c>
+      <c r="Q5" s="3">
+        <v>397.22962931034448</v>
+      </c>
+      <c r="R5" s="3">
+        <v>453.61965517241384</v>
+      </c>
+      <c r="S5" s="3">
+        <v>447.18656783919573</v>
+      </c>
+      <c r="T5" s="3">
+        <v>116.91051851851844</v>
+      </c>
+      <c r="V5">
+        <v>3</v>
+      </c>
+      <c r="W5">
+        <v>28.285096219931265</v>
+      </c>
+      <c r="X5">
+        <v>372.98395217391328</v>
+      </c>
+      <c r="Y5">
+        <v>427.03337000000005</v>
+      </c>
+      <c r="Z5">
+        <v>430.33814659685885</v>
+      </c>
+      <c r="AA5">
+        <v>60.893941176470641</v>
+      </c>
+    </row>
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>4</v>
       </c>
@@ -667,8 +864,44 @@
       <c r="M6" s="1">
         <v>28.155815999999984</v>
       </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O6">
+        <v>4</v>
+      </c>
+      <c r="P6" s="3">
+        <v>80.258698473282422</v>
+      </c>
+      <c r="Q6" s="3">
+        <v>400.80207327586226</v>
+      </c>
+      <c r="R6" s="3">
+        <v>454.81207425742593</v>
+      </c>
+      <c r="S6" s="3">
+        <v>440.00508499999995</v>
+      </c>
+      <c r="T6" s="3">
+        <v>135.1410181818182</v>
+      </c>
+      <c r="V6">
+        <v>4</v>
+      </c>
+      <c r="W6">
+        <v>37.011748275862075</v>
+      </c>
+      <c r="X6">
+        <v>367.545691304348</v>
+      </c>
+      <c r="Y6">
+        <v>421.93867839196014</v>
+      </c>
+      <c r="Z6">
+        <v>447.29825581395357</v>
+      </c>
+      <c r="AA6">
+        <v>91.863082568807371</v>
+      </c>
+    </row>
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>5</v>
       </c>
@@ -705,8 +938,44 @@
       <c r="M7" s="1">
         <v>28.423563999999971</v>
       </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O7">
+        <v>5</v>
+      </c>
+      <c r="P7" s="3">
+        <v>84.88603436426115</v>
+      </c>
+      <c r="Q7" s="3">
+        <v>382.2948441558442</v>
+      </c>
+      <c r="R7" s="3">
+        <v>441.29357286432185</v>
+      </c>
+      <c r="S7" s="3">
+        <v>439.13515075376893</v>
+      </c>
+      <c r="T7" s="3">
+        <v>171.64369090909088</v>
+      </c>
+      <c r="V7">
+        <v>5</v>
+      </c>
+      <c r="W7">
+        <v>22.667783505154627</v>
+      </c>
+      <c r="X7">
+        <v>447.04052155172417</v>
+      </c>
+      <c r="Y7">
+        <v>515.57288500000016</v>
+      </c>
+      <c r="Z7">
+        <v>270.88068589743585</v>
+      </c>
+      <c r="AA7">
+        <v>57.970431192660534</v>
+      </c>
+    </row>
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>6</v>
       </c>
@@ -743,8 +1012,44 @@
       <c r="M8" s="1">
         <v>28.463671999999956</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O8">
+        <v>6</v>
+      </c>
+      <c r="P8" s="3">
+        <v>50.460185567010285</v>
+      </c>
+      <c r="Q8" s="3">
+        <v>417.10914285714284</v>
+      </c>
+      <c r="R8" s="3">
+        <v>479.57054726368153</v>
+      </c>
+      <c r="S8" s="3">
+        <v>461.60328000000015</v>
+      </c>
+      <c r="T8" s="3">
+        <v>2.2614678899082551E-2</v>
+      </c>
+      <c r="V8">
+        <v>6</v>
+      </c>
+      <c r="W8">
+        <v>15.542048275862074</v>
+      </c>
+      <c r="X8">
+        <v>419.24741125541095</v>
+      </c>
+      <c r="Y8">
+        <v>486.60004020100496</v>
+      </c>
+      <c r="Z8">
+        <v>261.4841136363637</v>
+      </c>
+      <c r="AA8">
+        <v>34.885648148148157</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>7</v>
       </c>
@@ -781,8 +1086,44 @@
       <c r="M9" s="1">
         <v>28.63169199999998</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O9">
+        <v>7</v>
+      </c>
+      <c r="P9" s="3">
+        <v>38.401207468879669</v>
+      </c>
+      <c r="Q9" s="3">
+        <v>261.66430468750002</v>
+      </c>
+      <c r="R9" s="3">
+        <v>281.06546428571431</v>
+      </c>
+      <c r="S9" s="3">
+        <v>319.70802542372894</v>
+      </c>
+      <c r="T9" s="3">
+        <v>212.13016666666667</v>
+      </c>
+      <c r="V9">
+        <v>7</v>
+      </c>
+      <c r="W9">
+        <v>11.605697594501715</v>
+      </c>
+      <c r="X9">
+        <v>334.41920779220783</v>
+      </c>
+      <c r="Y9">
+        <v>386.85049253731324</v>
+      </c>
+      <c r="Z9">
+        <v>262.55604519774005</v>
+      </c>
+      <c r="AA9">
+        <v>24.754654545454542</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>8</v>
       </c>
@@ -819,8 +1160,44 @@
       <c r="M10" s="1">
         <v>25.459907999999999</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O10">
+        <v>8</v>
+      </c>
+      <c r="P10" s="3">
+        <v>21.341689655172416</v>
+      </c>
+      <c r="Q10" s="3">
+        <v>254.95032592592594</v>
+      </c>
+      <c r="R10" s="3">
+        <v>334.84668571428551</v>
+      </c>
+      <c r="S10" s="3">
+        <v>395.66077631578946</v>
+      </c>
+      <c r="T10" s="3">
+        <v>76.946266666666659</v>
+      </c>
+      <c r="V10">
+        <v>8</v>
+      </c>
+      <c r="W10">
+        <v>23.298210344827588</v>
+      </c>
+      <c r="X10">
+        <v>306.4087359307365</v>
+      </c>
+      <c r="Y10">
+        <v>353.78333830845787</v>
+      </c>
+      <c r="Z10">
+        <v>451.95949342105285</v>
+      </c>
+      <c r="AA10">
+        <v>56.270949494949484</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>9</v>
       </c>
@@ -857,8 +1234,44 @@
       <c r="M11" s="1">
         <v>28.24578799999998</v>
       </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O11">
+        <v>9</v>
+      </c>
+      <c r="P11" s="3">
+        <v>47.551453608247442</v>
+      </c>
+      <c r="Q11" s="3">
+        <v>256.10612738853507</v>
+      </c>
+      <c r="R11" s="3">
+        <v>315.58229133858265</v>
+      </c>
+      <c r="S11" s="3">
+        <v>214.83236499999998</v>
+      </c>
+      <c r="T11" s="3">
+        <v>142.36702040816328</v>
+      </c>
+      <c r="V11">
+        <v>9</v>
+      </c>
+      <c r="W11">
+        <v>8.903658620689658</v>
+      </c>
+      <c r="X11">
+        <v>272.29620434782601</v>
+      </c>
+      <c r="Y11">
+        <v>309.37971000000005</v>
+      </c>
+      <c r="Z11">
+        <v>215.0677528089887</v>
+      </c>
+      <c r="AA11">
+        <v>24.010201834862389</v>
+      </c>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>10</v>
       </c>
@@ -895,827 +1308,762 @@
       <c r="M12" s="1">
         <v>28.694563999999982</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
+      <c r="O12">
+        <v>10</v>
+      </c>
+      <c r="P12" s="3">
+        <v>35.089734982332466</v>
+      </c>
+      <c r="Q12" s="3">
+        <v>601.28342857142866</v>
+      </c>
+      <c r="R12" s="3">
+        <v>574.81121874999997</v>
+      </c>
+      <c r="S12" s="3">
+        <v>228.1692311557789</v>
+      </c>
+      <c r="T12" s="3">
+        <v>95.346238532110036</v>
+      </c>
+      <c r="V12">
+        <v>10</v>
+      </c>
+      <c r="W12">
+        <v>23.168755172413796</v>
+      </c>
+      <c r="X12">
+        <v>329.05888744588771</v>
+      </c>
+      <c r="Y12">
+        <v>375.20042000000001</v>
+      </c>
+      <c r="Z12">
+        <v>369.13502604166678</v>
+      </c>
+      <c r="AA12">
+        <v>67.803394495412832</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="H13">
+        <v>11</v>
+      </c>
+      <c r="O13">
+        <v>11</v>
+      </c>
+      <c r="V13">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>12</v>
+      </c>
+      <c r="H14">
+        <v>12</v>
+      </c>
+      <c r="O14">
+        <v>12</v>
+      </c>
+      <c r="V14">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>13</v>
+      </c>
+      <c r="H15">
+        <v>13</v>
+      </c>
+      <c r="O15">
+        <v>13</v>
+      </c>
+      <c r="V15">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>14</v>
+      </c>
+      <c r="H16">
+        <v>14</v>
+      </c>
+      <c r="O16">
+        <v>14</v>
+      </c>
+      <c r="V16">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>15</v>
+      </c>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="H17">
+        <v>15</v>
+      </c>
+      <c r="O17">
+        <v>15</v>
+      </c>
+      <c r="V17">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>16</v>
+      </c>
+      <c r="H18">
+        <v>16</v>
+      </c>
+      <c r="O18">
+        <v>16</v>
+      </c>
+      <c r="S18" s="1"/>
+      <c r="T18" s="1"/>
+      <c r="U18" s="1"/>
+      <c r="V18">
+        <v>16</v>
+      </c>
+      <c r="W18" s="1"/>
+    </row>
+    <row r="19" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>17</v>
+      </c>
+      <c r="H19">
+        <v>17</v>
+      </c>
+      <c r="O19">
+        <v>17</v>
+      </c>
+      <c r="S19" s="1"/>
+      <c r="T19" s="1"/>
+      <c r="U19" s="1"/>
+      <c r="V19">
+        <v>17</v>
+      </c>
+      <c r="W19" s="1"/>
+    </row>
+    <row r="20" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>18</v>
+      </c>
+      <c r="H20">
+        <v>18</v>
+      </c>
+      <c r="O20">
+        <v>18</v>
+      </c>
+      <c r="S20" s="1"/>
+      <c r="T20" s="1"/>
+      <c r="U20" s="1"/>
+      <c r="V20">
+        <v>18</v>
+      </c>
+      <c r="W20" s="1"/>
+    </row>
+    <row r="21" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>19</v>
+      </c>
+      <c r="H21">
+        <v>19</v>
+      </c>
+      <c r="O21">
+        <v>19</v>
+      </c>
+      <c r="S21" s="1"/>
+      <c r="T21" s="1"/>
+      <c r="U21" s="1"/>
+      <c r="V21">
+        <v>19</v>
+      </c>
+      <c r="W21" s="1"/>
+    </row>
+    <row r="22" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>20</v>
+      </c>
+      <c r="H22">
+        <v>20</v>
+      </c>
+      <c r="O22">
+        <v>20</v>
+      </c>
+      <c r="S22" s="1"/>
+      <c r="T22" s="1"/>
+      <c r="U22" s="1"/>
+      <c r="V22">
+        <v>20</v>
+      </c>
+      <c r="W22" s="1"/>
+    </row>
+    <row r="23" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>21</v>
+      </c>
+      <c r="H23">
+        <v>21</v>
+      </c>
+      <c r="O23">
+        <v>21</v>
+      </c>
+      <c r="S23" s="1"/>
+      <c r="T23" s="1"/>
+      <c r="U23" s="1"/>
+      <c r="V23">
+        <v>21</v>
+      </c>
+      <c r="W23" s="1"/>
+    </row>
+    <row r="24" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>22</v>
+      </c>
+      <c r="H24">
+        <v>22</v>
+      </c>
+      <c r="O24">
+        <v>22</v>
+      </c>
+      <c r="S24" s="1"/>
+      <c r="T24" s="1"/>
+      <c r="U24" s="1"/>
+      <c r="V24">
+        <v>22</v>
+      </c>
+      <c r="W24" s="1"/>
+    </row>
+    <row r="25" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>23</v>
+      </c>
+      <c r="H25">
+        <v>23</v>
+      </c>
+      <c r="O25">
+        <v>23</v>
+      </c>
+      <c r="S25" s="1"/>
+      <c r="T25" s="1"/>
+      <c r="U25" s="1"/>
+      <c r="V25">
+        <v>23</v>
+      </c>
+      <c r="W25" s="1"/>
+    </row>
+    <row r="26" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>24</v>
+      </c>
+      <c r="H26">
+        <v>24</v>
+      </c>
+      <c r="O26">
+        <v>24</v>
+      </c>
+      <c r="S26" s="1"/>
+      <c r="T26" s="1"/>
+      <c r="U26" s="1"/>
+      <c r="V26">
+        <v>24</v>
+      </c>
+      <c r="W26" s="1"/>
+    </row>
+    <row r="27" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>25</v>
+      </c>
+      <c r="H27">
+        <v>25</v>
+      </c>
+      <c r="O27">
+        <v>25</v>
+      </c>
+      <c r="S27" s="1"/>
+      <c r="T27" s="1"/>
+      <c r="U27" s="1"/>
+      <c r="V27">
+        <v>25</v>
+      </c>
+      <c r="W27" s="1"/>
+    </row>
+    <row r="28" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>26</v>
+      </c>
+      <c r="H28">
+        <v>26</v>
+      </c>
+      <c r="O28">
+        <v>26</v>
+      </c>
+      <c r="S28" s="1"/>
+      <c r="T28" s="1"/>
+      <c r="U28" s="1"/>
+      <c r="V28">
+        <v>26</v>
+      </c>
+      <c r="W28" s="1"/>
+    </row>
+    <row r="29" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>27</v>
+      </c>
+      <c r="H29">
+        <v>27</v>
+      </c>
+      <c r="O29">
+        <v>27</v>
+      </c>
+      <c r="S29" s="1"/>
+      <c r="T29" s="1"/>
+      <c r="U29" s="1"/>
+      <c r="V29">
+        <v>27</v>
+      </c>
+      <c r="W29" s="1"/>
+    </row>
+    <row r="30" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>28</v>
+      </c>
+      <c r="H30">
+        <v>28</v>
+      </c>
+      <c r="O30">
+        <v>28</v>
+      </c>
+      <c r="S30" s="1"/>
+      <c r="T30" s="1"/>
+      <c r="U30" s="1"/>
+      <c r="V30">
+        <v>28</v>
+      </c>
+      <c r="W30" s="1"/>
+    </row>
+    <row r="31" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>29</v>
+      </c>
+      <c r="H31">
+        <v>29</v>
+      </c>
+      <c r="O31">
+        <v>29</v>
+      </c>
+      <c r="S31" s="1"/>
+      <c r="T31" s="1"/>
+      <c r="U31" s="1"/>
+      <c r="V31">
+        <v>29</v>
+      </c>
+      <c r="W31" s="1"/>
+    </row>
+    <row r="32" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>30</v>
+      </c>
+      <c r="H32">
+        <v>30</v>
+      </c>
+      <c r="O32">
+        <v>30</v>
+      </c>
+      <c r="S32" s="1"/>
+      <c r="T32" s="1"/>
+      <c r="U32" s="1"/>
+      <c r="V32">
+        <v>30</v>
+      </c>
+      <c r="W32" s="1"/>
+    </row>
+    <row r="33" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
         <v>9</v>
       </c>
-      <c r="B13">
+      <c r="B33">
         <f>AVERAGE(B3:B12)</f>
         <v>72.51558919999998</v>
       </c>
-      <c r="C13">
-        <f t="shared" ref="C13:F13" si="0">AVERAGE(C3:C12)</f>
+      <c r="C33">
+        <f>AVERAGE(C3:C12)</f>
         <v>104.30345559999998</v>
       </c>
-      <c r="D13">
-        <f t="shared" si="0"/>
+      <c r="D33">
+        <f>AVERAGE(D3:D12)</f>
         <v>90.969171599999967</v>
       </c>
-      <c r="E13">
-        <f t="shared" si="0"/>
+      <c r="E33">
+        <f>AVERAGE(E3:E12)</f>
         <v>122.38110679999993</v>
       </c>
-      <c r="F13">
-        <f t="shared" si="0"/>
+      <c r="F33">
+        <f>AVERAGE(F3:F12)</f>
         <v>22.669583599999985</v>
       </c>
-      <c r="H13" t="s">
+      <c r="H33" t="s">
         <v>9</v>
       </c>
-      <c r="I13" s="1">
+      <c r="I33" s="1">
         <f>AVERAGE(I3:I12)</f>
         <v>75.606073199999955</v>
       </c>
-      <c r="J13" s="1">
-        <f t="shared" ref="J13" si="1">AVERAGE(J3:J12)</f>
+      <c r="J33" s="1">
+        <f>AVERAGE(J3:J12)</f>
         <v>149.05628719999996</v>
       </c>
-      <c r="K13" s="1">
-        <f t="shared" ref="K13" si="2">AVERAGE(K3:K12)</f>
+      <c r="K33" s="1">
+        <f>AVERAGE(K3:K12)</f>
         <v>133.37015679999996</v>
       </c>
-      <c r="L13" s="1">
-        <f t="shared" ref="L13" si="3">AVERAGE(L3:L12)</f>
+      <c r="L33" s="1">
+        <f>AVERAGE(L3:L12)</f>
         <v>158.10432679999994</v>
       </c>
-      <c r="M13" s="1">
-        <f t="shared" ref="M13" si="4">AVERAGE(M3:M12)</f>
+      <c r="M33" s="1">
+        <f>AVERAGE(M3:M12)</f>
         <v>27.782161199999983</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
+      <c r="O33" t="s">
+        <v>9</v>
+      </c>
+      <c r="P33">
+        <f>AVERAGE(P3:P12)</f>
+        <v>54.846585719941842</v>
+      </c>
+      <c r="Q33">
+        <f>AVERAGE(Q3:Q12)</f>
+        <v>372.95265545499132</v>
+      </c>
+      <c r="R33">
+        <f>AVERAGE(R3:R12)</f>
+        <v>421.75902880982704</v>
+      </c>
+      <c r="S33">
+        <f>AVERAGE(S3:S12)</f>
+        <v>364.51973000996759</v>
+      </c>
+      <c r="T33">
+        <f>AVERAGE(T3:T12)</f>
+        <v>102.0512334728739</v>
+      </c>
+      <c r="V33" t="s">
+        <v>9</v>
+      </c>
+      <c r="W33">
+        <f>AVERAGE(W3:W12)</f>
+        <v>22.408227635975827</v>
+      </c>
+      <c r="X33">
+        <f>AVERAGE(X3:X12)</f>
+        <v>351.61483706432131</v>
+      </c>
+      <c r="Y33">
+        <f>AVERAGE(Y3:Y12)</f>
+        <v>405.62613015599493</v>
+      </c>
+      <c r="Z33">
+        <f>AVERAGE(Z3:Z12)</f>
+        <v>345.08511942990805</v>
+      </c>
+      <c r="AA33">
+        <f>AVERAGE(AA3:AA12)</f>
+        <v>59.99260997530623</v>
+      </c>
+    </row>
+    <row r="34" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
         <v>10</v>
       </c>
-      <c r="B14">
+      <c r="B34">
         <f>STDEV(B3:B12)</f>
         <v>4.8918954511615684</v>
       </c>
-      <c r="C14">
-        <f t="shared" ref="C14:F14" si="5">STDEV(C3:C12)</f>
+      <c r="C34">
+        <f>STDEV(C3:C12)</f>
         <v>36.243700678512596</v>
       </c>
-      <c r="D14">
-        <f t="shared" si="5"/>
+      <c r="D34">
+        <f>STDEV(D3:D12)</f>
         <v>32.553145131747954</v>
       </c>
-      <c r="E14">
-        <f t="shared" si="5"/>
+      <c r="E34">
+        <f>STDEV(E3:E12)</f>
         <v>54.025243973872904</v>
       </c>
-      <c r="F14">
-        <f t="shared" si="5"/>
+      <c r="F34">
+        <f>STDEV(F3:F12)</f>
         <v>8.982744463928384</v>
       </c>
-      <c r="H14" t="s">
+      <c r="H34" t="s">
         <v>10</v>
       </c>
-      <c r="I14">
+      <c r="I34">
         <f>STDEV(I3:I12)</f>
         <v>0.28638581121932449</v>
       </c>
-      <c r="J14">
-        <f t="shared" ref="J14:M14" si="6">STDEV(J3:J12)</f>
+      <c r="J34">
+        <f>STDEV(J3:J12)</f>
         <v>21.920717649441606</v>
       </c>
-      <c r="K14">
-        <f t="shared" si="6"/>
+      <c r="K34">
+        <f>STDEV(K3:K12)</f>
         <v>21.975038616528341</v>
       </c>
-      <c r="L14">
-        <f t="shared" si="6"/>
+      <c r="L34">
+        <f>STDEV(L3:L12)</f>
         <v>43.529210854120961</v>
       </c>
-      <c r="M14">
-        <f t="shared" si="6"/>
+      <c r="M34">
+        <f>STDEV(M3:M12)</f>
         <v>1.130479717008346</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
+      <c r="O34" t="s">
+        <v>10</v>
+      </c>
+      <c r="P34">
+        <f>STDEV(P3:P12)</f>
+        <v>20.247229371608157</v>
+      </c>
+      <c r="Q34">
+        <f>STDEV(Q3:Q12)</f>
+        <v>103.68325667242058</v>
+      </c>
+      <c r="R34">
+        <f>STDEV(R3:R12)</f>
+        <v>88.962236867526016</v>
+      </c>
+      <c r="S34">
+        <f>STDEV(S3:S12)</f>
+        <v>90.949114695030232</v>
+      </c>
+      <c r="T34">
+        <f>STDEV(T3:T12)</f>
+        <v>66.813423333981447</v>
+      </c>
+      <c r="V34" t="s">
+        <v>10</v>
+      </c>
+      <c r="W34">
+        <f>STDEV(W3:W12)</f>
+        <v>9.7434004634344706</v>
+      </c>
+      <c r="X34">
+        <f>STDEV(X3:X12)</f>
+        <v>51.914402482554159</v>
+      </c>
+      <c r="Y34">
+        <f>STDEV(Y3:Y12)</f>
+        <v>60.87969525724678</v>
+      </c>
+      <c r="Z34">
+        <f>STDEV(Z3:Z12)</f>
+        <v>86.748069598661445</v>
+      </c>
+      <c r="AA34">
+        <f>STDEV(AA3:AA12)</f>
+        <v>26.181493807947362</v>
+      </c>
+    </row>
+    <row r="35" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
         <v>11</v>
       </c>
-      <c r="B15">
-        <f>B14/(SQRT(10))</f>
+      <c r="B35">
+        <f>B34/(SQRT(10))</f>
         <v>1.5469531701087542</v>
       </c>
-      <c r="C15">
-        <f t="shared" ref="C15:F15" si="7">C14/(SQRT(10))</f>
+      <c r="C35">
+        <f t="shared" ref="C35:F35" si="0">C34/(SQRT(10))</f>
         <v>11.46126449774899</v>
       </c>
-      <c r="D15">
-        <f t="shared" si="7"/>
+      <c r="D35">
+        <f t="shared" si="0"/>
         <v>10.294208361834558</v>
       </c>
-      <c r="E15">
-        <f t="shared" si="7"/>
+      <c r="E35">
+        <f t="shared" si="0"/>
         <v>17.084282210372464</v>
       </c>
-      <c r="F15">
-        <f t="shared" si="7"/>
+      <c r="F35">
+        <f t="shared" si="0"/>
         <v>2.8405932145281909</v>
       </c>
-      <c r="H15" t="s">
+      <c r="H35" t="s">
         <v>11</v>
       </c>
-      <c r="I15">
-        <f>I14/(SQRT(10))</f>
+      <c r="I35">
+        <f>I34/(SQRT(10))</f>
         <v>9.0563145300806863E-2</v>
       </c>
-      <c r="J15">
-        <f t="shared" ref="J15" si="8">J14/(SQRT(10))</f>
+      <c r="J35">
+        <f t="shared" ref="J35" si="1">J34/(SQRT(10))</f>
         <v>6.9319395717687895</v>
       </c>
-      <c r="K15">
-        <f t="shared" ref="K15" si="9">K14/(SQRT(10))</f>
+      <c r="K35">
+        <f t="shared" ref="K35" si="2">K34/(SQRT(10))</f>
         <v>6.9491173698385014</v>
       </c>
-      <c r="L15">
-        <f t="shared" ref="L15" si="10">L14/(SQRT(10))</f>
+      <c r="L35">
+        <f t="shared" ref="L35" si="3">L34/(SQRT(10))</f>
         <v>13.765145104874565</v>
       </c>
-      <c r="M15">
-        <f t="shared" ref="M15" si="11">M14/(SQRT(10))</f>
+      <c r="M35">
+        <f t="shared" ref="M35" si="4">M34/(SQRT(10))</f>
         <v>0.3574890754368964</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>12</v>
-      </c>
-      <c r="B16">
-        <f>2*B15</f>
-        <v>3.0939063402175084</v>
-      </c>
-      <c r="C16">
-        <f t="shared" ref="C16:F16" si="12">2*C15</f>
-        <v>22.922528995497981</v>
-      </c>
-      <c r="D16">
-        <f t="shared" si="12"/>
-        <v>20.588416723669116</v>
-      </c>
-      <c r="E16">
-        <f t="shared" si="12"/>
-        <v>34.168564420744929</v>
-      </c>
-      <c r="F16">
-        <f t="shared" si="12"/>
-        <v>5.6811864290563818</v>
-      </c>
-      <c r="H16" t="s">
-        <v>12</v>
-      </c>
-      <c r="I16">
-        <f>2*I15</f>
-        <v>0.18112629060161373</v>
-      </c>
-      <c r="J16">
-        <f t="shared" ref="J16" si="13">2*J15</f>
-        <v>13.863879143537579</v>
-      </c>
-      <c r="K16">
-        <f t="shared" ref="K16" si="14">2*K15</f>
-        <v>13.898234739677003</v>
-      </c>
-      <c r="L16">
-        <f t="shared" ref="L16" si="15">2*L15</f>
-        <v>27.530290209749129</v>
-      </c>
-      <c r="M16">
-        <f t="shared" ref="M16" si="16">2*M15</f>
-        <v>0.71497815087379279</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B25" t="s">
-        <v>5</v>
-      </c>
-      <c r="C25" t="s">
-        <v>13</v>
-      </c>
-      <c r="D25" t="s">
-        <v>9</v>
-      </c>
-      <c r="I25" t="s">
-        <v>6</v>
-      </c>
-      <c r="J25" t="s">
-        <v>13</v>
-      </c>
-      <c r="K25" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>8</v>
-      </c>
-      <c r="B26" t="s">
-        <v>0</v>
-      </c>
-      <c r="C26" t="s">
-        <v>1</v>
-      </c>
-      <c r="D26" t="s">
-        <v>2</v>
-      </c>
-      <c r="E26" t="s">
-        <v>3</v>
-      </c>
-      <c r="F26" t="s">
-        <v>4</v>
-      </c>
-      <c r="H26" t="s">
-        <v>8</v>
-      </c>
-      <c r="I26" t="s">
-        <v>0</v>
-      </c>
-      <c r="J26" t="s">
-        <v>1</v>
-      </c>
-      <c r="K26" t="s">
-        <v>2</v>
-      </c>
-      <c r="L26" t="s">
-        <v>3</v>
-      </c>
-      <c r="M26" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
-        <v>14</v>
-      </c>
-      <c r="B27">
-        <v>69.870230496453914</v>
-      </c>
-      <c r="C27">
-        <v>354.77367391304358</v>
-      </c>
-      <c r="D27">
-        <v>404.86795979899489</v>
-      </c>
-      <c r="E27">
-        <v>314.15504761904754</v>
-      </c>
-      <c r="F27">
-        <v>25.038018348623851</v>
-      </c>
-      <c r="H27" t="s">
-        <v>14</v>
-      </c>
-      <c r="I27">
-        <v>16.302378006872853</v>
-      </c>
-      <c r="J27">
-        <v>327.45672294372292</v>
-      </c>
-      <c r="K27">
-        <v>378.39915499999989</v>
-      </c>
-      <c r="L27">
-        <v>386.06465803108802</v>
-      </c>
-      <c r="M27">
-        <v>93.6107962962963</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A28">
-        <v>2</v>
-      </c>
-      <c r="B28" s="3">
-        <v>59.899591549295778</v>
-      </c>
-      <c r="C28" s="3">
-        <v>403.31300446428577</v>
-      </c>
-      <c r="D28" s="3">
-        <v>477.12081865284983</v>
-      </c>
-      <c r="E28" s="3">
-        <v>384.74177099236641</v>
-      </c>
-      <c r="F28" s="3">
-        <v>44.96678181818185</v>
-      </c>
-      <c r="H28">
-        <v>2</v>
-      </c>
-      <c r="I28">
-        <v>37.296900343642605</v>
-      </c>
-      <c r="J28">
-        <v>339.69103589743611</v>
-      </c>
-      <c r="K28">
-        <v>401.50321212121281</v>
-      </c>
-      <c r="L28">
-        <v>356.06701685393267</v>
-      </c>
-      <c r="M28">
-        <v>87.862999999999985</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A29">
-        <v>3</v>
-      </c>
-      <c r="B29" s="3">
-        <v>60.707031034482796</v>
-      </c>
-      <c r="C29" s="3">
-        <v>397.22962931034448</v>
-      </c>
-      <c r="D29" s="3">
-        <v>453.61965517241384</v>
-      </c>
-      <c r="E29" s="3">
-        <v>447.18656783919573</v>
-      </c>
-      <c r="F29" s="3">
-        <v>116.91051851851844</v>
-      </c>
-      <c r="H29">
-        <v>3</v>
-      </c>
-      <c r="I29">
-        <v>28.285096219931265</v>
-      </c>
-      <c r="J29">
-        <v>372.98395217391328</v>
-      </c>
-      <c r="K29">
-        <v>427.03337000000005</v>
-      </c>
-      <c r="L29">
-        <v>430.33814659685885</v>
-      </c>
-      <c r="M29">
-        <v>60.893941176470641</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A30">
-        <v>4</v>
-      </c>
-      <c r="B30" s="3">
-        <v>80.258698473282422</v>
-      </c>
-      <c r="C30" s="3">
-        <v>400.80207327586226</v>
-      </c>
-      <c r="D30" s="3">
-        <v>454.81207425742593</v>
-      </c>
-      <c r="E30" s="3">
-        <v>440.00508499999995</v>
-      </c>
-      <c r="F30" s="3">
-        <v>135.1410181818182</v>
-      </c>
-      <c r="H30">
-        <v>4</v>
-      </c>
-      <c r="I30">
-        <v>37.011748275862075</v>
-      </c>
-      <c r="J30">
-        <v>367.545691304348</v>
-      </c>
-      <c r="K30">
-        <v>421.93867839196014</v>
-      </c>
-      <c r="L30">
-        <v>447.29825581395357</v>
-      </c>
-      <c r="M30">
-        <v>91.863082568807371</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A31">
-        <v>5</v>
-      </c>
-      <c r="B31" s="3">
-        <v>84.88603436426115</v>
-      </c>
-      <c r="C31" s="3">
-        <v>382.2948441558442</v>
-      </c>
-      <c r="D31" s="3">
-        <v>441.29357286432185</v>
-      </c>
-      <c r="E31" s="3">
-        <v>439.13515075376893</v>
-      </c>
-      <c r="F31" s="3">
-        <v>171.64369090909088</v>
-      </c>
-      <c r="H31">
-        <v>5</v>
-      </c>
-      <c r="I31">
-        <v>22.667783505154627</v>
-      </c>
-      <c r="J31">
-        <v>447.04052155172417</v>
-      </c>
-      <c r="K31">
-        <v>515.57288500000016</v>
-      </c>
-      <c r="L31">
-        <v>270.88068589743585</v>
-      </c>
-      <c r="M31">
-        <v>57.970431192660534</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A32">
-        <v>6</v>
-      </c>
-      <c r="B32" s="3">
-        <v>50.460185567010285</v>
-      </c>
-      <c r="C32" s="3">
-        <v>417.10914285714284</v>
-      </c>
-      <c r="D32" s="3">
-        <v>479.57054726368153</v>
-      </c>
-      <c r="E32" s="3">
-        <v>461.60328000000015</v>
-      </c>
-      <c r="F32" s="3">
-        <v>2.2614678899082551E-2</v>
-      </c>
-      <c r="H32">
-        <v>6</v>
-      </c>
-      <c r="I32">
-        <v>15.542048275862074</v>
-      </c>
-      <c r="J32">
-        <v>419.24741125541095</v>
-      </c>
-      <c r="K32">
-        <v>486.60004020100496</v>
-      </c>
-      <c r="L32">
-        <v>261.4841136363637</v>
-      </c>
-      <c r="M32">
-        <v>34.885648148148157</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A33">
-        <v>7</v>
-      </c>
-      <c r="B33" s="3">
-        <v>38.401207468879669</v>
-      </c>
-      <c r="C33" s="3">
-        <v>261.66430468750002</v>
-      </c>
-      <c r="D33" s="3">
-        <v>281.06546428571431</v>
-      </c>
-      <c r="E33" s="3">
-        <v>319.70802542372894</v>
-      </c>
-      <c r="F33" s="3">
-        <v>212.13016666666667</v>
-      </c>
-      <c r="H33">
-        <v>7</v>
-      </c>
-      <c r="I33">
-        <v>11.605697594501715</v>
-      </c>
-      <c r="J33">
-        <v>334.41920779220783</v>
-      </c>
-      <c r="K33">
-        <v>386.85049253731324</v>
-      </c>
-      <c r="L33">
-        <v>262.55604519774005</v>
-      </c>
-      <c r="M33">
-        <v>24.754654545454542</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A34">
-        <v>8</v>
-      </c>
-      <c r="B34" s="3">
-        <v>21.341689655172416</v>
-      </c>
-      <c r="C34" s="3">
-        <v>254.95032592592594</v>
-      </c>
-      <c r="D34" s="3">
-        <v>334.84668571428551</v>
-      </c>
-      <c r="E34" s="3">
-        <v>395.66077631578946</v>
-      </c>
-      <c r="F34" s="3">
-        <v>76.946266666666659</v>
-      </c>
-      <c r="H34">
-        <v>8</v>
-      </c>
-      <c r="I34">
-        <v>23.298210344827588</v>
-      </c>
-      <c r="J34">
-        <v>306.4087359307365</v>
-      </c>
-      <c r="K34">
-        <v>353.78333830845787</v>
-      </c>
-      <c r="L34">
-        <v>451.95949342105285</v>
-      </c>
-      <c r="M34">
-        <v>56.270949494949484</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A35">
-        <v>9</v>
-      </c>
-      <c r="B35" s="3">
-        <v>47.551453608247442</v>
-      </c>
-      <c r="C35" s="3">
-        <v>256.10612738853507</v>
-      </c>
-      <c r="D35" s="3">
-        <v>315.58229133858265</v>
-      </c>
-      <c r="E35" s="3">
-        <v>214.83236499999998</v>
-      </c>
-      <c r="F35" s="3">
-        <v>142.36702040816328</v>
-      </c>
-      <c r="H35">
-        <v>9</v>
-      </c>
-      <c r="I35">
-        <v>8.903658620689658</v>
-      </c>
-      <c r="J35">
-        <v>272.29620434782601</v>
-      </c>
-      <c r="K35">
-        <v>309.37971000000005</v>
-      </c>
-      <c r="L35">
-        <v>215.0677528089887</v>
-      </c>
-      <c r="M35">
-        <v>24.010201834862389</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A36">
-        <v>10</v>
-      </c>
-      <c r="B36" s="3">
-        <v>35.089734982332466</v>
-      </c>
-      <c r="C36" s="3">
-        <v>601.28342857142866</v>
-      </c>
-      <c r="D36" s="3">
-        <v>574.81121874999997</v>
-      </c>
-      <c r="E36" s="3">
-        <v>228.1692311557789</v>
-      </c>
-      <c r="F36" s="3">
-        <v>95.346238532110036</v>
-      </c>
-      <c r="H36">
-        <v>10</v>
-      </c>
-      <c r="I36">
-        <v>23.168755172413796</v>
-      </c>
-      <c r="J36">
-        <v>329.05888744588771</v>
-      </c>
-      <c r="K36">
-        <v>375.20042000000001</v>
-      </c>
-      <c r="L36">
-        <v>369.13502604166678</v>
-      </c>
-      <c r="M36">
-        <v>67.803394495412832</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
-        <v>9</v>
-      </c>
-      <c r="B37">
-        <f>AVERAGE(B27:B36)</f>
-        <v>54.846585719941842</v>
-      </c>
-      <c r="C37">
-        <f t="shared" ref="C37" si="17">AVERAGE(C27:C36)</f>
-        <v>372.95265545499132</v>
-      </c>
-      <c r="D37">
-        <f t="shared" ref="D37:E37" si="18">AVERAGE(D27:D36)</f>
-        <v>421.75902880982704</v>
-      </c>
-      <c r="E37">
-        <f t="shared" si="18"/>
-        <v>364.51973000996759</v>
-      </c>
-      <c r="F37">
-        <f t="shared" ref="F37" si="19">AVERAGE(F27:F36)</f>
-        <v>102.0512334728739</v>
-      </c>
-      <c r="H37" t="s">
-        <v>9</v>
-      </c>
-      <c r="I37">
-        <f>AVERAGE(I27:I36)</f>
-        <v>22.408227635975827</v>
-      </c>
-      <c r="J37">
-        <f t="shared" ref="J37" si="20">AVERAGE(J27:J36)</f>
-        <v>351.61483706432131</v>
-      </c>
-      <c r="K37">
-        <f t="shared" ref="K37" si="21">AVERAGE(K27:K36)</f>
-        <v>405.62613015599493</v>
-      </c>
-      <c r="L37">
-        <f t="shared" ref="L37" si="22">AVERAGE(L27:L36)</f>
-        <v>345.08511942990805</v>
-      </c>
-      <c r="M37">
-        <f t="shared" ref="M37" si="23">AVERAGE(M27:M36)</f>
-        <v>59.99260997530623</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
-        <v>10</v>
-      </c>
-      <c r="B38">
-        <f>STDEV(B27:B36)</f>
-        <v>20.247229371608157</v>
-      </c>
-      <c r="C38">
-        <f t="shared" ref="C38:F38" si="24">STDEV(C27:C36)</f>
-        <v>103.68325667242058</v>
-      </c>
-      <c r="D38">
-        <f t="shared" si="24"/>
-        <v>88.962236867526016</v>
-      </c>
-      <c r="E38">
-        <f t="shared" si="24"/>
-        <v>90.949114695030232</v>
-      </c>
-      <c r="F38">
-        <f t="shared" si="24"/>
-        <v>66.813423333981447</v>
-      </c>
-      <c r="H38" t="s">
-        <v>10</v>
-      </c>
-      <c r="I38">
-        <f>STDEV(I27:I36)</f>
-        <v>9.7434004634344706</v>
-      </c>
-      <c r="J38">
-        <f t="shared" ref="J38:M38" si="25">STDEV(J27:J36)</f>
-        <v>51.914402482554159</v>
-      </c>
-      <c r="K38">
-        <f t="shared" si="25"/>
-        <v>60.87969525724678</v>
-      </c>
-      <c r="L38">
-        <f t="shared" si="25"/>
-        <v>86.748069598661445</v>
-      </c>
-      <c r="M38">
-        <f t="shared" si="25"/>
-        <v>26.181493807947362</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
+      <c r="O35" t="s">
         <v>11</v>
       </c>
-      <c r="B39">
-        <f>B38/(SQRT(10))</f>
+      <c r="P35">
+        <f>P34/(SQRT(10))</f>
         <v>6.4027361122141526</v>
       </c>
-      <c r="C39">
-        <f t="shared" ref="C39" si="26">C38/(SQRT(10))</f>
+      <c r="Q35">
+        <f t="shared" ref="Q35" si="5">Q34/(SQRT(10))</f>
         <v>32.787524630869967</v>
       </c>
-      <c r="D39">
-        <f t="shared" ref="D39" si="27">D38/(SQRT(10))</f>
+      <c r="R35">
+        <f t="shared" ref="R35" si="6">R34/(SQRT(10))</f>
         <v>28.132329424478527</v>
       </c>
-      <c r="E39">
-        <f t="shared" ref="E39" si="28">E38/(SQRT(10))</f>
+      <c r="S35">
+        <f t="shared" ref="S35" si="7">S34/(SQRT(10))</f>
         <v>28.760635361218576</v>
       </c>
-      <c r="F39">
-        <f t="shared" ref="F39" si="29">F38/(SQRT(10))</f>
+      <c r="T35">
+        <f t="shared" ref="T35" si="8">T34/(SQRT(10))</f>
         <v>21.128259600842224</v>
       </c>
-      <c r="H39" t="s">
+      <c r="V35" t="s">
         <v>11</v>
       </c>
-      <c r="I39">
-        <f>I38/(SQRT(10))</f>
+      <c r="W35">
+        <f>W34/(SQRT(10))</f>
         <v>3.0811337619593058</v>
       </c>
-      <c r="J39">
-        <f t="shared" ref="J39" si="30">J38/(SQRT(10))</f>
+      <c r="X35">
+        <f t="shared" ref="X35" si="9">X34/(SQRT(10))</f>
         <v>16.416775521157085</v>
       </c>
-      <c r="K39">
-        <f t="shared" ref="K39" si="31">K38/(SQRT(10))</f>
+      <c r="Y35">
+        <f t="shared" ref="Y35" si="10">Y34/(SQRT(10))</f>
         <v>19.251850026985032</v>
       </c>
-      <c r="L39">
-        <f t="shared" ref="L39" si="32">L38/(SQRT(10))</f>
+      <c r="Z35">
+        <f t="shared" ref="Z35" si="11">Z34/(SQRT(10))</f>
         <v>27.432148255457882</v>
       </c>
-      <c r="M39">
-        <f t="shared" ref="M39" si="33">M38/(SQRT(10))</f>
+      <c r="AA35">
+        <f t="shared" ref="AA35" si="12">AA34/(SQRT(10))</f>
         <v>8.2793152978708697</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
-        <v>12</v>
-      </c>
-      <c r="B40">
-        <f>2*B39</f>
-        <v>12.805472224428305</v>
-      </c>
-      <c r="C40">
-        <f t="shared" ref="C40" si="34">2*C39</f>
-        <v>65.575049261739935</v>
-      </c>
-      <c r="D40">
-        <f t="shared" ref="D40" si="35">2*D39</f>
-        <v>56.264658848957055</v>
-      </c>
-      <c r="E40">
-        <f t="shared" ref="E40" si="36">2*E39</f>
-        <v>57.521270722437151</v>
-      </c>
-      <c r="F40">
-        <f t="shared" ref="F40" si="37">2*F39</f>
-        <v>42.256519201684448</v>
-      </c>
-      <c r="H40" t="s">
-        <v>12</v>
-      </c>
-      <c r="I40">
-        <f>2*I39</f>
-        <v>6.1622675239186115</v>
-      </c>
-      <c r="J40">
-        <f t="shared" ref="J40" si="38">2*J39</f>
-        <v>32.83355104231417</v>
-      </c>
-      <c r="K40">
-        <f t="shared" ref="K40" si="39">2*K39</f>
-        <v>38.503700053970064</v>
-      </c>
-      <c r="L40">
-        <f t="shared" ref="L40" si="40">2*L39</f>
-        <v>54.864296510915764</v>
-      </c>
-      <c r="M40">
-        <f t="shared" ref="M40" si="41">2*M39</f>
-        <v>16.558630595741739</v>
+    <row r="36" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>15</v>
+      </c>
+      <c r="B36" s="4">
+        <f>_xlfn.CONFIDENCE.T(0.05,B34,10)</f>
+        <v>3.4994511942749091</v>
+      </c>
+      <c r="C36" s="4">
+        <f t="shared" ref="C36:F36" si="13">_xlfn.CONFIDENCE.T(0.05,C34,10)</f>
+        <v>25.927181578307653</v>
+      </c>
+      <c r="D36" s="4">
+        <f t="shared" si="13"/>
+        <v>23.287117181061227</v>
+      </c>
+      <c r="E36" s="4">
+        <f t="shared" si="13"/>
+        <v>38.647331373460027</v>
+      </c>
+      <c r="F36" s="4">
+        <f t="shared" si="13"/>
+        <v>6.4258682868409265</v>
+      </c>
+      <c r="H36" t="s">
+        <v>15</v>
+      </c>
+      <c r="I36" s="4">
+        <f>_xlfn.CONFIDENCE.T(0.05,I34,10)</f>
+        <v>0.20486806782775488</v>
+      </c>
+      <c r="J36" s="4">
+        <f t="shared" ref="J36:M36" si="14">_xlfn.CONFIDENCE.T(0.05,J34,10)</f>
+        <v>15.681136754361091</v>
+      </c>
+      <c r="K36" s="4">
+        <f t="shared" si="14"/>
+        <v>15.719995633305592</v>
+      </c>
+      <c r="L36" s="4">
+        <f t="shared" si="14"/>
+        <v>31.138921595948649</v>
+      </c>
+      <c r="M36" s="4">
+        <f t="shared" si="14"/>
+        <v>0.8086964726216832</v>
+      </c>
+      <c r="O36" t="s">
+        <v>15</v>
+      </c>
+      <c r="P36" s="4">
+        <f>_xlfn.CONFIDENCE.T(0.005,P34,10)</f>
+        <v>23.623934641084755</v>
+      </c>
+      <c r="Q36" s="4">
+        <f>_xlfn.CONFIDENCE.T(0.005,Q34,10)</f>
+        <v>120.97489656726955</v>
+      </c>
+      <c r="R36" s="4">
+        <f>_xlfn.CONFIDENCE.T(0.005,R34,10)</f>
+        <v>103.79879788541213</v>
+      </c>
+      <c r="S36" s="4">
+        <f>_xlfn.CONFIDENCE.T(0.005,S34,10)</f>
+        <v>106.11703467106337</v>
+      </c>
+      <c r="T36" s="4">
+        <f>_xlfn.CONFIDENCE.T(0.005,T34,10)</f>
+        <v>77.956144864068335</v>
+      </c>
+      <c r="U36" s="4"/>
+      <c r="V36" t="s">
+        <v>15</v>
+      </c>
+      <c r="W36" s="4">
+        <f>_xlfn.CONFIDENCE.T(0.005,W34,10)</f>
+        <v>11.368343367160104</v>
+      </c>
+      <c r="X36" s="4">
+        <f>_xlfn.CONFIDENCE.T(0.005,X34,10)</f>
+        <v>60.572359243313976</v>
+      </c>
+      <c r="Y36" s="4">
+        <f>_xlfn.CONFIDENCE.T(0.005,Y34,10)</f>
+        <v>71.032827026847855</v>
+      </c>
+      <c r="Z36" s="4">
+        <f>_xlfn.CONFIDENCE.T(0.005,Z34,10)</f>
+        <v>101.21536575827704</v>
+      </c>
+      <c r="AA36" s="4">
+        <f>_xlfn.CONFIDENCE.T(0.005,AA34,10)</f>
+        <v>30.547878288583245</v>
       </c>
     </row>
   </sheetData>

--- a/graphs/delay_aware_slicing/results/average_results.xlsx
+++ b/graphs/delay_aware_slicing/results/average_results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/phisolani/Github/wifi_monitoring/graphs/delay_aware_slicing/results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0276E35F-195E-1B40-860C-2ECA86BC46D4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5048F43F-A564-CF40-B308-A0B7058457C3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="21600" xr2:uid="{3FEC7344-D201-3244-A186-2559A3F9F96E}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="21140" xr2:uid="{3FEC7344-D201-3244-A186-2559A3F9F96E}"/>
   </bookViews>
   <sheets>
     <sheet name="averages" sheetId="1" r:id="rId1"/>
@@ -447,10 +447,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70784E4A-0428-264E-82D8-1E226FAD8D1C}">
-  <dimension ref="A1:M44"/>
+  <dimension ref="A1:M54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="O39" sqref="O39"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="I50" sqref="I50:M50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -913,907 +913,1583 @@
       <c r="A13">
         <v>11</v>
       </c>
+      <c r="B13">
+        <v>74.941255999999953</v>
+      </c>
+      <c r="C13">
+        <v>132.46154799999996</v>
+      </c>
+      <c r="D13">
+        <v>116.48772399999993</v>
+      </c>
+      <c r="E13">
+        <v>125.45023599999988</v>
+      </c>
+      <c r="F13">
+        <v>27.828447999999987</v>
+      </c>
       <c r="H13">
         <v>11</v>
+      </c>
+      <c r="I13">
+        <v>75.56130399999995</v>
+      </c>
+      <c r="J13">
+        <v>135.01978800000001</v>
+      </c>
+      <c r="K13">
+        <v>119.38525599999997</v>
+      </c>
+      <c r="L13">
+        <v>197.45601999999974</v>
+      </c>
+      <c r="M13">
+        <v>28.094027999999991</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>12</v>
       </c>
+      <c r="B14">
+        <v>73.100623999999968</v>
+      </c>
+      <c r="C14">
+        <v>123.91529200000005</v>
+      </c>
+      <c r="D14">
+        <v>108.27642399999998</v>
+      </c>
+      <c r="E14">
+        <v>155.63204799999994</v>
+      </c>
+      <c r="F14">
+        <v>26.38455999999999</v>
+      </c>
       <c r="H14">
         <v>12</v>
+      </c>
+      <c r="I14">
+        <v>75.605747999999949</v>
+      </c>
+      <c r="J14">
+        <v>160.26614800000004</v>
+      </c>
+      <c r="K14">
+        <v>144.81589599999992</v>
+      </c>
+      <c r="L14">
+        <v>139.49670799999978</v>
+      </c>
+      <c r="M14">
+        <v>28.527627999999968</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>13</v>
       </c>
+      <c r="B15">
+        <v>46.397367999999979</v>
+      </c>
+      <c r="C15">
+        <v>128.43340399999988</v>
+      </c>
+      <c r="D15">
+        <v>116.23515199999994</v>
+      </c>
+      <c r="E15">
+        <v>78.768859999999947</v>
+      </c>
+      <c r="F15">
+        <v>16.884383999999976</v>
+      </c>
       <c r="H15">
         <v>13</v>
+      </c>
+      <c r="I15">
+        <v>75.378107999999912</v>
+      </c>
+      <c r="J15">
+        <v>165.77286799999996</v>
+      </c>
+      <c r="K15">
+        <v>150.32478399999997</v>
+      </c>
+      <c r="L15">
+        <v>132.89948400000009</v>
+      </c>
+      <c r="M15">
+        <v>28.500527999999996</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>14</v>
       </c>
+      <c r="B16">
+        <v>71.420423999999954</v>
+      </c>
+      <c r="C16">
+        <v>180.90767599999998</v>
+      </c>
+      <c r="D16">
+        <v>165.06610000000012</v>
+      </c>
+      <c r="E16">
+        <v>104.84773199999994</v>
+      </c>
+      <c r="F16">
+        <v>24.671839999999953</v>
+      </c>
       <c r="H16">
         <v>14</v>
+      </c>
+      <c r="I16">
+        <v>75.501683999999983</v>
+      </c>
+      <c r="J16">
+        <v>134.01817200000005</v>
+      </c>
+      <c r="K16">
+        <v>117.86982399999989</v>
+      </c>
+      <c r="L16">
+        <v>186.80246799999983</v>
+      </c>
+      <c r="M16">
+        <v>28.101615999999972</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>15</v>
       </c>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
+      <c r="B17">
+        <v>65.792295999999936</v>
+      </c>
+      <c r="C17" s="4">
+        <v>140.42135999999994</v>
+      </c>
+      <c r="D17" s="4">
+        <v>124.8496999999999</v>
+      </c>
+      <c r="E17" s="4">
+        <v>185.34990799999991</v>
+      </c>
+      <c r="F17" s="4">
+        <v>28.57207199999997</v>
+      </c>
       <c r="H17">
         <v>15</v>
       </c>
+      <c r="I17">
+        <v>76.070783999999946</v>
+      </c>
+      <c r="J17">
+        <v>118.03567599999994</v>
+      </c>
+      <c r="K17">
+        <v>107.85366399999998</v>
+      </c>
+      <c r="L17">
+        <v>213.08946799999981</v>
+      </c>
+      <c r="M17">
+        <v>28.592667999999968</v>
+      </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
+      <c r="A18">
+        <v>16</v>
+      </c>
+      <c r="B18">
+        <v>74.991119999999995</v>
+      </c>
+      <c r="C18">
+        <v>129.43068400000001</v>
+      </c>
+      <c r="D18">
+        <v>114.38259600000001</v>
+      </c>
+      <c r="E18">
+        <v>114.12677200000002</v>
+      </c>
+      <c r="F18">
+        <v>17.268119999999982</v>
+      </c>
+      <c r="H18">
+        <v>16</v>
+      </c>
+      <c r="I18">
+        <v>75.785691999999955</v>
+      </c>
+      <c r="J18">
+        <v>159.97021600000008</v>
+      </c>
+      <c r="K18">
+        <v>144.18175599999998</v>
+      </c>
+      <c r="L18">
+        <v>164.30296399999992</v>
+      </c>
+      <c r="M18">
+        <v>28.676135999999978</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>17</v>
+      </c>
+      <c r="B19">
+        <v>64.522931999999997</v>
+      </c>
+      <c r="C19">
+        <v>170.392876</v>
+      </c>
+      <c r="D19">
+        <v>155.04777199999995</v>
+      </c>
+      <c r="E19">
+        <v>129.58677999999992</v>
+      </c>
+      <c r="F19">
+        <v>28.402967999999976</v>
+      </c>
+      <c r="H19">
+        <v>17</v>
+      </c>
+      <c r="I19">
+        <v>76.221459999999979</v>
+      </c>
+      <c r="J19">
+        <v>180.33749199999991</v>
+      </c>
+      <c r="K19">
+        <v>164.81894800000015</v>
+      </c>
+      <c r="L19">
+        <v>124.412848</v>
+      </c>
+      <c r="M19">
+        <v>28.499443999999983</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>18</v>
+      </c>
+      <c r="B20">
+        <v>75.499515999999929</v>
+      </c>
+      <c r="C20">
+        <v>174.59771199999994</v>
+      </c>
+      <c r="D20">
+        <v>159.04556400000001</v>
+      </c>
+      <c r="E20">
+        <v>127.85454799999998</v>
+      </c>
+      <c r="F20">
+        <v>25.198663999999997</v>
+      </c>
+      <c r="H20">
+        <v>18</v>
+      </c>
+      <c r="I20">
+        <v>75.023639999999986</v>
+      </c>
+      <c r="J20">
+        <v>169.02595199999993</v>
+      </c>
+      <c r="K20">
+        <v>153.458628</v>
+      </c>
+      <c r="L20">
+        <v>144.18500800000004</v>
+      </c>
+      <c r="M20">
+        <v>28.552560000000003</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>19</v>
+      </c>
+      <c r="B21">
+        <v>74.777571999999978</v>
+      </c>
+      <c r="C21">
+        <v>182.60521999999995</v>
+      </c>
+      <c r="D21">
+        <v>166.73329200000001</v>
+      </c>
+      <c r="E21">
+        <v>125.61175199999998</v>
+      </c>
+      <c r="F21">
+        <v>28.299987999999981</v>
+      </c>
+      <c r="H21">
+        <v>19</v>
+      </c>
+      <c r="I21">
+        <v>73.420403999999948</v>
+      </c>
+      <c r="J21">
+        <v>154.71606799999998</v>
+      </c>
+      <c r="K21">
+        <v>139.53139600000003</v>
+      </c>
+      <c r="L21">
+        <v>160.23904800000003</v>
+      </c>
+      <c r="M21">
+        <v>28.000803999999988</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>20</v>
+      </c>
+      <c r="B22">
+        <v>75.249111999999911</v>
+      </c>
+      <c r="C22">
+        <v>181.35103199999989</v>
+      </c>
+      <c r="D22">
+        <v>165.24604399999998</v>
+      </c>
+      <c r="E22">
+        <v>115.42865600000005</v>
+      </c>
+      <c r="F22">
+        <v>28.251207999999966</v>
+      </c>
+      <c r="H22">
+        <v>20</v>
+      </c>
+      <c r="I22">
+        <v>74.212807999999939</v>
+      </c>
+      <c r="J22">
+        <v>158.180532</v>
+      </c>
+      <c r="K22">
+        <v>142.79531999999998</v>
+      </c>
+      <c r="L22">
+        <v>161.068308</v>
+      </c>
+      <c r="M22">
+        <v>28.598087999999979</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
         <v>9</v>
       </c>
-      <c r="B18">
-        <f>AVERAGE(B3:B17)</f>
-        <v>72.51558919999998</v>
-      </c>
-      <c r="C18">
-        <f>AVERAGE(C3:C12)</f>
-        <v>104.30345559999998</v>
-      </c>
-      <c r="D18">
-        <f>AVERAGE(D3:D12)</f>
-        <v>90.969171599999967</v>
-      </c>
-      <c r="E18">
-        <f>AVERAGE(E3:E12)</f>
-        <v>122.38110679999993</v>
-      </c>
-      <c r="F18">
-        <f>AVERAGE(F3:F12)</f>
-        <v>22.669583599999985</v>
-      </c>
-      <c r="H18" t="s">
+      <c r="B23">
+        <f t="shared" ref="B23" si="0">AVERAGE(B3:B22)</f>
+        <v>71.092405599999964</v>
+      </c>
+      <c r="C23">
+        <f t="shared" ref="C23" si="1">AVERAGE(C3:C22)</f>
+        <v>129.37756799999997</v>
+      </c>
+      <c r="D23">
+        <f t="shared" ref="D23" si="2">AVERAGE(D3:D22)</f>
+        <v>115.05310419999998</v>
+      </c>
+      <c r="E23">
+        <f t="shared" ref="E23" si="3">AVERAGE(E3:E22)</f>
+        <v>124.32341799999992</v>
+      </c>
+      <c r="F23">
+        <f t="shared" ref="F23" si="4">AVERAGE(F3:F22)</f>
+        <v>23.922904399999986</v>
+      </c>
+      <c r="H23" t="s">
         <v>9</v>
       </c>
-      <c r="I18" s="1">
-        <f>AVERAGE(I3:I12)</f>
-        <v>75.606073199999955</v>
-      </c>
-      <c r="J18" s="1">
-        <f>AVERAGE(J3:J12)</f>
-        <v>149.05628719999996</v>
-      </c>
-      <c r="K18" s="1">
-        <f>AVERAGE(K3:K12)</f>
-        <v>133.37015679999996</v>
-      </c>
-      <c r="L18" s="1">
-        <f>AVERAGE(L3:L12)</f>
-        <v>158.10432679999994</v>
-      </c>
-      <c r="M18" s="1">
-        <f>AVERAGE(M3:M12)</f>
-        <v>27.782161199999983</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
+      <c r="I23">
+        <f t="shared" ref="I23" si="5">AVERAGE(I3:I22)</f>
+        <v>75.442118199999953</v>
+      </c>
+      <c r="J23">
+        <f t="shared" ref="J23" si="6">AVERAGE(J3:J22)</f>
+        <v>151.29528920000001</v>
+      </c>
+      <c r="K23">
+        <f t="shared" ref="K23" si="7">AVERAGE(K3:K22)</f>
+        <v>135.93685199999999</v>
+      </c>
+      <c r="L23">
+        <f t="shared" ref="L23" si="8">AVERAGE(L3:L22)</f>
+        <v>160.2497795999999</v>
+      </c>
+      <c r="M23">
+        <f t="shared" ref="M23" si="9">AVERAGE(M3:M22)</f>
+        <v>28.09825559999998</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
         <v>10</v>
       </c>
-      <c r="B19">
-        <f>STDEV(B3:B17)</f>
-        <v>4.8918954511615684</v>
-      </c>
-      <c r="C19">
-        <f>STDEV(C3:C12)</f>
-        <v>36.243700678512596</v>
-      </c>
-      <c r="D19">
-        <f>STDEV(D3:D12)</f>
-        <v>32.553145131747954</v>
-      </c>
-      <c r="E19">
-        <f>STDEV(E3:E12)</f>
-        <v>54.025243973872904</v>
-      </c>
-      <c r="F19">
-        <f>STDEV(F3:F12)</f>
-        <v>8.982744463928384</v>
-      </c>
-      <c r="H19" t="s">
+      <c r="B24">
+        <f t="shared" ref="B24:F24" si="10">STDEV(B3:B22)</f>
+        <v>7.2589681553014538</v>
+      </c>
+      <c r="C24">
+        <f t="shared" si="10"/>
+        <v>39.860720355936145</v>
+      </c>
+      <c r="D24">
+        <f t="shared" si="10"/>
+        <v>37.493794426852666</v>
+      </c>
+      <c r="E24">
+        <f t="shared" si="10"/>
+        <v>42.109782125481239</v>
+      </c>
+      <c r="F24">
+        <f t="shared" si="10"/>
+        <v>7.0293468528265119</v>
+      </c>
+      <c r="H24" t="s">
         <v>10</v>
       </c>
-      <c r="I19">
-        <f>STDEV(I3:I12)</f>
-        <v>0.28638581121932449</v>
-      </c>
-      <c r="J19">
-        <f>STDEV(J3:J12)</f>
-        <v>21.920717649441606</v>
-      </c>
-      <c r="K19">
-        <f>STDEV(K3:K12)</f>
-        <v>21.975038616528341</v>
-      </c>
-      <c r="L19">
-        <f>STDEV(L3:L12)</f>
-        <v>43.529210854120961</v>
-      </c>
-      <c r="M19">
-        <f>STDEV(M3:M12)</f>
-        <v>1.130479717008346</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>11</v>
-      </c>
-      <c r="B20">
-        <f>B19/(SQRT(10))</f>
-        <v>1.5469531701087542</v>
-      </c>
-      <c r="C20">
-        <f t="shared" ref="C20:F20" si="0">C19/(SQRT(10))</f>
-        <v>11.46126449774899</v>
-      </c>
-      <c r="D20">
-        <f t="shared" si="0"/>
-        <v>10.294208361834558</v>
-      </c>
-      <c r="E20">
-        <f t="shared" si="0"/>
-        <v>17.084282210372464</v>
-      </c>
-      <c r="F20">
-        <f t="shared" si="0"/>
-        <v>2.8405932145281909</v>
-      </c>
-      <c r="H20" t="s">
-        <v>11</v>
-      </c>
-      <c r="I20">
-        <f>I19/(SQRT(10))</f>
-        <v>9.0563145300806863E-2</v>
-      </c>
-      <c r="J20">
-        <f t="shared" ref="J20" si="1">J19/(SQRT(10))</f>
-        <v>6.9319395717687895</v>
-      </c>
-      <c r="K20">
-        <f t="shared" ref="K20" si="2">K19/(SQRT(10))</f>
-        <v>6.9491173698385014</v>
-      </c>
-      <c r="L20">
-        <f t="shared" ref="L20" si="3">L19/(SQRT(10))</f>
-        <v>13.765145104874565</v>
-      </c>
-      <c r="M20">
-        <f t="shared" ref="M20" si="4">M19/(SQRT(10))</f>
-        <v>0.3574890754368964</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>15</v>
-      </c>
-      <c r="B21" s="4">
-        <f>_xlfn.CONFIDENCE.T(0.05,B19,10)</f>
-        <v>3.4994511942749091</v>
-      </c>
-      <c r="C21" s="4">
-        <f t="shared" ref="C21:F21" si="5">_xlfn.CONFIDENCE.T(0.05,C19,10)</f>
-        <v>25.927181578307653</v>
-      </c>
-      <c r="D21" s="4">
-        <f t="shared" si="5"/>
-        <v>23.287117181061227</v>
-      </c>
-      <c r="E21" s="4">
-        <f t="shared" si="5"/>
-        <v>38.647331373460027</v>
-      </c>
-      <c r="F21" s="4">
-        <f t="shared" si="5"/>
-        <v>6.4258682868409265</v>
-      </c>
-      <c r="H21" t="s">
-        <v>15</v>
-      </c>
-      <c r="I21" s="4">
-        <f>_xlfn.CONFIDENCE.T(0.05,I19,10)</f>
-        <v>0.20486806782775488</v>
-      </c>
-      <c r="J21" s="4">
-        <f t="shared" ref="J21:M21" si="6">_xlfn.CONFIDENCE.T(0.05,J19,10)</f>
-        <v>15.681136754361091</v>
-      </c>
-      <c r="K21" s="4">
-        <f t="shared" si="6"/>
-        <v>15.719995633305592</v>
-      </c>
-      <c r="L21" s="4">
-        <f t="shared" si="6"/>
-        <v>31.138921595948649</v>
-      </c>
-      <c r="M21" s="4">
-        <f t="shared" si="6"/>
-        <v>0.8086964726216832</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B24" t="s">
-        <v>5</v>
-      </c>
-      <c r="C24" t="s">
-        <v>12</v>
-      </c>
-      <c r="D24" t="s">
-        <v>9</v>
-      </c>
-      <c r="I24" t="s">
-        <v>6</v>
-      </c>
-      <c r="J24" t="s">
-        <v>12</v>
-      </c>
-      <c r="K24" t="s">
-        <v>9</v>
+      <c r="I24">
+        <f t="shared" ref="I24:M24" si="11">STDEV(I3:I22)</f>
+        <v>0.64684995560295999</v>
+      </c>
+      <c r="J24">
+        <f t="shared" si="11"/>
+        <v>20.035034894888025</v>
+      </c>
+      <c r="K24">
+        <f t="shared" si="11"/>
+        <v>19.676347417787117</v>
+      </c>
+      <c r="L24">
+        <f t="shared" si="11"/>
+        <v>36.069181569360978</v>
+      </c>
+      <c r="M24">
+        <f t="shared" si="11"/>
+        <v>0.85999670621635516</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>8</v>
-      </c>
-      <c r="B25" t="s">
-        <v>0</v>
-      </c>
-      <c r="C25" t="s">
-        <v>1</v>
-      </c>
-      <c r="D25" t="s">
-        <v>2</v>
-      </c>
-      <c r="E25" t="s">
-        <v>3</v>
-      </c>
-      <c r="F25" t="s">
-        <v>4</v>
+        <v>11</v>
+      </c>
+      <c r="B25">
+        <f t="shared" ref="B25" si="12">B24/(SQRT(20))</f>
+        <v>1.62315462417603</v>
+      </c>
+      <c r="C25">
+        <f t="shared" ref="C25" si="13">C24/(SQRT(20))</f>
+        <v>8.9131280347982837</v>
+      </c>
+      <c r="D25">
+        <f t="shared" ref="D25" si="14">D24/(SQRT(20))</f>
+        <v>8.3838673072845324</v>
+      </c>
+      <c r="E25">
+        <f t="shared" ref="E25" si="15">E24/(SQRT(20))</f>
+        <v>9.4160335350281628</v>
+      </c>
+      <c r="F25">
+        <f t="shared" ref="F25" si="16">F24/(SQRT(20))</f>
+        <v>1.5718097400344289</v>
       </c>
       <c r="H25" t="s">
-        <v>8</v>
-      </c>
-      <c r="I25" t="s">
-        <v>0</v>
-      </c>
-      <c r="J25" t="s">
-        <v>1</v>
-      </c>
-      <c r="K25" t="s">
-        <v>2</v>
-      </c>
-      <c r="L25" t="s">
-        <v>3</v>
-      </c>
-      <c r="M25" t="s">
-        <v>4</v>
+        <v>11</v>
+      </c>
+      <c r="I25">
+        <f t="shared" ref="I25" si="17">I24/(SQRT(20))</f>
+        <v>0.14464004719709395</v>
+      </c>
+      <c r="J25">
+        <f t="shared" ref="J25" si="18">J24/(SQRT(20))</f>
+        <v>4.4799699956549972</v>
+      </c>
+      <c r="K25">
+        <f t="shared" ref="K25" si="19">K24/(SQRT(20))</f>
+        <v>4.3997650375074446</v>
+      </c>
+      <c r="L25">
+        <f t="shared" ref="L25" si="20">L24/(SQRT(20))</f>
+        <v>8.0653141881873687</v>
+      </c>
+      <c r="M25">
+        <f t="shared" ref="M25" si="21">M24/(SQRT(20))</f>
+        <v>0.1923011095525686</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
+        <v>15</v>
+      </c>
+      <c r="B26" s="4">
+        <f t="shared" ref="B26:F26" si="22">_xlfn.CONFIDENCE.T(0.005,B24,20)</f>
+        <v>5.1514456480164483</v>
+      </c>
+      <c r="C26" s="4">
+        <f t="shared" si="22"/>
+        <v>28.287813090132019</v>
+      </c>
+      <c r="D26" s="4">
+        <f t="shared" si="22"/>
+        <v>26.608085336036641</v>
+      </c>
+      <c r="E26" s="4">
+        <f t="shared" si="22"/>
+        <v>29.883896612881966</v>
+      </c>
+      <c r="F26" s="4">
+        <f t="shared" si="22"/>
+        <v>4.9884911296855599</v>
+      </c>
+      <c r="H26" t="s">
+        <v>15</v>
+      </c>
+      <c r="I26" s="4">
+        <f t="shared" ref="I26:M26" si="23">_xlfn.CONFIDENCE.T(0.005,I24,20)</f>
+        <v>0.4590476659243754</v>
+      </c>
+      <c r="J26" s="4">
+        <f t="shared" si="23"/>
+        <v>14.218190672423809</v>
+      </c>
+      <c r="K26" s="4">
+        <f t="shared" si="23"/>
+        <v>13.963642229259751</v>
+      </c>
+      <c r="L26" s="4">
+        <f t="shared" si="23"/>
+        <v>25.597085487597564</v>
+      </c>
+      <c r="M26" s="4">
+        <f t="shared" si="23"/>
+        <v>0.61031074868556756</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B29" t="s">
+        <v>5</v>
+      </c>
+      <c r="C29" t="s">
+        <v>12</v>
+      </c>
+      <c r="D29" t="s">
+        <v>9</v>
+      </c>
+      <c r="I29" t="s">
+        <v>6</v>
+      </c>
+      <c r="J29" t="s">
+        <v>12</v>
+      </c>
+      <c r="K29" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>8</v>
+      </c>
+      <c r="B30" t="s">
+        <v>0</v>
+      </c>
+      <c r="C30" t="s">
+        <v>1</v>
+      </c>
+      <c r="D30" t="s">
+        <v>2</v>
+      </c>
+      <c r="E30" t="s">
+        <v>3</v>
+      </c>
+      <c r="F30" t="s">
+        <v>4</v>
+      </c>
+      <c r="H30" t="s">
+        <v>8</v>
+      </c>
+      <c r="I30" t="s">
+        <v>0</v>
+      </c>
+      <c r="J30" t="s">
+        <v>1</v>
+      </c>
+      <c r="K30" t="s">
+        <v>2</v>
+      </c>
+      <c r="L30" t="s">
+        <v>3</v>
+      </c>
+      <c r="M30" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
         <v>13</v>
       </c>
-      <c r="B26">
+      <c r="B31">
         <v>69.870230496453914</v>
       </c>
-      <c r="C26">
+      <c r="C31">
         <v>354.77367391304358</v>
       </c>
-      <c r="D26">
+      <c r="D31">
         <v>404.86795979899489</v>
       </c>
-      <c r="E26">
+      <c r="E31">
         <v>314.15504761904754</v>
       </c>
-      <c r="F26">
+      <c r="F31">
         <v>25.038018348623851</v>
       </c>
-      <c r="H26" t="s">
+      <c r="H31" t="s">
         <v>13</v>
       </c>
-      <c r="I26">
+      <c r="I31">
         <v>16.302378006872853</v>
       </c>
-      <c r="J26">
+      <c r="J31">
         <v>327.45672294372292</v>
       </c>
-      <c r="K26">
+      <c r="K31">
         <v>378.39915500000001</v>
       </c>
-      <c r="L26">
+      <c r="L31">
         <v>386.06465803108802</v>
       </c>
-      <c r="M26">
+      <c r="M31">
         <v>93.6107962962963</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A27">
-        <v>2</v>
-      </c>
-      <c r="B27" s="3">
-        <v>59.899591549295778</v>
-      </c>
-      <c r="C27" s="3">
-        <v>403.31300446428577</v>
-      </c>
-      <c r="D27" s="3">
-        <v>477.12081865284983</v>
-      </c>
-      <c r="E27" s="3">
-        <v>384.74177099236641</v>
-      </c>
-      <c r="F27" s="3">
-        <v>44.96678181818185</v>
-      </c>
-      <c r="H27">
-        <v>2</v>
-      </c>
-      <c r="I27">
-        <v>37.296900343642605</v>
-      </c>
-      <c r="J27">
-        <v>339.69103589743611</v>
-      </c>
-      <c r="K27">
-        <v>401.50321212121281</v>
-      </c>
-      <c r="L27">
-        <v>356.06701685393267</v>
-      </c>
-      <c r="M27">
-        <v>87.862999999999985</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A28">
-        <v>3</v>
-      </c>
-      <c r="B28" s="3">
-        <v>60.707031034482796</v>
-      </c>
-      <c r="C28" s="3">
-        <v>397.22962931034448</v>
-      </c>
-      <c r="D28" s="3">
-        <v>453.61965517241384</v>
-      </c>
-      <c r="E28" s="3">
-        <v>447.18656783919573</v>
-      </c>
-      <c r="F28" s="3">
-        <v>116.91051851851844</v>
-      </c>
-      <c r="H28">
-        <v>3</v>
-      </c>
-      <c r="I28">
-        <v>28.285096219931265</v>
-      </c>
-      <c r="J28">
-        <v>372.98395217391328</v>
-      </c>
-      <c r="K28">
-        <v>427.03337000000005</v>
-      </c>
-      <c r="L28">
-        <v>430.33814659685885</v>
-      </c>
-      <c r="M28">
-        <v>60.893941176470641</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A29">
-        <v>4</v>
-      </c>
-      <c r="B29" s="3">
-        <v>80.258698473282422</v>
-      </c>
-      <c r="C29" s="3">
-        <v>400.80207327586226</v>
-      </c>
-      <c r="D29" s="3">
-        <v>454.81207425742593</v>
-      </c>
-      <c r="E29" s="3">
-        <v>440.00508499999995</v>
-      </c>
-      <c r="F29" s="3">
-        <v>135.1410181818182</v>
-      </c>
-      <c r="H29">
-        <v>4</v>
-      </c>
-      <c r="I29">
-        <v>37.011748275862075</v>
-      </c>
-      <c r="J29">
-        <v>367.545691304348</v>
-      </c>
-      <c r="K29">
-        <v>421.93867839196014</v>
-      </c>
-      <c r="L29">
-        <v>447.29825581395357</v>
-      </c>
-      <c r="M29">
-        <v>91.863082568807371</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A30">
-        <v>5</v>
-      </c>
-      <c r="B30" s="3">
-        <v>84.88603436426115</v>
-      </c>
-      <c r="C30" s="3">
-        <v>382.2948441558442</v>
-      </c>
-      <c r="D30" s="3">
-        <v>441.29357286432185</v>
-      </c>
-      <c r="E30" s="3">
-        <v>439.13515075376893</v>
-      </c>
-      <c r="F30" s="3">
-        <v>171.64369090909088</v>
-      </c>
-      <c r="H30">
-        <v>5</v>
-      </c>
-      <c r="I30">
-        <v>22.667783505154627</v>
-      </c>
-      <c r="J30">
-        <v>447.04052155172417</v>
-      </c>
-      <c r="K30">
-        <v>515.57288500000016</v>
-      </c>
-      <c r="L30">
-        <v>270.88068589743585</v>
-      </c>
-      <c r="M30">
-        <v>57.970431192660534</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A31">
-        <v>6</v>
-      </c>
-      <c r="B31" s="3">
-        <v>50.460185567010285</v>
-      </c>
-      <c r="C31" s="3">
-        <v>417.10914285714284</v>
-      </c>
-      <c r="D31" s="3">
-        <v>479.57054726368153</v>
-      </c>
-      <c r="E31" s="3">
-        <v>461.60328000000015</v>
-      </c>
-      <c r="F31" s="3">
-        <v>2.2614678899082551E-2</v>
-      </c>
-      <c r="H31">
-        <v>6</v>
-      </c>
-      <c r="I31">
-        <v>15.542048275862074</v>
-      </c>
-      <c r="J31">
-        <v>419.24741125541095</v>
-      </c>
-      <c r="K31">
-        <v>486.60004020100496</v>
-      </c>
-      <c r="L31">
-        <v>261.4841136363637</v>
-      </c>
-      <c r="M31">
-        <v>34.885648148148157</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A32">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="B32" s="3">
-        <v>38.401207468879669</v>
+        <v>59.899591549295778</v>
       </c>
       <c r="C32" s="3">
-        <v>261.66430468750002</v>
+        <v>403.31300446428577</v>
       </c>
       <c r="D32" s="3">
-        <v>281.06546428571431</v>
+        <v>477.12081865284983</v>
       </c>
       <c r="E32" s="3">
-        <v>319.70802542372894</v>
+        <v>384.74177099236641</v>
       </c>
       <c r="F32" s="3">
-        <v>212.13016666666667</v>
+        <v>44.96678181818185</v>
       </c>
       <c r="H32">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="I32">
-        <v>11.605697594501715</v>
+        <v>37.296900343642605</v>
       </c>
       <c r="J32">
-        <v>334.41920779220783</v>
+        <v>339.69103589743611</v>
       </c>
       <c r="K32">
-        <v>386.85049253731324</v>
+        <v>401.50321212121281</v>
       </c>
       <c r="L32">
-        <v>262.55604519774005</v>
+        <v>356.06701685393267</v>
       </c>
       <c r="M32">
-        <v>24.754654545454542</v>
+        <v>87.862999999999985</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A33">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B33" s="3">
-        <v>21.341689655172416</v>
+        <v>60.707031034482796</v>
       </c>
       <c r="C33" s="3">
-        <v>254.95032592592594</v>
+        <v>397.22962931034448</v>
       </c>
       <c r="D33" s="3">
-        <v>334.84668571428551</v>
+        <v>453.61965517241384</v>
       </c>
       <c r="E33" s="3">
-        <v>395.66077631578946</v>
+        <v>447.18656783919573</v>
       </c>
       <c r="F33" s="3">
-        <v>76.946266666666659</v>
+        <v>116.91051851851844</v>
       </c>
       <c r="H33">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="I33">
-        <v>23.298210344827588</v>
+        <v>28.285096219931265</v>
       </c>
       <c r="J33">
-        <v>306.4087359307365</v>
+        <v>372.98395217391328</v>
       </c>
       <c r="K33">
-        <v>353.78333830845787</v>
+        <v>427.03337000000005</v>
       </c>
       <c r="L33">
-        <v>451.95949342105285</v>
+        <v>430.33814659685885</v>
       </c>
       <c r="M33">
-        <v>56.270949494949484</v>
+        <v>60.893941176470641</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A34">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B34" s="3">
-        <v>47.551453608247442</v>
+        <v>80.258698473282422</v>
       </c>
       <c r="C34" s="3">
-        <v>256.10612738853507</v>
+        <v>400.80207327586226</v>
       </c>
       <c r="D34" s="3">
-        <v>315.58229133858265</v>
+        <v>454.81207425742593</v>
       </c>
       <c r="E34" s="3">
-        <v>214.83236499999998</v>
+        <v>440.00508499999995</v>
       </c>
       <c r="F34" s="3">
-        <v>142.36702040816328</v>
+        <v>135.1410181818182</v>
       </c>
       <c r="H34">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="I34">
-        <v>8.903658620689658</v>
+        <v>37.011748275862075</v>
       </c>
       <c r="J34">
-        <v>272.29620434782601</v>
+        <v>367.545691304348</v>
       </c>
       <c r="K34">
-        <v>309.37971000000005</v>
+        <v>421.93867839196014</v>
       </c>
       <c r="L34">
-        <v>215.0677528089887</v>
+        <v>447.29825581395357</v>
       </c>
       <c r="M34">
-        <v>24.010201834862389</v>
+        <v>91.863082568807371</v>
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A35">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B35" s="3">
-        <v>35.089734982332466</v>
+        <v>84.88603436426115</v>
       </c>
       <c r="C35" s="3">
-        <v>601.28342857142866</v>
+        <v>382.2948441558442</v>
       </c>
       <c r="D35" s="3">
-        <v>574.81121874999997</v>
+        <v>441.29357286432185</v>
       </c>
       <c r="E35" s="3">
-        <v>228.1692311557789</v>
+        <v>439.13515075376893</v>
       </c>
       <c r="F35" s="3">
-        <v>95.346238532110036</v>
+        <v>171.64369090909088</v>
       </c>
       <c r="H35">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="I35">
-        <v>23.168755172413796</v>
+        <v>22.667783505154627</v>
       </c>
       <c r="J35">
-        <v>329.05888744588771</v>
+        <v>447.04052155172417</v>
       </c>
       <c r="K35">
-        <v>375.20042000000001</v>
+        <v>515.57288500000016</v>
       </c>
       <c r="L35">
-        <v>369.13502604166678</v>
+        <v>270.88068589743585</v>
       </c>
       <c r="M35">
-        <v>67.803394495412832</v>
+        <v>57.970431192660534</v>
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A36">
-        <v>11</v>
+        <v>6</v>
+      </c>
+      <c r="B36" s="3">
+        <v>50.460185567010285</v>
+      </c>
+      <c r="C36" s="3">
+        <v>417.10914285714284</v>
+      </c>
+      <c r="D36" s="3">
+        <v>479.57054726368153</v>
+      </c>
+      <c r="E36" s="3">
+        <v>461.60328000000015</v>
+      </c>
+      <c r="F36" s="3">
+        <v>2.2614678899082551E-2</v>
       </c>
       <c r="H36">
-        <v>11</v>
+        <v>6</v>
+      </c>
+      <c r="I36">
+        <v>15.542048275862074</v>
+      </c>
+      <c r="J36">
+        <v>419.24741125541095</v>
+      </c>
+      <c r="K36">
+        <v>486.60004020100496</v>
+      </c>
+      <c r="L36">
+        <v>261.4841136363637</v>
+      </c>
+      <c r="M36">
+        <v>34.885648148148157</v>
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A37">
-        <v>12</v>
+        <v>7</v>
+      </c>
+      <c r="B37" s="3">
+        <v>38.401207468879669</v>
+      </c>
+      <c r="C37" s="3">
+        <v>261.66430468750002</v>
+      </c>
+      <c r="D37" s="3">
+        <v>281.06546428571431</v>
+      </c>
+      <c r="E37" s="3">
+        <v>319.70802542372894</v>
+      </c>
+      <c r="F37" s="3">
+        <v>212.13016666666667</v>
       </c>
       <c r="H37">
-        <v>12</v>
+        <v>7</v>
+      </c>
+      <c r="I37">
+        <v>11.605697594501715</v>
+      </c>
+      <c r="J37">
+        <v>334.41920779220783</v>
+      </c>
+      <c r="K37">
+        <v>386.85049253731324</v>
+      </c>
+      <c r="L37">
+        <v>262.55604519774005</v>
+      </c>
+      <c r="M37">
+        <v>24.754654545454542</v>
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A38">
-        <v>13</v>
+        <v>8</v>
+      </c>
+      <c r="B38" s="3">
+        <v>21.341689655172416</v>
+      </c>
+      <c r="C38" s="3">
+        <v>254.95032592592594</v>
+      </c>
+      <c r="D38" s="3">
+        <v>334.84668571428551</v>
+      </c>
+      <c r="E38" s="3">
+        <v>395.66077631578946</v>
+      </c>
+      <c r="F38" s="3">
+        <v>76.946266666666659</v>
       </c>
       <c r="H38">
-        <v>13</v>
+        <v>8</v>
+      </c>
+      <c r="I38">
+        <v>23.298210344827588</v>
+      </c>
+      <c r="J38">
+        <v>306.4087359307365</v>
+      </c>
+      <c r="K38">
+        <v>353.78333830845787</v>
+      </c>
+      <c r="L38">
+        <v>451.95949342105285</v>
+      </c>
+      <c r="M38">
+        <v>56.270949494949484</v>
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A39">
-        <v>14</v>
+        <v>9</v>
+      </c>
+      <c r="B39" s="3">
+        <v>47.551453608247442</v>
+      </c>
+      <c r="C39" s="3">
+        <v>256.10612738853507</v>
+      </c>
+      <c r="D39" s="3">
+        <v>315.58229133858265</v>
+      </c>
+      <c r="E39" s="3">
+        <v>214.83236499999998</v>
+      </c>
+      <c r="F39" s="3">
+        <v>142.36702040816328</v>
       </c>
       <c r="H39">
-        <v>14</v>
+        <v>9</v>
+      </c>
+      <c r="I39">
+        <v>8.903658620689658</v>
+      </c>
+      <c r="J39">
+        <v>272.29620434782601</v>
+      </c>
+      <c r="K39">
+        <v>309.37971000000005</v>
+      </c>
+      <c r="L39">
+        <v>215.0677528089887</v>
+      </c>
+      <c r="M39">
+        <v>24.010201834862389</v>
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A40">
+        <v>10</v>
+      </c>
+      <c r="B40" s="3">
+        <v>35.089734982332466</v>
+      </c>
+      <c r="C40" s="3">
+        <v>601.28342857142866</v>
+      </c>
+      <c r="D40" s="3">
+        <v>574.81121874999997</v>
+      </c>
+      <c r="E40" s="3">
+        <v>228.1692311557789</v>
+      </c>
+      <c r="F40" s="3">
+        <v>95.346238532110036</v>
+      </c>
+      <c r="H40">
+        <v>10</v>
+      </c>
+      <c r="I40">
+        <v>23.168755172413796</v>
+      </c>
+      <c r="J40">
+        <v>329.05888744588771</v>
+      </c>
+      <c r="K40">
+        <v>375.20042000000001</v>
+      </c>
+      <c r="L40">
+        <v>369.13502604166678</v>
+      </c>
+      <c r="M40">
+        <v>67.803394495412832</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>11</v>
+      </c>
+      <c r="B41">
+        <v>73.683857142857121</v>
+      </c>
+      <c r="C41">
+        <v>413.85776754385961</v>
+      </c>
+      <c r="D41">
+        <v>479.16689393939401</v>
+      </c>
+      <c r="E41">
+        <v>416.60892146596899</v>
+      </c>
+      <c r="F41">
+        <v>139.54219626168228</v>
+      </c>
+      <c r="H41">
+        <v>11</v>
+      </c>
+      <c r="I41">
+        <v>15.179434482758621</v>
+      </c>
+      <c r="J41">
+        <v>440.10883406113533</v>
+      </c>
+      <c r="K41">
+        <v>502.50532663316568</v>
+      </c>
+      <c r="L41">
+        <v>268.43367553191496</v>
+      </c>
+      <c r="M41">
+        <v>35.550174311926604</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>12</v>
+      </c>
+      <c r="B42">
+        <v>42.112628975265039</v>
+      </c>
+      <c r="C42">
+        <v>383.33760606060616</v>
+      </c>
+      <c r="D42">
+        <v>444.80338805970166</v>
+      </c>
+      <c r="E42">
+        <v>307.37457692307692</v>
+      </c>
+      <c r="F42">
+        <v>39.308252427184463</v>
+      </c>
+      <c r="H42">
+        <v>12</v>
+      </c>
+      <c r="I42">
+        <v>16.883986206896555</v>
+      </c>
+      <c r="J42">
+        <v>339.92130222222238</v>
+      </c>
+      <c r="K42">
+        <v>396.54178974359002</v>
+      </c>
+      <c r="L42">
+        <v>441.18072538860105</v>
+      </c>
+      <c r="M42">
+        <v>79.384495412844032</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>13</v>
+      </c>
+      <c r="B43">
+        <v>34.985098901098901</v>
+      </c>
+      <c r="C43">
+        <v>353.84601470588251</v>
+      </c>
+      <c r="D43">
+        <v>400.3648813559322</v>
+      </c>
+      <c r="E43">
+        <v>421.51534814814812</v>
+      </c>
+      <c r="F43">
+        <v>91.839121212121199</v>
+      </c>
+      <c r="H43">
+        <v>13</v>
+      </c>
+      <c r="I43">
+        <v>13.647797250859107</v>
+      </c>
+      <c r="J43">
+        <v>336.21143303571455</v>
+      </c>
+      <c r="K43">
+        <v>386.22387179487214</v>
+      </c>
+      <c r="L43">
+        <v>460.20159278350513</v>
+      </c>
+      <c r="M43">
+        <v>105.8372752293578</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>14</v>
+      </c>
+      <c r="B44">
+        <v>74.348187725631703</v>
+      </c>
+      <c r="C44">
+        <v>318.55433333333337</v>
+      </c>
+      <c r="D44">
+        <v>362.46835025380705</v>
+      </c>
+      <c r="E44">
+        <v>363.56316145833324</v>
+      </c>
+      <c r="F44">
+        <v>173.56969473684217</v>
+      </c>
+      <c r="H44">
+        <v>14</v>
+      </c>
+      <c r="I44">
+        <v>16.040357388316146</v>
+      </c>
+      <c r="J44">
+        <v>474.93923043478287</v>
+      </c>
+      <c r="K44">
+        <v>546.26851000000011</v>
+      </c>
+      <c r="L44">
+        <v>268.50992655367224</v>
+      </c>
+      <c r="M44">
+        <v>42.913590909090907</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A45">
         <v>15</v>
       </c>
-      <c r="H40">
+      <c r="B45">
+        <v>49.895482071713275</v>
+      </c>
+      <c r="C45">
+        <v>409.78945851528357</v>
+      </c>
+      <c r="D45">
+        <v>472.81423115577917</v>
+      </c>
+      <c r="E45">
+        <v>314.45741304347837</v>
+      </c>
+      <c r="F45">
+        <v>96.126467889908284</v>
+      </c>
+      <c r="H45">
         <v>15</v>
       </c>
-    </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A41" t="s">
+      <c r="I45">
+        <v>11.306295532646054</v>
+      </c>
+      <c r="J45">
+        <v>352.80487330316754</v>
+      </c>
+      <c r="K45">
+        <v>390.38539999999995</v>
+      </c>
+      <c r="L45">
+        <v>269.3365405405404</v>
+      </c>
+      <c r="M45">
+        <v>31.986348623853214</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <v>16</v>
+      </c>
+      <c r="B46">
+        <v>77.810055172413797</v>
+      </c>
+      <c r="C46">
+        <v>373.80883478260904</v>
+      </c>
+      <c r="D46">
+        <v>410.5131005025126</v>
+      </c>
+      <c r="E46">
+        <v>412.55080904522629</v>
+      </c>
+      <c r="F46">
+        <v>155.67175000000017</v>
+      </c>
+      <c r="H46">
+        <v>16</v>
+      </c>
+      <c r="I46">
+        <v>22.014089347079036</v>
+      </c>
+      <c r="J46">
+        <v>363.25293913043521</v>
+      </c>
+      <c r="K46">
+        <v>418.2331250000002</v>
+      </c>
+      <c r="L46">
+        <v>367.51399481865286</v>
+      </c>
+      <c r="M46">
+        <v>88.132054545454565</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A47">
+        <v>17</v>
+      </c>
+      <c r="B47">
+        <v>17.209672000000005</v>
+      </c>
+      <c r="C47">
+        <v>350.17843290043288</v>
+      </c>
+      <c r="D47">
+        <v>406.0722686567164</v>
+      </c>
+      <c r="E47">
+        <v>392.86334946236599</v>
+      </c>
+      <c r="F47">
+        <v>73.984201834862361</v>
+      </c>
+      <c r="H47">
+        <v>17</v>
+      </c>
+      <c r="I47">
+        <v>13.457278350515461</v>
+      </c>
+      <c r="J47">
+        <v>318.29519913419915</v>
+      </c>
+      <c r="K47">
+        <v>368.39102475247574</v>
+      </c>
+      <c r="L47">
+        <v>452.47994300518144</v>
+      </c>
+      <c r="M47">
+        <v>97.628445454545485</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <v>18</v>
+      </c>
+      <c r="B48">
+        <v>52.069703448275845</v>
+      </c>
+      <c r="C48">
+        <v>344.5605541125542</v>
+      </c>
+      <c r="D48">
+        <v>395.55552238805984</v>
+      </c>
+      <c r="E48">
+        <v>468.27229015544032</v>
+      </c>
+      <c r="F48">
+        <v>51.819549999999992</v>
+      </c>
+      <c r="H48">
+        <v>18</v>
+      </c>
+      <c r="I48">
+        <v>15.972240549828173</v>
+      </c>
+      <c r="J48">
+        <v>337.185341991342</v>
+      </c>
+      <c r="K48">
+        <v>385.99920398009971</v>
+      </c>
+      <c r="L48">
+        <v>429.77204736842094</v>
+      </c>
+      <c r="M48">
+        <v>87.739700000000042</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <v>19</v>
+      </c>
+      <c r="B49">
+        <v>67.066913793103424</v>
+      </c>
+      <c r="C49">
+        <v>330.86551965065507</v>
+      </c>
+      <c r="D49">
+        <v>382.73778787878786</v>
+      </c>
+      <c r="E49">
+        <v>430.83086499999973</v>
+      </c>
+      <c r="F49">
+        <v>181.06959090909089</v>
+      </c>
+      <c r="H49">
+        <v>19</v>
+      </c>
+      <c r="I49">
+        <v>19.124355871886127</v>
+      </c>
+      <c r="J49">
+        <v>371.97840624999986</v>
+      </c>
+      <c r="K49">
+        <v>428.46623195876322</v>
+      </c>
+      <c r="L49">
+        <v>375.24906217616575</v>
+      </c>
+      <c r="M49">
+        <v>85.922666666666657</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A50">
+        <v>20</v>
+      </c>
+      <c r="B50">
+        <v>57.67011724137933</v>
+      </c>
+      <c r="C50">
+        <v>334.77183913043473</v>
+      </c>
+      <c r="D50">
+        <v>386.0005577889446</v>
+      </c>
+      <c r="E50">
+        <v>397.05026943005186</v>
+      </c>
+      <c r="F50">
+        <v>139.38871559633029</v>
+      </c>
+      <c r="H50">
+        <v>20</v>
+      </c>
+      <c r="I50">
+        <v>22.670371929824562</v>
+      </c>
+      <c r="J50">
+        <v>375.85001731601761</v>
+      </c>
+      <c r="K50">
+        <v>433.4860299999998</v>
+      </c>
+      <c r="L50">
+        <v>369.48665104166662</v>
+      </c>
+      <c r="M50">
+        <v>93.060128440367009</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
         <v>9</v>
       </c>
-      <c r="B41">
-        <f>AVERAGE(B26:B35)</f>
-        <v>54.846585719941842</v>
-      </c>
-      <c r="C41">
-        <f>AVERAGE(C26:C35)</f>
-        <v>372.95265545499132</v>
-      </c>
-      <c r="D41">
-        <f>AVERAGE(D26:D35)</f>
-        <v>421.75902880982704</v>
-      </c>
-      <c r="E41">
-        <f>AVERAGE(E26:E35)</f>
-        <v>364.51973000996759</v>
-      </c>
-      <c r="F41">
-        <f>AVERAGE(F26:F35)</f>
-        <v>102.0512334728739</v>
-      </c>
-      <c r="H41" t="s">
+      <c r="B51">
+        <f t="shared" ref="B51:H51" si="24">AVERAGE(B31:B50)</f>
+        <v>54.765878683557844</v>
+      </c>
+      <c r="C51">
+        <f t="shared" si="24"/>
+        <v>367.15484576427815</v>
+      </c>
+      <c r="D51">
+        <f t="shared" si="24"/>
+        <v>417.9043635038953</v>
+      </c>
+      <c r="E51">
+        <f t="shared" si="24"/>
+        <v>378.51421521158835</v>
+      </c>
+      <c r="F51">
+        <f t="shared" si="24"/>
+        <v>108.14159377983806</v>
+      </c>
+      <c r="H51" t="s">
         <v>9</v>
       </c>
-      <c r="I41">
-        <f ca="1">AVERAGE(I24:I44)</f>
-        <v>22.408227635975827</v>
-      </c>
-      <c r="J41">
-        <f>AVERAGE(J26:J35)</f>
-        <v>351.61483706432131</v>
-      </c>
-      <c r="K41">
-        <f>AVERAGE(K26:K35)</f>
-        <v>405.62613015599493</v>
-      </c>
-      <c r="L41">
-        <f>AVERAGE(L26:L35)</f>
-        <v>345.08511942990805</v>
-      </c>
-      <c r="M41">
-        <f>AVERAGE(M26:M35)</f>
-        <v>59.99260997530623</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A42" t="s">
+      <c r="I51">
+        <f>AVERAGE(I31:I50)</f>
+        <v>19.51892416351841</v>
+      </c>
+      <c r="J51">
+        <f t="shared" ref="J51:M51" si="25">AVERAGE(J31:J50)</f>
+        <v>361.33479737611145</v>
+      </c>
+      <c r="K51">
+        <f t="shared" si="25"/>
+        <v>415.63809077114581</v>
+      </c>
+      <c r="L51">
+        <f t="shared" si="25"/>
+        <v>357.65076767537005</v>
+      </c>
+      <c r="M51">
+        <f t="shared" si="25"/>
+        <v>67.40404896735842</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
         <v>10</v>
       </c>
-      <c r="B42">
-        <f>STDEV(B26:B35)</f>
-        <v>20.247229371608157</v>
-      </c>
-      <c r="C42">
-        <f>STDEV(C26:C35)</f>
-        <v>103.68325667242058</v>
-      </c>
-      <c r="D42">
-        <f>STDEV(D26:D35)</f>
-        <v>88.962236867526016</v>
-      </c>
-      <c r="E42">
-        <f>STDEV(E26:E35)</f>
-        <v>90.949114695030232</v>
-      </c>
-      <c r="F42">
-        <f>STDEV(F26:F35)</f>
-        <v>66.813423333981447</v>
-      </c>
-      <c r="H42" t="s">
+      <c r="B52">
+        <f t="shared" ref="B52:H52" si="26">STDEV(B31:B50)</f>
+        <v>19.350780544048856</v>
+      </c>
+      <c r="C52">
+        <f t="shared" si="26"/>
+        <v>75.077695025962953</v>
+      </c>
+      <c r="D52">
+        <f t="shared" si="26"/>
+        <v>66.963570324413055</v>
+      </c>
+      <c r="E52">
+        <f t="shared" si="26"/>
+        <v>73.123401828223663</v>
+      </c>
+      <c r="F52">
+        <f t="shared" si="26"/>
+        <v>57.972368589371591</v>
+      </c>
+      <c r="H52" t="s">
         <v>10</v>
       </c>
-      <c r="I42">
-        <f ca="1">STDEV(I24:I44)</f>
-        <v>9.7434004634344706</v>
-      </c>
-      <c r="J42">
-        <f>STDEV(J26:J35)</f>
-        <v>51.914402482554159</v>
-      </c>
-      <c r="K42">
-        <f>STDEV(K26:K35)</f>
-        <v>60.87969525724678</v>
-      </c>
-      <c r="L42">
-        <f>STDEV(L26:L35)</f>
-        <v>86.748069598661445</v>
-      </c>
-      <c r="M42">
-        <f>STDEV(M26:M35)</f>
-        <v>26.181493807947362</v>
-      </c>
-    </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A43" t="s">
+      <c r="I52">
+        <f>STDEV(I31:I50)</f>
+        <v>7.7572139116007381</v>
+      </c>
+      <c r="J52">
+        <f t="shared" ref="J52:M52" si="27">STDEV(J31:J50)</f>
+        <v>50.386809224076138</v>
+      </c>
+      <c r="K52">
+        <f t="shared" si="27"/>
+        <v>58.236274137402326</v>
+      </c>
+      <c r="L52">
+        <f t="shared" si="27"/>
+        <v>81.19055998059207</v>
+      </c>
+      <c r="M52">
+        <f t="shared" si="27"/>
+        <v>27.111772409104731</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
         <v>11</v>
       </c>
-      <c r="B43">
-        <f>B42/(SQRT(10))</f>
-        <v>6.4027361122141526</v>
-      </c>
-      <c r="C43">
-        <f t="shared" ref="C43" si="7">C42/(SQRT(10))</f>
-        <v>32.787524630869967</v>
-      </c>
-      <c r="D43">
-        <f t="shared" ref="D43" si="8">D42/(SQRT(10))</f>
-        <v>28.132329424478527</v>
-      </c>
-      <c r="E43">
-        <f t="shared" ref="E43" si="9">E42/(SQRT(10))</f>
-        <v>28.760635361218576</v>
-      </c>
-      <c r="F43">
-        <f t="shared" ref="F43" si="10">F42/(SQRT(10))</f>
-        <v>21.128259600842224</v>
-      </c>
-      <c r="H43" t="s">
+      <c r="B53">
+        <f t="shared" ref="B53:H53" si="28">B52/(SQRT(20))</f>
+        <v>4.3269660714173606</v>
+      </c>
+      <c r="C53">
+        <f t="shared" si="28"/>
+        <v>16.7878829672051</v>
+      </c>
+      <c r="D53">
+        <f t="shared" si="28"/>
+        <v>14.973509526147524</v>
+      </c>
+      <c r="E53">
+        <f t="shared" si="28"/>
+        <v>16.350889723394051</v>
+      </c>
+      <c r="F53">
+        <f t="shared" si="28"/>
+        <v>12.963015698250846</v>
+      </c>
+      <c r="H53" t="s">
         <v>11</v>
       </c>
-      <c r="I43">
-        <f ca="1">I42/(SQRT(10))</f>
-        <v>3.0811337619593058</v>
-      </c>
-      <c r="J43">
-        <f t="shared" ref="J43" si="11">J42/(SQRT(10))</f>
-        <v>16.416775521157085</v>
-      </c>
-      <c r="K43">
-        <f t="shared" ref="K43" si="12">K42/(SQRT(10))</f>
-        <v>19.251850026985032</v>
-      </c>
-      <c r="L43">
-        <f t="shared" ref="L43" si="13">L42/(SQRT(10))</f>
-        <v>27.432148255457882</v>
-      </c>
-      <c r="M43">
-        <f t="shared" ref="M43" si="14">M42/(SQRT(10))</f>
-        <v>8.2793152978708697</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A44" t="s">
+      <c r="I53">
+        <f>I52/(SQRT(20))</f>
+        <v>1.7345657622346293</v>
+      </c>
+      <c r="J53">
+        <f t="shared" ref="J53:M53" si="29">J52/(SQRT(20))</f>
+        <v>11.266833059434767</v>
+      </c>
+      <c r="K53">
+        <f t="shared" si="29"/>
+        <v>13.022026772754453</v>
+      </c>
+      <c r="L53">
+        <f t="shared" si="29"/>
+        <v>18.154761124787786</v>
+      </c>
+      <c r="M53">
+        <f t="shared" si="29"/>
+        <v>6.0623766097261411</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
         <v>15</v>
       </c>
-      <c r="B44" s="4">
-        <f>_xlfn.CONFIDENCE.T(0.005,B42,10)</f>
-        <v>23.623934641084755</v>
-      </c>
-      <c r="C44" s="4">
-        <f>_xlfn.CONFIDENCE.T(0.005,C42,10)</f>
-        <v>120.97489656726955</v>
-      </c>
-      <c r="D44" s="4">
-        <f>_xlfn.CONFIDENCE.T(0.005,D42,10)</f>
-        <v>103.79879788541213</v>
-      </c>
-      <c r="E44" s="4">
-        <f>_xlfn.CONFIDENCE.T(0.005,E42,10)</f>
-        <v>106.11703467106337</v>
-      </c>
-      <c r="F44" s="4">
-        <f>_xlfn.CONFIDENCE.T(0.005,F42,10)</f>
-        <v>77.956144864068335</v>
-      </c>
-      <c r="G44" s="4"/>
-      <c r="H44" t="s">
+      <c r="B54" s="4">
+        <f t="shared" ref="B54:H54" si="30">_xlfn.CONFIDENCE.T(0.005,B52,20)</f>
+        <v>13.732598364763334</v>
+      </c>
+      <c r="C54" s="4">
+        <f t="shared" si="30"/>
+        <v>53.280115993089318</v>
+      </c>
+      <c r="D54" s="4">
+        <f t="shared" si="30"/>
+        <v>47.521794495186825</v>
+      </c>
+      <c r="E54" s="4">
+        <f t="shared" si="30"/>
+        <v>51.893219815415684</v>
+      </c>
+      <c r="F54" s="4">
+        <f t="shared" si="30"/>
+        <v>41.141040914584593</v>
+      </c>
+      <c r="G54" s="4"/>
+      <c r="H54" t="s">
         <v>15</v>
       </c>
-      <c r="I44" s="4">
-        <f ca="1">_xlfn.CONFIDENCE.T(0.005,I42,10)</f>
-        <v>11.368343367160104</v>
-      </c>
-      <c r="J44" s="4">
-        <f>_xlfn.CONFIDENCE.T(0.005,J42,10)</f>
-        <v>60.572359243313976</v>
-      </c>
-      <c r="K44" s="4">
-        <f>_xlfn.CONFIDENCE.T(0.005,K42,10)</f>
-        <v>71.032827026847855</v>
-      </c>
-      <c r="L44" s="4">
-        <f>_xlfn.CONFIDENCE.T(0.005,L42,10)</f>
-        <v>101.21536575827704</v>
-      </c>
-      <c r="M44" s="4">
-        <f>_xlfn.CONFIDENCE.T(0.005,M42,10)</f>
-        <v>30.547878288583245</v>
+      <c r="I54" s="4">
+        <f>_xlfn.CONFIDENCE.T(0.005,I52,20)</f>
+        <v>5.5050339098765146</v>
+      </c>
+      <c r="J54" s="4">
+        <f t="shared" ref="J54:M54" si="31">_xlfn.CONFIDENCE.T(0.005,J52,20)</f>
+        <v>35.757824465069959</v>
+      </c>
+      <c r="K54" s="4">
+        <f t="shared" si="31"/>
+        <v>41.328325809325101</v>
+      </c>
+      <c r="L54" s="4">
+        <f t="shared" si="31"/>
+        <v>57.618210732413694</v>
+      </c>
+      <c r="M54" s="4">
+        <f t="shared" si="31"/>
+        <v>19.240313361189408</v>
       </c>
     </row>
   </sheetData>

--- a/graphs/delay_aware_slicing/results/average_results.xlsx
+++ b/graphs/delay_aware_slicing/results/average_results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/phisolani/Github/wifi_monitoring/graphs/delay_aware_slicing/results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5048F43F-A564-CF40-B308-A0B7058457C3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0715F0C7-3383-904F-8547-65613093EE67}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="21140" xr2:uid="{3FEC7344-D201-3244-A186-2559A3F9F96E}"/>
   </bookViews>
@@ -447,10 +447,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70784E4A-0428-264E-82D8-1E226FAD8D1C}">
-  <dimension ref="A1:M54"/>
+  <dimension ref="A1:M74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="I50" sqref="I50:M50"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="B65" sqref="B65:F65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -564,7 +564,7 @@
         <v>114.94627599999995</v>
       </c>
       <c r="M3" s="1">
-        <v>28.522207999999988</v>
+        <v>28.522207999999999</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
@@ -1290,1206 +1290,1666 @@
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>9</v>
+      <c r="A23">
+        <v>21</v>
       </c>
       <c r="B23">
-        <f t="shared" ref="B23" si="0">AVERAGE(B3:B22)</f>
-        <v>71.092405599999964</v>
+        <v>74.539091999999968</v>
       </c>
       <c r="C23">
-        <f t="shared" ref="C23" si="1">AVERAGE(C3:C22)</f>
-        <v>129.37756799999997</v>
+        <v>127.26593599999994</v>
       </c>
       <c r="D23">
-        <f t="shared" ref="D23" si="2">AVERAGE(D3:D22)</f>
-        <v>115.05310419999998</v>
+        <v>111.775576</v>
       </c>
       <c r="E23">
-        <f t="shared" ref="E23" si="3">AVERAGE(E3:E22)</f>
-        <v>124.32341799999992</v>
+        <v>112.53220799999997</v>
       </c>
       <c r="F23">
-        <f t="shared" ref="F23" si="4">AVERAGE(F3:F22)</f>
-        <v>23.922904399999986</v>
-      </c>
-      <c r="H23" t="s">
-        <v>9</v>
+        <v>28.162319999999976</v>
+      </c>
+      <c r="H23">
+        <v>21</v>
       </c>
       <c r="I23">
-        <f t="shared" ref="I23" si="5">AVERAGE(I3:I22)</f>
-        <v>75.442118199999953</v>
+        <v>75.89300799999998</v>
       </c>
       <c r="J23">
-        <f t="shared" ref="J23" si="6">AVERAGE(J3:J22)</f>
-        <v>151.29528920000001</v>
+        <v>136.31191599999988</v>
       </c>
       <c r="K23">
-        <f t="shared" ref="K23" si="7">AVERAGE(K3:K22)</f>
-        <v>135.93685199999999</v>
+        <v>120.64269599999992</v>
       </c>
       <c r="L23">
-        <f t="shared" ref="L23" si="8">AVERAGE(L3:L22)</f>
-        <v>160.2497795999999</v>
+        <v>194.81539599999988</v>
       </c>
       <c r="M23">
-        <f t="shared" ref="M23" si="9">AVERAGE(M3:M22)</f>
-        <v>28.09825559999998</v>
+        <v>28.446327999999973</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>10</v>
+      <c r="A24">
+        <v>22</v>
       </c>
       <c r="B24">
-        <f t="shared" ref="B24:F24" si="10">STDEV(B3:B22)</f>
-        <v>7.2589681553014538</v>
+        <v>44.944807999999973</v>
       </c>
       <c r="C24">
-        <f t="shared" si="10"/>
-        <v>39.860720355936145</v>
+        <v>57.42381599999996</v>
       </c>
       <c r="D24">
-        <f t="shared" si="10"/>
-        <v>37.493794426852666</v>
+        <v>41.735083999999972</v>
       </c>
       <c r="E24">
-        <f t="shared" si="10"/>
-        <v>42.109782125481239</v>
+        <v>72.409031999999897</v>
       </c>
       <c r="F24">
-        <f t="shared" si="10"/>
-        <v>7.0293468528265119</v>
-      </c>
-      <c r="H24" t="s">
-        <v>10</v>
+        <v>13.315855999999986</v>
+      </c>
+      <c r="H24">
+        <v>22</v>
       </c>
       <c r="I24">
-        <f t="shared" ref="I24:M24" si="11">STDEV(I3:I22)</f>
-        <v>0.64684995560295999</v>
+        <v>75.292471999999975</v>
       </c>
       <c r="J24">
-        <f t="shared" si="11"/>
-        <v>20.035034894888025</v>
+        <v>139.89453600000002</v>
       </c>
       <c r="K24">
-        <f t="shared" si="11"/>
-        <v>19.676347417787117</v>
+        <v>123.87626799999998</v>
       </c>
       <c r="L24">
-        <f t="shared" si="11"/>
-        <v>36.069181569360978</v>
+        <v>175.63076399999991</v>
       </c>
       <c r="M24">
-        <f t="shared" si="11"/>
-        <v>0.85999670621635516</v>
+        <v>22.990556000000002</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>11</v>
+      <c r="A25">
+        <v>23</v>
       </c>
       <c r="B25">
-        <f t="shared" ref="B25" si="12">B24/(SQRT(20))</f>
-        <v>1.62315462417603</v>
+        <v>68.161919999999995</v>
       </c>
       <c r="C25">
-        <f t="shared" ref="C25" si="13">C24/(SQRT(20))</f>
-        <v>8.9131280347982837</v>
+        <v>72.998727999999971</v>
       </c>
       <c r="D25">
-        <f t="shared" ref="D25" si="14">D24/(SQRT(20))</f>
-        <v>8.3838673072845324</v>
+        <v>58.172859999999986</v>
       </c>
       <c r="E25">
-        <f t="shared" ref="E25" si="15">E24/(SQRT(20))</f>
-        <v>9.4160335350281628</v>
+        <v>99.595751999999919</v>
       </c>
       <c r="F25">
-        <f t="shared" ref="F25" si="16">F24/(SQRT(20))</f>
-        <v>1.5718097400344289</v>
-      </c>
-      <c r="H25" t="s">
-        <v>11</v>
+        <v>17.151047999999989</v>
+      </c>
+      <c r="H25">
+        <v>23</v>
       </c>
       <c r="I25">
-        <f t="shared" ref="I25" si="17">I24/(SQRT(20))</f>
-        <v>0.14464004719709395</v>
+        <v>75.618756000000019</v>
       </c>
       <c r="J25">
-        <f t="shared" ref="J25" si="18">J24/(SQRT(20))</f>
-        <v>4.4799699956549972</v>
+        <v>149.42289599999992</v>
       </c>
       <c r="K25">
-        <f t="shared" ref="K25" si="19">K24/(SQRT(20))</f>
-        <v>4.3997650375074446</v>
+        <v>133.20191999999989</v>
       </c>
       <c r="L25">
-        <f t="shared" ref="L25" si="20">L24/(SQRT(20))</f>
-        <v>8.0653141881873687</v>
+        <v>174.15760799999998</v>
       </c>
       <c r="M25">
-        <f t="shared" ref="M25" si="21">M24/(SQRT(20))</f>
-        <v>0.1923011095525686</v>
+        <v>23.081611999999975</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>15</v>
-      </c>
-      <c r="B26" s="4">
-        <f t="shared" ref="B26:F26" si="22">_xlfn.CONFIDENCE.T(0.005,B24,20)</f>
-        <v>5.1514456480164483</v>
-      </c>
-      <c r="C26" s="4">
-        <f t="shared" si="22"/>
-        <v>28.287813090132019</v>
-      </c>
-      <c r="D26" s="4">
-        <f t="shared" si="22"/>
-        <v>26.608085336036641</v>
-      </c>
-      <c r="E26" s="4">
-        <f t="shared" si="22"/>
-        <v>29.883896612881966</v>
-      </c>
-      <c r="F26" s="4">
-        <f t="shared" si="22"/>
-        <v>4.9884911296855599</v>
-      </c>
-      <c r="H26" t="s">
-        <v>15</v>
-      </c>
-      <c r="I26" s="4">
-        <f t="shared" ref="I26:M26" si="23">_xlfn.CONFIDENCE.T(0.005,I24,20)</f>
-        <v>0.4590476659243754</v>
-      </c>
-      <c r="J26" s="4">
-        <f t="shared" si="23"/>
-        <v>14.218190672423809</v>
-      </c>
-      <c r="K26" s="4">
-        <f t="shared" si="23"/>
-        <v>13.963642229259751</v>
-      </c>
-      <c r="L26" s="4">
-        <f t="shared" si="23"/>
-        <v>25.597085487597564</v>
-      </c>
-      <c r="M26" s="4">
-        <f t="shared" si="23"/>
-        <v>0.61031074868556756</v>
+      <c r="A26">
+        <v>24</v>
+      </c>
+      <c r="B26">
+        <v>60.797224</v>
+      </c>
+      <c r="C26">
+        <v>148.23916799999998</v>
+      </c>
+      <c r="D26">
+        <v>132.74013599999995</v>
+      </c>
+      <c r="E26">
+        <v>143.28203599999992</v>
+      </c>
+      <c r="F26">
+        <v>28.142807999999981</v>
+      </c>
+      <c r="H26">
+        <v>24</v>
+      </c>
+      <c r="I26">
+        <v>75.910351999999989</v>
+      </c>
+      <c r="J26">
+        <v>137.82951599999996</v>
+      </c>
+      <c r="K26">
+        <v>122.98955599999996</v>
+      </c>
+      <c r="L26">
+        <v>181.2762359999999</v>
+      </c>
+      <c r="M26">
+        <v>22.626331999999977</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>25</v>
+      </c>
+      <c r="B27">
+        <v>63.686084000000044</v>
+      </c>
+      <c r="C27">
+        <v>153.58979199999999</v>
+      </c>
+      <c r="D27">
+        <v>137.6072960000001</v>
+      </c>
+      <c r="E27">
+        <v>154.82446800000008</v>
+      </c>
+      <c r="F27">
+        <v>28.536299999999986</v>
+      </c>
+      <c r="H27">
+        <v>25</v>
+      </c>
+      <c r="I27">
+        <v>76.117395999999999</v>
+      </c>
+      <c r="J27">
+        <v>145.16494399999999</v>
+      </c>
+      <c r="K27">
+        <v>129.88379599999999</v>
+      </c>
+      <c r="L27">
+        <v>186.00355999999988</v>
+      </c>
+      <c r="M27">
+        <v>26.352039999999988</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>26</v>
+      </c>
+      <c r="H28">
+        <v>26</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B29" t="s">
-        <v>5</v>
-      </c>
-      <c r="C29" t="s">
-        <v>12</v>
-      </c>
-      <c r="D29" t="s">
-        <v>9</v>
-      </c>
-      <c r="I29" t="s">
-        <v>6</v>
-      </c>
-      <c r="J29" t="s">
-        <v>12</v>
-      </c>
-      <c r="K29" t="s">
-        <v>9</v>
+      <c r="A29">
+        <v>27</v>
+      </c>
+      <c r="H29">
+        <v>27</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
-        <v>8</v>
-      </c>
-      <c r="B30" t="s">
-        <v>0</v>
-      </c>
-      <c r="C30" t="s">
-        <v>1</v>
-      </c>
-      <c r="D30" t="s">
-        <v>2</v>
-      </c>
-      <c r="E30" t="s">
-        <v>3</v>
-      </c>
-      <c r="F30" t="s">
-        <v>4</v>
-      </c>
-      <c r="H30" t="s">
-        <v>8</v>
-      </c>
-      <c r="I30" t="s">
-        <v>0</v>
-      </c>
-      <c r="J30" t="s">
-        <v>1</v>
-      </c>
-      <c r="K30" t="s">
-        <v>2</v>
-      </c>
-      <c r="L30" t="s">
-        <v>3</v>
-      </c>
-      <c r="M30" t="s">
-        <v>4</v>
+      <c r="A30">
+        <v>28</v>
+      </c>
+      <c r="H30">
+        <v>28</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
-        <v>13</v>
-      </c>
-      <c r="B31">
-        <v>69.870230496453914</v>
-      </c>
-      <c r="C31">
-        <v>354.77367391304358</v>
-      </c>
-      <c r="D31">
-        <v>404.86795979899489</v>
-      </c>
-      <c r="E31">
-        <v>314.15504761904754</v>
-      </c>
-      <c r="F31">
-        <v>25.038018348623851</v>
-      </c>
-      <c r="H31" t="s">
-        <v>13</v>
-      </c>
-      <c r="I31">
-        <v>16.302378006872853</v>
-      </c>
-      <c r="J31">
-        <v>327.45672294372292</v>
-      </c>
-      <c r="K31">
-        <v>378.39915500000001</v>
-      </c>
-      <c r="L31">
-        <v>386.06465803108802</v>
-      </c>
-      <c r="M31">
-        <v>93.6107962962963</v>
+      <c r="A31">
+        <v>29</v>
+      </c>
+      <c r="H31">
+        <v>29</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A32">
+        <v>30</v>
+      </c>
+      <c r="H32">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>9</v>
+      </c>
+      <c r="B33">
+        <f>AVERAGE(B3:B32)</f>
+        <v>69.359089599999962</v>
+      </c>
+      <c r="C33">
+        <f t="shared" ref="C33" si="0">AVERAGE(C3:C32)</f>
+        <v>125.88275199999997</v>
+      </c>
+      <c r="D33">
+        <f t="shared" ref="D33" si="1">AVERAGE(D3:D32)</f>
+        <v>111.32372143999999</v>
+      </c>
+      <c r="E33">
+        <f t="shared" ref="E33" si="2">AVERAGE(E3:E32)</f>
+        <v>122.76447423999994</v>
+      </c>
+      <c r="F33">
+        <f t="shared" ref="F33" si="3">AVERAGE(F3:F32)</f>
+        <v>23.75065679999998</v>
+      </c>
+      <c r="H33" t="s">
+        <v>9</v>
+      </c>
+      <c r="I33">
+        <f>AVERAGE(I3:I32)</f>
+        <v>75.506973919999979</v>
+      </c>
+      <c r="J33">
+        <f t="shared" ref="J33" si="4">AVERAGE(J3:J32)</f>
+        <v>149.38118367999999</v>
+      </c>
+      <c r="K33">
+        <f t="shared" ref="K33" si="5">AVERAGE(K3:K32)</f>
+        <v>133.97325103999998</v>
+      </c>
+      <c r="L33">
+        <f t="shared" ref="L33" si="6">AVERAGE(L3:L32)</f>
+        <v>164.6751662399999</v>
+      </c>
+      <c r="M33">
+        <f t="shared" ref="M33" si="7">AVERAGE(M3:M32)</f>
+        <v>27.418479199999979</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>10</v>
+      </c>
+      <c r="B34">
+        <f>STDEV(B3:B32)</f>
+        <v>8.6387179871601472</v>
+      </c>
+      <c r="C34">
+        <f t="shared" ref="C34:F34" si="8">STDEV(C3:C32)</f>
+        <v>40.407139843852185</v>
+      </c>
+      <c r="D34">
+        <f t="shared" si="8"/>
+        <v>38.624991647636875</v>
+      </c>
+      <c r="E34">
+        <f t="shared" si="8"/>
+        <v>39.982298396542731</v>
+      </c>
+      <c r="F34">
+        <f t="shared" si="8"/>
+        <v>6.9327485540366656</v>
+      </c>
+      <c r="H34" t="s">
+        <v>10</v>
+      </c>
+      <c r="I34">
+        <f>STDEV(I3:I32)</f>
+        <v>0.60473359608908928</v>
+      </c>
+      <c r="J34">
+        <f t="shared" ref="J34:M34" si="9">STDEV(J3:J32)</f>
+        <v>18.384716847407148</v>
+      </c>
+      <c r="K34">
+        <f t="shared" si="9"/>
+        <v>18.086299828898646</v>
+      </c>
+      <c r="L34">
+        <f t="shared" si="9"/>
+        <v>33.515719839359996</v>
+      </c>
+      <c r="M34">
+        <f t="shared" si="9"/>
+        <v>1.9024936807194193</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>11</v>
+      </c>
+      <c r="B35">
+        <f>B34/(SQRT(30))</f>
+        <v>1.5772069031644123</v>
+      </c>
+      <c r="C35">
+        <f t="shared" ref="C35" si="10">C34/(SQRT(30))</f>
+        <v>7.3773006589145389</v>
+      </c>
+      <c r="D35">
+        <f t="shared" ref="D35" si="11">D34/(SQRT(30))</f>
+        <v>7.0519264029531161</v>
+      </c>
+      <c r="E35">
+        <f t="shared" ref="E35" si="12">E34/(SQRT(30))</f>
+        <v>7.2997355775630286</v>
+      </c>
+      <c r="F35">
+        <f t="shared" ref="F35" si="13">F34/(SQRT(30))</f>
+        <v>1.2657409228524015</v>
+      </c>
+      <c r="H35" t="s">
+        <v>11</v>
+      </c>
+      <c r="I35">
+        <f>I34/(SQRT(30))</f>
+        <v>0.1104087439530707</v>
+      </c>
+      <c r="J35">
+        <f t="shared" ref="J35" si="14">J34/(SQRT(30))</f>
+        <v>3.356574710223386</v>
+      </c>
+      <c r="K35">
+        <f t="shared" ref="K35" si="15">K34/(SQRT(30))</f>
+        <v>3.3020914660298715</v>
+      </c>
+      <c r="L35">
+        <f t="shared" ref="L35" si="16">L34/(SQRT(30))</f>
+        <v>6.1191052623469639</v>
+      </c>
+      <c r="M35">
+        <f t="shared" ref="M35" si="17">M34/(SQRT(30))</f>
+        <v>0.34734623481368576</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>15</v>
+      </c>
+      <c r="B36" s="4">
+        <f>_xlfn.CONFIDENCE.T(0.005,B34,30)</f>
+        <v>4.7916282981122906</v>
+      </c>
+      <c r="C36" s="4">
+        <f t="shared" ref="C36:F36" si="18">_xlfn.CONFIDENCE.T(0.005,C34,30)</f>
+        <v>22.412584252588992</v>
+      </c>
+      <c r="D36" s="4">
+        <f t="shared" si="18"/>
+        <v>21.424082053407666</v>
+      </c>
+      <c r="E36" s="4">
+        <f t="shared" si="18"/>
+        <v>22.176937909675072</v>
+      </c>
+      <c r="F36" s="4">
+        <f t="shared" si="18"/>
+        <v>3.8453800904941295</v>
+      </c>
+      <c r="H36" t="s">
+        <v>15</v>
+      </c>
+      <c r="I36" s="4">
+        <f>_xlfn.CONFIDENCE.T(0.005,I34,30)</f>
+        <v>0.3354269251695125</v>
+      </c>
+      <c r="J36" s="4">
+        <f t="shared" ref="J36:M36" si="19">_xlfn.CONFIDENCE.T(0.005,J34,30)</f>
+        <v>10.197430872237222</v>
+      </c>
+      <c r="K36" s="4">
+        <f t="shared" si="19"/>
+        <v>10.031908229566293</v>
+      </c>
+      <c r="L36" s="4">
+        <f t="shared" si="19"/>
+        <v>18.590127823662652</v>
+      </c>
+      <c r="M36" s="4">
+        <f t="shared" si="19"/>
+        <v>1.0552540980113354</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B39" t="s">
+        <v>5</v>
+      </c>
+      <c r="C39" t="s">
+        <v>12</v>
+      </c>
+      <c r="D39" t="s">
+        <v>9</v>
+      </c>
+      <c r="I39" t="s">
+        <v>6</v>
+      </c>
+      <c r="J39" t="s">
+        <v>12</v>
+      </c>
+      <c r="K39" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>8</v>
+      </c>
+      <c r="B40" t="s">
+        <v>0</v>
+      </c>
+      <c r="C40" t="s">
+        <v>1</v>
+      </c>
+      <c r="D40" t="s">
         <v>2</v>
       </c>
-      <c r="B32" s="3">
-        <v>59.899591549295778</v>
-      </c>
-      <c r="C32" s="3">
-        <v>403.31300446428577</v>
-      </c>
-      <c r="D32" s="3">
-        <v>477.12081865284983</v>
-      </c>
-      <c r="E32" s="3">
-        <v>384.74177099236641</v>
-      </c>
-      <c r="F32" s="3">
-        <v>44.96678181818185</v>
-      </c>
-      <c r="H32">
+      <c r="E40" t="s">
+        <v>3</v>
+      </c>
+      <c r="F40" t="s">
+        <v>4</v>
+      </c>
+      <c r="H40" t="s">
+        <v>8</v>
+      </c>
+      <c r="I40" t="s">
+        <v>0</v>
+      </c>
+      <c r="J40" t="s">
+        <v>1</v>
+      </c>
+      <c r="K40" t="s">
         <v>2</v>
       </c>
-      <c r="I32">
-        <v>37.296900343642605</v>
-      </c>
-      <c r="J32">
-        <v>339.69103589743611</v>
-      </c>
-      <c r="K32">
-        <v>401.50321212121281</v>
-      </c>
-      <c r="L32">
-        <v>356.06701685393267</v>
-      </c>
-      <c r="M32">
-        <v>87.862999999999985</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A33">
+      <c r="L40" t="s">
         <v>3</v>
       </c>
-      <c r="B33" s="3">
-        <v>60.707031034482796</v>
-      </c>
-      <c r="C33" s="3">
-        <v>397.22962931034448</v>
-      </c>
-      <c r="D33" s="3">
-        <v>453.61965517241384</v>
-      </c>
-      <c r="E33" s="3">
-        <v>447.18656783919573</v>
-      </c>
-      <c r="F33" s="3">
-        <v>116.91051851851844</v>
-      </c>
-      <c r="H33">
-        <v>3</v>
-      </c>
-      <c r="I33">
-        <v>28.285096219931265</v>
-      </c>
-      <c r="J33">
-        <v>372.98395217391328</v>
-      </c>
-      <c r="K33">
-        <v>427.03337000000005</v>
-      </c>
-      <c r="L33">
-        <v>430.33814659685885</v>
-      </c>
-      <c r="M33">
-        <v>60.893941176470641</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A34">
+      <c r="M40" t="s">
         <v>4</v>
       </c>
-      <c r="B34" s="3">
-        <v>80.258698473282422</v>
-      </c>
-      <c r="C34" s="3">
-        <v>400.80207327586226</v>
-      </c>
-      <c r="D34" s="3">
-        <v>454.81207425742593</v>
-      </c>
-      <c r="E34" s="3">
-        <v>440.00508499999995</v>
-      </c>
-      <c r="F34" s="3">
-        <v>135.1410181818182</v>
-      </c>
-      <c r="H34">
-        <v>4</v>
-      </c>
-      <c r="I34">
-        <v>37.011748275862075</v>
-      </c>
-      <c r="J34">
-        <v>367.545691304348</v>
-      </c>
-      <c r="K34">
-        <v>421.93867839196014</v>
-      </c>
-      <c r="L34">
-        <v>447.29825581395357</v>
-      </c>
-      <c r="M34">
-        <v>91.863082568807371</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A35">
-        <v>5</v>
-      </c>
-      <c r="B35" s="3">
-        <v>84.88603436426115</v>
-      </c>
-      <c r="C35" s="3">
-        <v>382.2948441558442</v>
-      </c>
-      <c r="D35" s="3">
-        <v>441.29357286432185</v>
-      </c>
-      <c r="E35" s="3">
-        <v>439.13515075376893</v>
-      </c>
-      <c r="F35" s="3">
-        <v>171.64369090909088</v>
-      </c>
-      <c r="H35">
-        <v>5</v>
-      </c>
-      <c r="I35">
-        <v>22.667783505154627</v>
-      </c>
-      <c r="J35">
-        <v>447.04052155172417</v>
-      </c>
-      <c r="K35">
-        <v>515.57288500000016</v>
-      </c>
-      <c r="L35">
-        <v>270.88068589743585</v>
-      </c>
-      <c r="M35">
-        <v>57.970431192660534</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A36">
-        <v>6</v>
-      </c>
-      <c r="B36" s="3">
-        <v>50.460185567010285</v>
-      </c>
-      <c r="C36" s="3">
-        <v>417.10914285714284</v>
-      </c>
-      <c r="D36" s="3">
-        <v>479.57054726368153</v>
-      </c>
-      <c r="E36" s="3">
-        <v>461.60328000000015</v>
-      </c>
-      <c r="F36" s="3">
-        <v>2.2614678899082551E-2</v>
-      </c>
-      <c r="H36">
-        <v>6</v>
-      </c>
-      <c r="I36">
-        <v>15.542048275862074</v>
-      </c>
-      <c r="J36">
-        <v>419.24741125541095</v>
-      </c>
-      <c r="K36">
-        <v>486.60004020100496</v>
-      </c>
-      <c r="L36">
-        <v>261.4841136363637</v>
-      </c>
-      <c r="M36">
-        <v>34.885648148148157</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A37">
-        <v>7</v>
-      </c>
-      <c r="B37" s="3">
-        <v>38.401207468879669</v>
-      </c>
-      <c r="C37" s="3">
-        <v>261.66430468750002</v>
-      </c>
-      <c r="D37" s="3">
-        <v>281.06546428571431</v>
-      </c>
-      <c r="E37" s="3">
-        <v>319.70802542372894</v>
-      </c>
-      <c r="F37" s="3">
-        <v>212.13016666666667</v>
-      </c>
-      <c r="H37">
-        <v>7</v>
-      </c>
-      <c r="I37">
-        <v>11.605697594501715</v>
-      </c>
-      <c r="J37">
-        <v>334.41920779220783</v>
-      </c>
-      <c r="K37">
-        <v>386.85049253731324</v>
-      </c>
-      <c r="L37">
-        <v>262.55604519774005</v>
-      </c>
-      <c r="M37">
-        <v>24.754654545454542</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A38">
-        <v>8</v>
-      </c>
-      <c r="B38" s="3">
-        <v>21.341689655172416</v>
-      </c>
-      <c r="C38" s="3">
-        <v>254.95032592592594</v>
-      </c>
-      <c r="D38" s="3">
-        <v>334.84668571428551</v>
-      </c>
-      <c r="E38" s="3">
-        <v>395.66077631578946</v>
-      </c>
-      <c r="F38" s="3">
-        <v>76.946266666666659</v>
-      </c>
-      <c r="H38">
-        <v>8</v>
-      </c>
-      <c r="I38">
-        <v>23.298210344827588</v>
-      </c>
-      <c r="J38">
-        <v>306.4087359307365</v>
-      </c>
-      <c r="K38">
-        <v>353.78333830845787</v>
-      </c>
-      <c r="L38">
-        <v>451.95949342105285</v>
-      </c>
-      <c r="M38">
-        <v>56.270949494949484</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A39">
-        <v>9</v>
-      </c>
-      <c r="B39" s="3">
-        <v>47.551453608247442</v>
-      </c>
-      <c r="C39" s="3">
-        <v>256.10612738853507</v>
-      </c>
-      <c r="D39" s="3">
-        <v>315.58229133858265</v>
-      </c>
-      <c r="E39" s="3">
-        <v>214.83236499999998</v>
-      </c>
-      <c r="F39" s="3">
-        <v>142.36702040816328</v>
-      </c>
-      <c r="H39">
-        <v>9</v>
-      </c>
-      <c r="I39">
-        <v>8.903658620689658</v>
-      </c>
-      <c r="J39">
-        <v>272.29620434782601</v>
-      </c>
-      <c r="K39">
-        <v>309.37971000000005</v>
-      </c>
-      <c r="L39">
-        <v>215.0677528089887</v>
-      </c>
-      <c r="M39">
-        <v>24.010201834862389</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A40">
-        <v>10</v>
-      </c>
-      <c r="B40" s="3">
-        <v>35.089734982332466</v>
-      </c>
-      <c r="C40" s="3">
-        <v>601.28342857142866</v>
-      </c>
-      <c r="D40" s="3">
-        <v>574.81121874999997</v>
-      </c>
-      <c r="E40" s="3">
-        <v>228.1692311557789</v>
-      </c>
-      <c r="F40" s="3">
-        <v>95.346238532110036</v>
-      </c>
-      <c r="H40">
-        <v>10</v>
-      </c>
-      <c r="I40">
-        <v>23.168755172413796</v>
-      </c>
-      <c r="J40">
-        <v>329.05888744588771</v>
-      </c>
-      <c r="K40">
-        <v>375.20042000000001</v>
-      </c>
-      <c r="L40">
-        <v>369.13502604166678</v>
-      </c>
-      <c r="M40">
-        <v>67.803394495412832</v>
-      </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A41">
-        <v>11</v>
+      <c r="A41" t="s">
+        <v>13</v>
       </c>
       <c r="B41">
-        <v>73.683857142857121</v>
+        <v>69.870230496453914</v>
       </c>
       <c r="C41">
-        <v>413.85776754385961</v>
+        <v>354.77367391304358</v>
       </c>
       <c r="D41">
-        <v>479.16689393939401</v>
+        <v>404.86795979899489</v>
       </c>
       <c r="E41">
-        <v>416.60892146596899</v>
+        <v>314.15504761904754</v>
       </c>
       <c r="F41">
-        <v>139.54219626168228</v>
-      </c>
-      <c r="H41">
-        <v>11</v>
+        <v>25.038018348623851</v>
+      </c>
+      <c r="H41" t="s">
+        <v>13</v>
       </c>
       <c r="I41">
-        <v>15.179434482758621</v>
+        <v>16.302378006872853</v>
       </c>
       <c r="J41">
-        <v>440.10883406113533</v>
+        <v>327.45672294372292</v>
       </c>
       <c r="K41">
-        <v>502.50532663316568</v>
+        <v>378.39915500000001</v>
       </c>
       <c r="L41">
-        <v>268.43367553191496</v>
+        <v>386.06465803108802</v>
       </c>
       <c r="M41">
-        <v>35.550174311926604</v>
+        <v>93.6107962962963</v>
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A42">
-        <v>12</v>
-      </c>
-      <c r="B42">
-        <v>42.112628975265039</v>
-      </c>
-      <c r="C42">
-        <v>383.33760606060616</v>
-      </c>
-      <c r="D42">
-        <v>444.80338805970166</v>
-      </c>
-      <c r="E42">
-        <v>307.37457692307692</v>
-      </c>
-      <c r="F42">
-        <v>39.308252427184463</v>
+        <v>2</v>
+      </c>
+      <c r="B42" s="3">
+        <v>59.899591549295778</v>
+      </c>
+      <c r="C42" s="3">
+        <v>403.31300446428577</v>
+      </c>
+      <c r="D42" s="3">
+        <v>477.12081865284983</v>
+      </c>
+      <c r="E42" s="3">
+        <v>384.74177099236641</v>
+      </c>
+      <c r="F42" s="3">
+        <v>44.96678181818185</v>
       </c>
       <c r="H42">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="I42">
-        <v>16.883986206896555</v>
+        <v>37.296900343642605</v>
       </c>
       <c r="J42">
-        <v>339.92130222222238</v>
+        <v>339.69103589743611</v>
       </c>
       <c r="K42">
-        <v>396.54178974359002</v>
+        <v>401.50321212121281</v>
       </c>
       <c r="L42">
-        <v>441.18072538860105</v>
+        <v>356.06701685393267</v>
       </c>
       <c r="M42">
-        <v>79.384495412844032</v>
+        <v>87.862999999999985</v>
       </c>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A43">
-        <v>13</v>
-      </c>
-      <c r="B43">
-        <v>34.985098901098901</v>
-      </c>
-      <c r="C43">
-        <v>353.84601470588251</v>
-      </c>
-      <c r="D43">
-        <v>400.3648813559322</v>
-      </c>
-      <c r="E43">
-        <v>421.51534814814812</v>
-      </c>
-      <c r="F43">
-        <v>91.839121212121199</v>
+        <v>3</v>
+      </c>
+      <c r="B43" s="3">
+        <v>60.707031034482796</v>
+      </c>
+      <c r="C43" s="3">
+        <v>397.22962931034448</v>
+      </c>
+      <c r="D43" s="3">
+        <v>453.61965517241384</v>
+      </c>
+      <c r="E43" s="3">
+        <v>447.18656783919573</v>
+      </c>
+      <c r="F43" s="3">
+        <v>116.91051851851844</v>
       </c>
       <c r="H43">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="I43">
-        <v>13.647797250859107</v>
+        <v>28.285096219931265</v>
       </c>
       <c r="J43">
-        <v>336.21143303571455</v>
+        <v>372.98395217391328</v>
       </c>
       <c r="K43">
-        <v>386.22387179487214</v>
+        <v>427.03337000000005</v>
       </c>
       <c r="L43">
-        <v>460.20159278350513</v>
+        <v>430.33814659685885</v>
       </c>
       <c r="M43">
-        <v>105.8372752293578</v>
+        <v>60.893941176470641</v>
       </c>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A44">
-        <v>14</v>
-      </c>
-      <c r="B44">
-        <v>74.348187725631703</v>
-      </c>
-      <c r="C44">
-        <v>318.55433333333337</v>
-      </c>
-      <c r="D44">
-        <v>362.46835025380705</v>
-      </c>
-      <c r="E44">
-        <v>363.56316145833324</v>
-      </c>
-      <c r="F44">
-        <v>173.56969473684217</v>
+        <v>4</v>
+      </c>
+      <c r="B44" s="3">
+        <v>80.258698473282422</v>
+      </c>
+      <c r="C44" s="3">
+        <v>400.80207327586226</v>
+      </c>
+      <c r="D44" s="3">
+        <v>454.81207425742593</v>
+      </c>
+      <c r="E44" s="3">
+        <v>440.00508499999995</v>
+      </c>
+      <c r="F44" s="3">
+        <v>135.1410181818182</v>
       </c>
       <c r="H44">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="I44">
-        <v>16.040357388316146</v>
+        <v>37.011748275862075</v>
       </c>
       <c r="J44">
-        <v>474.93923043478287</v>
+        <v>367.545691304348</v>
       </c>
       <c r="K44">
-        <v>546.26851000000011</v>
+        <v>421.93867839196014</v>
       </c>
       <c r="L44">
-        <v>268.50992655367224</v>
+        <v>447.29825581395357</v>
       </c>
       <c r="M44">
-        <v>42.913590909090907</v>
+        <v>91.863082568807371</v>
       </c>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A45">
-        <v>15</v>
-      </c>
-      <c r="B45">
-        <v>49.895482071713275</v>
-      </c>
-      <c r="C45">
-        <v>409.78945851528357</v>
-      </c>
-      <c r="D45">
-        <v>472.81423115577917</v>
-      </c>
-      <c r="E45">
-        <v>314.45741304347837</v>
-      </c>
-      <c r="F45">
-        <v>96.126467889908284</v>
+        <v>5</v>
+      </c>
+      <c r="B45" s="3">
+        <v>84.88603436426115</v>
+      </c>
+      <c r="C45" s="3">
+        <v>382.2948441558442</v>
+      </c>
+      <c r="D45" s="3">
+        <v>441.29357286432185</v>
+      </c>
+      <c r="E45" s="3">
+        <v>439.13515075376893</v>
+      </c>
+      <c r="F45" s="3">
+        <v>171.64369090909088</v>
       </c>
       <c r="H45">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="I45">
-        <v>11.306295532646054</v>
+        <v>22.667783505154627</v>
       </c>
       <c r="J45">
-        <v>352.80487330316754</v>
+        <v>447.04052155172417</v>
       </c>
       <c r="K45">
-        <v>390.38539999999995</v>
+        <v>515.57288500000016</v>
       </c>
       <c r="L45">
-        <v>269.3365405405404</v>
+        <v>270.88068589743585</v>
       </c>
       <c r="M45">
-        <v>31.986348623853214</v>
+        <v>57.970431192660534</v>
       </c>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A46">
-        <v>16</v>
-      </c>
-      <c r="B46">
-        <v>77.810055172413797</v>
-      </c>
-      <c r="C46">
-        <v>373.80883478260904</v>
-      </c>
-      <c r="D46">
-        <v>410.5131005025126</v>
-      </c>
-      <c r="E46">
-        <v>412.55080904522629</v>
-      </c>
-      <c r="F46">
-        <v>155.67175000000017</v>
+        <v>6</v>
+      </c>
+      <c r="B46" s="3">
+        <v>50.460185567010285</v>
+      </c>
+      <c r="C46" s="3">
+        <v>417.10914285714284</v>
+      </c>
+      <c r="D46" s="3">
+        <v>479.57054726368153</v>
+      </c>
+      <c r="E46" s="3">
+        <v>461.60328000000015</v>
+      </c>
+      <c r="F46" s="3">
+        <v>2.2614678899082551E-2</v>
       </c>
       <c r="H46">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="I46">
-        <v>22.014089347079036</v>
+        <v>15.542048275862074</v>
       </c>
       <c r="J46">
-        <v>363.25293913043521</v>
+        <v>419.24741125541095</v>
       </c>
       <c r="K46">
-        <v>418.2331250000002</v>
+        <v>486.60004020100496</v>
       </c>
       <c r="L46">
-        <v>367.51399481865286</v>
+        <v>261.4841136363637</v>
       </c>
       <c r="M46">
-        <v>88.132054545454565</v>
+        <v>34.885648148148157</v>
       </c>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A47">
-        <v>17</v>
-      </c>
-      <c r="B47">
-        <v>17.209672000000005</v>
-      </c>
-      <c r="C47">
-        <v>350.17843290043288</v>
-      </c>
-      <c r="D47">
-        <v>406.0722686567164</v>
-      </c>
-      <c r="E47">
-        <v>392.86334946236599</v>
-      </c>
-      <c r="F47">
-        <v>73.984201834862361</v>
+        <v>7</v>
+      </c>
+      <c r="B47" s="3">
+        <v>38.401207468879669</v>
+      </c>
+      <c r="C47" s="3">
+        <v>261.66430468750002</v>
+      </c>
+      <c r="D47" s="3">
+        <v>281.06546428571431</v>
+      </c>
+      <c r="E47" s="3">
+        <v>319.70802542372894</v>
+      </c>
+      <c r="F47" s="3">
+        <v>212.13016666666667</v>
       </c>
       <c r="H47">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="I47">
-        <v>13.457278350515461</v>
+        <v>11.605697594501715</v>
       </c>
       <c r="J47">
-        <v>318.29519913419915</v>
+        <v>334.41920779220783</v>
       </c>
       <c r="K47">
-        <v>368.39102475247574</v>
+        <v>386.85049253731324</v>
       </c>
       <c r="L47">
-        <v>452.47994300518144</v>
+        <v>262.55604519774005</v>
       </c>
       <c r="M47">
-        <v>97.628445454545485</v>
+        <v>24.754654545454542</v>
       </c>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A48">
-        <v>18</v>
-      </c>
-      <c r="B48">
-        <v>52.069703448275845</v>
-      </c>
-      <c r="C48">
-        <v>344.5605541125542</v>
-      </c>
-      <c r="D48">
-        <v>395.55552238805984</v>
-      </c>
-      <c r="E48">
-        <v>468.27229015544032</v>
-      </c>
-      <c r="F48">
-        <v>51.819549999999992</v>
+        <v>8</v>
+      </c>
+      <c r="B48" s="3">
+        <v>21.341689655172416</v>
+      </c>
+      <c r="C48" s="3">
+        <v>254.95032592592594</v>
+      </c>
+      <c r="D48" s="3">
+        <v>334.84668571428551</v>
+      </c>
+      <c r="E48" s="3">
+        <v>395.66077631578946</v>
+      </c>
+      <c r="F48" s="3">
+        <v>76.946266666666659</v>
       </c>
       <c r="H48">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="I48">
-        <v>15.972240549828173</v>
+        <v>23.298210344827588</v>
       </c>
       <c r="J48">
-        <v>337.185341991342</v>
+        <v>306.4087359307365</v>
       </c>
       <c r="K48">
-        <v>385.99920398009971</v>
+        <v>353.78333830845787</v>
       </c>
       <c r="L48">
-        <v>429.77204736842094</v>
+        <v>451.95949342105285</v>
       </c>
       <c r="M48">
-        <v>87.739700000000042</v>
+        <v>56.270949494949484</v>
       </c>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A49">
-        <v>19</v>
-      </c>
-      <c r="B49">
-        <v>67.066913793103424</v>
-      </c>
-      <c r="C49">
-        <v>330.86551965065507</v>
-      </c>
-      <c r="D49">
-        <v>382.73778787878786</v>
-      </c>
-      <c r="E49">
-        <v>430.83086499999973</v>
-      </c>
-      <c r="F49">
-        <v>181.06959090909089</v>
+        <v>9</v>
+      </c>
+      <c r="B49" s="3">
+        <v>47.551453608247442</v>
+      </c>
+      <c r="C49" s="3">
+        <v>256.10612738853507</v>
+      </c>
+      <c r="D49" s="3">
+        <v>315.58229133858265</v>
+      </c>
+      <c r="E49" s="3">
+        <v>214.83236499999998</v>
+      </c>
+      <c r="F49" s="3">
+        <v>142.36702040816328</v>
       </c>
       <c r="H49">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="I49">
-        <v>19.124355871886127</v>
+        <v>8.903658620689658</v>
       </c>
       <c r="J49">
-        <v>371.97840624999986</v>
+        <v>272.29620434782601</v>
       </c>
       <c r="K49">
-        <v>428.46623195876322</v>
+        <v>309.37971000000005</v>
       </c>
       <c r="L49">
-        <v>375.24906217616575</v>
+        <v>215.0677528089887</v>
       </c>
       <c r="M49">
-        <v>85.922666666666657</v>
+        <v>24.010201834862389</v>
       </c>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A50">
+        <v>10</v>
+      </c>
+      <c r="B50" s="3">
+        <v>35.089734982332466</v>
+      </c>
+      <c r="C50" s="3">
+        <v>601.28342857142866</v>
+      </c>
+      <c r="D50" s="3">
+        <v>574.81121874999997</v>
+      </c>
+      <c r="E50" s="3">
+        <v>228.1692311557789</v>
+      </c>
+      <c r="F50" s="3">
+        <v>95.346238532110036</v>
+      </c>
+      <c r="H50">
+        <v>10</v>
+      </c>
+      <c r="I50">
+        <v>23.168755172413796</v>
+      </c>
+      <c r="J50">
+        <v>329.05888744588771</v>
+      </c>
+      <c r="K50">
+        <v>375.20042000000001</v>
+      </c>
+      <c r="L50">
+        <v>369.13502604166678</v>
+      </c>
+      <c r="M50">
+        <v>67.803394495412832</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A51">
+        <v>11</v>
+      </c>
+      <c r="B51">
+        <v>73.683857142857121</v>
+      </c>
+      <c r="C51">
+        <v>413.85776754385961</v>
+      </c>
+      <c r="D51">
+        <v>479.16689393939401</v>
+      </c>
+      <c r="E51">
+        <v>416.60892146596899</v>
+      </c>
+      <c r="F51">
+        <v>139.54219626168228</v>
+      </c>
+      <c r="H51">
+        <v>11</v>
+      </c>
+      <c r="I51">
+        <v>15.179434482758621</v>
+      </c>
+      <c r="J51">
+        <v>440.10883406113533</v>
+      </c>
+      <c r="K51">
+        <v>502.50532663316568</v>
+      </c>
+      <c r="L51">
+        <v>268.43367553191496</v>
+      </c>
+      <c r="M51">
+        <v>35.550174311926604</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A52">
+        <v>12</v>
+      </c>
+      <c r="B52">
+        <v>42.112628975265039</v>
+      </c>
+      <c r="C52">
+        <v>383.33760606060616</v>
+      </c>
+      <c r="D52">
+        <v>444.80338805970166</v>
+      </c>
+      <c r="E52">
+        <v>307.37457692307692</v>
+      </c>
+      <c r="F52">
+        <v>39.308252427184463</v>
+      </c>
+      <c r="H52">
+        <v>12</v>
+      </c>
+      <c r="I52">
+        <v>16.883986206896555</v>
+      </c>
+      <c r="J52">
+        <v>339.92130222222238</v>
+      </c>
+      <c r="K52">
+        <v>396.54178974359002</v>
+      </c>
+      <c r="L52">
+        <v>441.18072538860105</v>
+      </c>
+      <c r="M52">
+        <v>79.384495412844032</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A53">
+        <v>13</v>
+      </c>
+      <c r="B53">
+        <v>34.985098901098901</v>
+      </c>
+      <c r="C53">
+        <v>353.84601470588251</v>
+      </c>
+      <c r="D53">
+        <v>400.3648813559322</v>
+      </c>
+      <c r="E53">
+        <v>421.51534814814812</v>
+      </c>
+      <c r="F53">
+        <v>91.839121212121199</v>
+      </c>
+      <c r="H53">
+        <v>13</v>
+      </c>
+      <c r="I53">
+        <v>13.647797250859107</v>
+      </c>
+      <c r="J53">
+        <v>336.21143303571455</v>
+      </c>
+      <c r="K53">
+        <v>386.22387179487214</v>
+      </c>
+      <c r="L53">
+        <v>460.20159278350513</v>
+      </c>
+      <c r="M53">
+        <v>105.8372752293578</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A54">
+        <v>14</v>
+      </c>
+      <c r="B54">
+        <v>74.348187725631703</v>
+      </c>
+      <c r="C54">
+        <v>318.55433333333337</v>
+      </c>
+      <c r="D54">
+        <v>362.46835025380705</v>
+      </c>
+      <c r="E54">
+        <v>363.56316145833324</v>
+      </c>
+      <c r="F54">
+        <v>173.56969473684217</v>
+      </c>
+      <c r="H54">
+        <v>14</v>
+      </c>
+      <c r="I54">
+        <v>16.040357388316146</v>
+      </c>
+      <c r="J54">
+        <v>474.93923043478287</v>
+      </c>
+      <c r="K54">
+        <v>546.26851000000011</v>
+      </c>
+      <c r="L54">
+        <v>268.50992655367224</v>
+      </c>
+      <c r="M54">
+        <v>42.913590909090907</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A55">
+        <v>15</v>
+      </c>
+      <c r="B55">
+        <v>49.895482071713275</v>
+      </c>
+      <c r="C55">
+        <v>409.78945851528357</v>
+      </c>
+      <c r="D55">
+        <v>472.81423115577917</v>
+      </c>
+      <c r="E55">
+        <v>314.45741304347837</v>
+      </c>
+      <c r="F55">
+        <v>96.126467889908284</v>
+      </c>
+      <c r="H55">
+        <v>15</v>
+      </c>
+      <c r="I55">
+        <v>11.306295532646054</v>
+      </c>
+      <c r="J55">
+        <v>352.80487330316754</v>
+      </c>
+      <c r="K55">
+        <v>390.38539999999995</v>
+      </c>
+      <c r="L55">
+        <v>269.3365405405404</v>
+      </c>
+      <c r="M55">
+        <v>31.986348623853214</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A56">
+        <v>16</v>
+      </c>
+      <c r="B56">
+        <v>77.810055172413797</v>
+      </c>
+      <c r="C56">
+        <v>373.80883478260904</v>
+      </c>
+      <c r="D56">
+        <v>410.5131005025126</v>
+      </c>
+      <c r="E56">
+        <v>412.55080904522629</v>
+      </c>
+      <c r="F56">
+        <v>155.67175000000017</v>
+      </c>
+      <c r="H56">
+        <v>16</v>
+      </c>
+      <c r="I56">
+        <v>22.014089347079036</v>
+      </c>
+      <c r="J56">
+        <v>363.25293913043521</v>
+      </c>
+      <c r="K56">
+        <v>418.2331250000002</v>
+      </c>
+      <c r="L56">
+        <v>367.51399481865286</v>
+      </c>
+      <c r="M56">
+        <v>88.132054545454565</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A57">
+        <v>17</v>
+      </c>
+      <c r="B57">
+        <v>17.209672000000005</v>
+      </c>
+      <c r="C57">
+        <v>350.17843290043288</v>
+      </c>
+      <c r="D57">
+        <v>406.0722686567164</v>
+      </c>
+      <c r="E57">
+        <v>392.86334946236599</v>
+      </c>
+      <c r="F57">
+        <v>73.984201834862361</v>
+      </c>
+      <c r="H57">
+        <v>17</v>
+      </c>
+      <c r="I57">
+        <v>13.457278350515461</v>
+      </c>
+      <c r="J57">
+        <v>318.29519913419915</v>
+      </c>
+      <c r="K57">
+        <v>368.39102475247574</v>
+      </c>
+      <c r="L57">
+        <v>452.47994300518144</v>
+      </c>
+      <c r="M57">
+        <v>97.628445454545485</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A58">
+        <v>18</v>
+      </c>
+      <c r="B58">
+        <v>52.069703448275845</v>
+      </c>
+      <c r="C58">
+        <v>344.5605541125542</v>
+      </c>
+      <c r="D58">
+        <v>395.55552238805984</v>
+      </c>
+      <c r="E58">
+        <v>468.27229015544032</v>
+      </c>
+      <c r="F58">
+        <v>51.819549999999992</v>
+      </c>
+      <c r="H58">
+        <v>18</v>
+      </c>
+      <c r="I58">
+        <v>15.972240549828173</v>
+      </c>
+      <c r="J58">
+        <v>337.185341991342</v>
+      </c>
+      <c r="K58">
+        <v>385.99920398009971</v>
+      </c>
+      <c r="L58">
+        <v>429.77204736842094</v>
+      </c>
+      <c r="M58">
+        <v>87.739700000000042</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A59">
+        <v>19</v>
+      </c>
+      <c r="B59">
+        <v>67.066913793103424</v>
+      </c>
+      <c r="C59">
+        <v>330.86551965065507</v>
+      </c>
+      <c r="D59">
+        <v>382.73778787878786</v>
+      </c>
+      <c r="E59">
+        <v>430.83086499999973</v>
+      </c>
+      <c r="F59">
+        <v>181.06959090909089</v>
+      </c>
+      <c r="H59">
+        <v>19</v>
+      </c>
+      <c r="I59">
+        <v>19.124355871886127</v>
+      </c>
+      <c r="J59">
+        <v>371.97840624999986</v>
+      </c>
+      <c r="K59">
+        <v>428.46623195876322</v>
+      </c>
+      <c r="L59">
+        <v>375.24906217616575</v>
+      </c>
+      <c r="M59">
+        <v>85.922666666666657</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A60">
         <v>20</v>
       </c>
-      <c r="B50">
+      <c r="B60">
         <v>57.67011724137933</v>
       </c>
-      <c r="C50">
+      <c r="C60">
         <v>334.77183913043473</v>
       </c>
-      <c r="D50">
+      <c r="D60">
         <v>386.0005577889446</v>
       </c>
-      <c r="E50">
+      <c r="E60">
         <v>397.05026943005186</v>
       </c>
-      <c r="F50">
+      <c r="F60">
         <v>139.38871559633029</v>
       </c>
-      <c r="H50">
+      <c r="H60">
         <v>20</v>
       </c>
-      <c r="I50">
+      <c r="I60">
         <v>22.670371929824562</v>
       </c>
-      <c r="J50">
+      <c r="J60">
         <v>375.85001731601761</v>
       </c>
-      <c r="K50">
+      <c r="K60">
         <v>433.4860299999998</v>
       </c>
-      <c r="L50">
+      <c r="L60">
         <v>369.48665104166662</v>
       </c>
-      <c r="M50">
+      <c r="M60">
         <v>93.060128440367009</v>
       </c>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A51" t="s">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A61">
+        <v>21</v>
+      </c>
+      <c r="B61">
+        <v>80.606285223367763</v>
+      </c>
+      <c r="C61">
+        <v>411.83459565217402</v>
+      </c>
+      <c r="D61">
+        <v>478.27152500000034</v>
+      </c>
+      <c r="E61">
+        <v>465.20577500000007</v>
+      </c>
+      <c r="F61">
+        <v>187.27509259259253</v>
+      </c>
+      <c r="H61">
+        <v>21</v>
+      </c>
+      <c r="I61">
+        <v>30.494556701030927</v>
+      </c>
+      <c r="J61">
+        <v>353.85480660377362</v>
+      </c>
+      <c r="K61">
+        <v>412.13548901098892</v>
+      </c>
+      <c r="L61">
+        <v>300.54354255319168</v>
+      </c>
+      <c r="M61">
+        <v>85.275172727272732</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A62">
+        <v>22</v>
+      </c>
+      <c r="B62">
+        <v>51.242005586592164</v>
+      </c>
+      <c r="C62">
+        <v>302.6445130434783</v>
+      </c>
+      <c r="D62">
+        <v>414.22072941176458</v>
+      </c>
+      <c r="E62">
+        <v>353.57348623853204</v>
+      </c>
+      <c r="F62">
+        <v>137.39698181818184</v>
+      </c>
+      <c r="H62">
+        <v>22</v>
+      </c>
+      <c r="I62">
+        <v>28.959560553633217</v>
+      </c>
+      <c r="J62">
+        <v>369.74090454545467</v>
+      </c>
+      <c r="K62">
+        <v>426.21764921465984</v>
+      </c>
+      <c r="L62">
+        <v>353.30434736842113</v>
+      </c>
+      <c r="M62">
+        <v>81.323755555555579</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A63">
+        <v>23</v>
+      </c>
+      <c r="B63">
+        <v>73.22202985074631</v>
+      </c>
+      <c r="C63">
+        <v>313.42703821656062</v>
+      </c>
+      <c r="D63">
+        <v>382.03230952380966</v>
+      </c>
+      <c r="E63">
+        <v>348.89968902439</v>
+      </c>
+      <c r="F63">
+        <v>122.61995588235293</v>
+      </c>
+      <c r="H63">
+        <v>23</v>
+      </c>
+      <c r="I63">
+        <v>31.680689655172408</v>
+      </c>
+      <c r="J63">
+        <v>345.5532227272729</v>
+      </c>
+      <c r="K63">
+        <v>400.41836315789476</v>
+      </c>
+      <c r="L63">
+        <v>366.5985801104971</v>
+      </c>
+      <c r="M63">
+        <v>82.072000000000003</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A64">
+        <v>24</v>
+      </c>
+      <c r="B64">
+        <v>38.220597457627356</v>
+      </c>
+      <c r="C64">
+        <v>365.06184347826098</v>
+      </c>
+      <c r="D64">
+        <v>418.67597989949735</v>
+      </c>
+      <c r="E64">
+        <v>343.37030000000004</v>
+      </c>
+      <c r="F64">
+        <v>137.48213888888884</v>
+      </c>
+      <c r="H64">
+        <v>24</v>
+      </c>
+      <c r="I64">
+        <v>39.24876896551725</v>
+      </c>
+      <c r="J64">
+        <v>390.64809009009025</v>
+      </c>
+      <c r="K64">
+        <v>447.32349479166692</v>
+      </c>
+      <c r="L64">
+        <v>318.22006145251413</v>
+      </c>
+      <c r="M64">
+        <v>116.55236046511631</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A65">
+        <v>25</v>
+      </c>
+      <c r="B65">
+        <v>55.79796311475409</v>
+      </c>
+      <c r="C65">
+        <v>391.44266086956537</v>
+      </c>
+      <c r="D65">
+        <v>451.80895979899503</v>
+      </c>
+      <c r="E65">
+        <v>412.06182887700521</v>
+      </c>
+      <c r="F65">
+        <v>87.074427272727235</v>
+      </c>
+      <c r="H65">
+        <v>25</v>
+      </c>
+      <c r="I65">
+        <v>36.281099999999988</v>
+      </c>
+      <c r="J65">
+        <v>360.75350454545452</v>
+      </c>
+      <c r="K65">
+        <v>418.21145263157877</v>
+      </c>
+      <c r="L65">
+        <v>336.62649732620338</v>
+      </c>
+      <c r="M65">
+        <v>86.162297029702955</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A66">
+        <v>26</v>
+      </c>
+      <c r="H66">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A67">
+        <v>27</v>
+      </c>
+      <c r="H67">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A68">
+        <v>28</v>
+      </c>
+      <c r="H68">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A69">
+        <v>29</v>
+      </c>
+      <c r="H69">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A70">
+        <v>30</v>
+      </c>
+      <c r="H70">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
         <v>9</v>
       </c>
-      <c r="B51">
-        <f t="shared" ref="B51:H51" si="24">AVERAGE(B31:B50)</f>
-        <v>54.765878683557844</v>
-      </c>
-      <c r="C51">
+      <c r="B71">
+        <f>AVERAGE(B41:B70)</f>
+        <v>55.776258196169778</v>
+      </c>
+      <c r="C71">
+        <f t="shared" ref="C71" si="20">AVERAGE(C41:C70)</f>
+        <v>365.10030266182412</v>
+      </c>
+      <c r="D71">
+        <f t="shared" ref="D71" si="21">AVERAGE(D41:D70)</f>
+        <v>420.1238709484789</v>
+      </c>
+      <c r="E71">
+        <f t="shared" ref="E71" si="22">AVERAGE(E41:E70)</f>
+        <v>379.73581533486788</v>
+      </c>
+      <c r="F71">
+        <f t="shared" ref="F71" si="23">AVERAGE(F41:F70)</f>
+        <v>113.38721888206018</v>
+      </c>
+      <c r="H71" t="s">
+        <v>9</v>
+      </c>
+      <c r="I71">
+        <f>AVERAGE(I41:I70)</f>
+        <v>22.281726365828881</v>
+      </c>
+      <c r="J71">
+        <f t="shared" ref="J71:M71" si="24">AVERAGE(J41:J70)</f>
+        <v>361.88985904137104</v>
+      </c>
+      <c r="K71">
         <f t="shared" si="24"/>
-        <v>367.15484576427815</v>
-      </c>
-      <c r="D51">
+        <v>416.68273056918815</v>
+      </c>
+      <c r="L71">
         <f t="shared" si="24"/>
-        <v>417.9043635038953</v>
-      </c>
-      <c r="E51">
+        <v>353.13233529272918</v>
+      </c>
+      <c r="M71">
         <f t="shared" si="24"/>
-        <v>378.51421521158835</v>
-      </c>
-      <c r="F51">
-        <f t="shared" si="24"/>
-        <v>108.14159377983806</v>
-      </c>
-      <c r="H51" t="s">
-        <v>9</v>
-      </c>
-      <c r="I51">
-        <f>AVERAGE(I31:I50)</f>
-        <v>19.51892416351841</v>
-      </c>
-      <c r="J51">
-        <f t="shared" ref="J51:M51" si="25">AVERAGE(J31:J50)</f>
-        <v>361.33479737611145</v>
-      </c>
-      <c r="K51">
+        <v>71.97866260499265</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>10</v>
+      </c>
+      <c r="B72">
+        <f>STDEV(B41:B70)</f>
+        <v>18.691202379503924</v>
+      </c>
+      <c r="C72">
+        <f t="shared" ref="C72:F72" si="25">STDEV(C41:C70)</f>
+        <v>69.710662693694815</v>
+      </c>
+      <c r="D72">
         <f t="shared" si="25"/>
-        <v>415.63809077114581</v>
-      </c>
-      <c r="L51">
+        <v>61.633934299828688</v>
+      </c>
+      <c r="E72">
         <f t="shared" si="25"/>
-        <v>357.65076767537005</v>
-      </c>
-      <c r="M51">
+        <v>68.596441280617384</v>
+      </c>
+      <c r="F72">
         <f t="shared" si="25"/>
-        <v>67.40404896735842</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A52" t="s">
+        <v>54.695941628195378</v>
+      </c>
+      <c r="H72" t="s">
         <v>10</v>
       </c>
-      <c r="B52">
-        <f t="shared" ref="B52:H52" si="26">STDEV(B31:B50)</f>
-        <v>19.350780544048856</v>
-      </c>
-      <c r="C52">
+      <c r="I72">
+        <f>STDEV(I41:I70)</f>
+        <v>9.0834603931081599</v>
+      </c>
+      <c r="J72">
+        <f t="shared" ref="J72:M72" si="26">STDEV(J41:J70)</f>
+        <v>45.398860129212444</v>
+      </c>
+      <c r="K72">
         <f t="shared" si="26"/>
-        <v>75.077695025962953</v>
-      </c>
-      <c r="D52">
+        <v>52.351754777505299</v>
+      </c>
+      <c r="L72">
         <f t="shared" si="26"/>
-        <v>66.963570324413055</v>
-      </c>
-      <c r="E52">
+        <v>73.624276511535626</v>
+      </c>
+      <c r="M72">
         <f t="shared" si="26"/>
-        <v>73.123401828223663</v>
-      </c>
-      <c r="F52">
-        <f t="shared" si="26"/>
-        <v>57.972368589371591</v>
-      </c>
-      <c r="H52" t="s">
-        <v>10</v>
-      </c>
-      <c r="I52">
-        <f>STDEV(I31:I50)</f>
-        <v>7.7572139116007381</v>
-      </c>
-      <c r="J52">
-        <f t="shared" ref="J52:M52" si="27">STDEV(J31:J50)</f>
-        <v>50.386809224076138</v>
-      </c>
-      <c r="K52">
-        <f t="shared" si="27"/>
-        <v>58.236274137402326</v>
-      </c>
-      <c r="L52">
-        <f t="shared" si="27"/>
-        <v>81.19055998059207</v>
-      </c>
-      <c r="M52">
-        <f t="shared" si="27"/>
-        <v>27.111772409104731</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A53" t="s">
+        <v>26.566309404211214</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
         <v>11</v>
       </c>
-      <c r="B53">
-        <f t="shared" ref="B53:H53" si="28">B52/(SQRT(20))</f>
-        <v>4.3269660714173606</v>
-      </c>
-      <c r="C53">
-        <f t="shared" si="28"/>
-        <v>16.7878829672051</v>
-      </c>
-      <c r="D53">
-        <f t="shared" si="28"/>
-        <v>14.973509526147524</v>
-      </c>
-      <c r="E53">
-        <f t="shared" si="28"/>
-        <v>16.350889723394051</v>
-      </c>
-      <c r="F53">
-        <f t="shared" si="28"/>
-        <v>12.963015698250846</v>
-      </c>
-      <c r="H53" t="s">
+      <c r="B73">
+        <f>B72/(SQRT(30))</f>
+        <v>3.4125310567161784</v>
+      </c>
+      <c r="C73">
+        <f t="shared" ref="C73" si="27">C72/(SQRT(30))</f>
+        <v>12.727367485323498</v>
+      </c>
+      <c r="D73">
+        <f t="shared" ref="D73" si="28">D72/(SQRT(30))</f>
+        <v>11.252765374602516</v>
+      </c>
+      <c r="E73">
+        <f t="shared" ref="E73" si="29">E72/(SQRT(30))</f>
+        <v>12.523939417990901</v>
+      </c>
+      <c r="F73">
+        <f t="shared" ref="F73" si="30">F72/(SQRT(30))</f>
+        <v>9.9860670112494834</v>
+      </c>
+      <c r="H73" t="s">
         <v>11</v>
       </c>
-      <c r="I53">
-        <f>I52/(SQRT(20))</f>
-        <v>1.7345657622346293</v>
-      </c>
-      <c r="J53">
-        <f t="shared" ref="J53:M53" si="29">J52/(SQRT(20))</f>
-        <v>11.266833059434767</v>
-      </c>
-      <c r="K53">
-        <f t="shared" si="29"/>
-        <v>13.022026772754453</v>
-      </c>
-      <c r="L53">
-        <f t="shared" si="29"/>
-        <v>18.154761124787786</v>
-      </c>
-      <c r="M53">
-        <f t="shared" si="29"/>
-        <v>6.0623766097261411</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A54" t="s">
+      <c r="I73">
+        <f>I72/(SQRT(30))</f>
+        <v>1.6584053858366943</v>
+      </c>
+      <c r="J73">
+        <f t="shared" ref="J73:M73" si="31">J72/(SQRT(30))</f>
+        <v>8.2886599259305189</v>
+      </c>
+      <c r="K73">
+        <f t="shared" si="31"/>
+        <v>9.5580790055395006</v>
+      </c>
+      <c r="L73">
+        <f t="shared" si="31"/>
+        <v>13.441892341788607</v>
+      </c>
+      <c r="M73">
+        <f t="shared" si="31"/>
+        <v>4.8503223101160371</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
         <v>15</v>
       </c>
-      <c r="B54" s="4">
-        <f t="shared" ref="B54:H54" si="30">_xlfn.CONFIDENCE.T(0.005,B52,20)</f>
-        <v>13.732598364763334</v>
-      </c>
-      <c r="C54" s="4">
-        <f t="shared" si="30"/>
-        <v>53.280115993089318</v>
-      </c>
-      <c r="D54" s="4">
-        <f t="shared" si="30"/>
-        <v>47.521794495186825</v>
-      </c>
-      <c r="E54" s="4">
-        <f t="shared" si="30"/>
-        <v>51.893219815415684</v>
-      </c>
-      <c r="F54" s="4">
-        <f t="shared" si="30"/>
-        <v>41.141040914584593</v>
-      </c>
-      <c r="G54" s="4"/>
-      <c r="H54" t="s">
+      <c r="B74" s="4">
+        <f>_xlfn.CONFIDENCE.T(0.005,B72,30)</f>
+        <v>10.367428868553302</v>
+      </c>
+      <c r="C74" s="4">
+        <f t="shared" ref="C74:F74" si="32">_xlfn.CONFIDENCE.T(0.005,C72,30)</f>
+        <v>38.666337359286288</v>
+      </c>
+      <c r="D74" s="4">
+        <f t="shared" si="32"/>
+        <v>34.186427216862683</v>
+      </c>
+      <c r="E74" s="4">
+        <f t="shared" si="32"/>
+        <v>38.048313381515534</v>
+      </c>
+      <c r="F74" s="4">
+        <f t="shared" si="32"/>
+        <v>30.338138377372225</v>
+      </c>
+      <c r="G74" s="4"/>
+      <c r="H74" t="s">
         <v>15</v>
       </c>
-      <c r="I54" s="4">
-        <f>_xlfn.CONFIDENCE.T(0.005,I52,20)</f>
-        <v>5.5050339098765146</v>
-      </c>
-      <c r="J54" s="4">
-        <f t="shared" ref="J54:M54" si="31">_xlfn.CONFIDENCE.T(0.005,J52,20)</f>
-        <v>35.757824465069959</v>
-      </c>
-      <c r="K54" s="4">
-        <f t="shared" si="31"/>
-        <v>41.328325809325101</v>
-      </c>
-      <c r="L54" s="4">
-        <f t="shared" si="31"/>
-        <v>57.618210732413694</v>
-      </c>
-      <c r="M54" s="4">
-        <f t="shared" si="31"/>
-        <v>19.240313361189408</v>
+      <c r="I74" s="4">
+        <f>_xlfn.CONFIDENCE.T(0.005,I72,30)</f>
+        <v>5.0383130840815094</v>
+      </c>
+      <c r="J74" s="4">
+        <f t="shared" ref="J74:M74" si="33">_xlfn.CONFIDENCE.T(0.005,J72,30)</f>
+        <v>25.18133630713502</v>
+      </c>
+      <c r="K74" s="4">
+        <f t="shared" si="33"/>
+        <v>29.037890809790522</v>
+      </c>
+      <c r="L74" s="4">
+        <f t="shared" si="33"/>
+        <v>40.837097273583936</v>
+      </c>
+      <c r="M74" s="4">
+        <f t="shared" si="33"/>
+        <v>14.735505905717359</v>
       </c>
     </row>
   </sheetData>

--- a/graphs/delay_aware_slicing/results/average_results.xlsx
+++ b/graphs/delay_aware_slicing/results/average_results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/phisolani/Github/wifi_monitoring/graphs/delay_aware_slicing/results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0715F0C7-3383-904F-8547-65613093EE67}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7402FCBD-EC25-0248-B8DB-290C49A8CA37}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="21140" xr2:uid="{3FEC7344-D201-3244-A186-2559A3F9F96E}"/>
   </bookViews>
@@ -449,8 +449,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70784E4A-0428-264E-82D8-1E226FAD8D1C}">
   <dimension ref="A1:M74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="B65" sqref="B65:F65"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="I70" sqref="I70:M70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1446,19 +1446,19 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>63.686084000000044</v>
+        <v>74.967271999999966</v>
       </c>
       <c r="C27">
-        <v>153.58979199999999</v>
+        <v>136.62302399999993</v>
       </c>
       <c r="D27">
-        <v>137.6072960000001</v>
+        <v>120.376032</v>
       </c>
       <c r="E27">
-        <v>154.82446800000008</v>
+        <v>120.63619199999991</v>
       </c>
       <c r="F27">
-        <v>28.536299999999986</v>
+        <v>28.08752399999997</v>
       </c>
       <c r="H27">
         <v>25</v>
@@ -1483,40 +1483,190 @@
       <c r="A28">
         <v>26</v>
       </c>
+      <c r="B28">
+        <v>75.465911999999918</v>
+      </c>
+      <c r="C28">
+        <v>132.72279199999994</v>
+      </c>
+      <c r="D28">
+        <v>116.73921199999995</v>
+      </c>
+      <c r="E28">
+        <v>116.00534399999999</v>
+      </c>
+      <c r="F28">
+        <v>28.328171999999967</v>
+      </c>
       <c r="H28">
         <v>26</v>
+      </c>
+      <c r="I28">
+        <v>75.598159999999964</v>
+      </c>
+      <c r="J28">
+        <v>163.49972000000005</v>
+      </c>
+      <c r="K28">
+        <v>148.26951999999989</v>
+      </c>
+      <c r="L28">
+        <v>154.30523199999988</v>
+      </c>
+      <c r="M28">
+        <v>28.507031999999981</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>27</v>
       </c>
+      <c r="B29">
+        <v>75.044235999999998</v>
+      </c>
+      <c r="C29">
+        <v>136.09294800000001</v>
+      </c>
+      <c r="D29">
+        <v>120.13321599999998</v>
+      </c>
+      <c r="E29">
+        <v>119.92942399999995</v>
+      </c>
+      <c r="F29">
+        <v>28.000803999999988</v>
+      </c>
       <c r="H29">
         <v>27</v>
+      </c>
+      <c r="I29">
+        <v>74.79057999999992</v>
+      </c>
+      <c r="J29">
+        <v>158.32253599999999</v>
+      </c>
+      <c r="K29">
+        <v>143.71455200000005</v>
+      </c>
+      <c r="L29">
+        <v>143.23867599999997</v>
+      </c>
+      <c r="M29">
+        <v>27.465307999999979</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>28</v>
       </c>
+      <c r="B30">
+        <v>75.423635999999931</v>
+      </c>
+      <c r="C30">
+        <v>129.81116799999995</v>
+      </c>
+      <c r="D30">
+        <v>114.36525199999994</v>
+      </c>
+      <c r="E30">
+        <v>112.91269199999996</v>
+      </c>
+      <c r="F30">
+        <v>27.760155999999977</v>
+      </c>
       <c r="H30">
         <v>28</v>
+      </c>
+      <c r="I30">
+        <v>75.143963999999912</v>
+      </c>
+      <c r="J30">
+        <v>122.29579599999988</v>
+      </c>
+      <c r="K30">
+        <v>106.37400399999994</v>
+      </c>
+      <c r="L30">
+        <v>208.88896799999969</v>
+      </c>
+      <c r="M30">
+        <v>28.693479999999973</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>29</v>
       </c>
+      <c r="B31">
+        <v>63.024843999999966</v>
+      </c>
+      <c r="C31">
+        <v>95.365983999999983</v>
+      </c>
+      <c r="D31">
+        <v>81.360703999999913</v>
+      </c>
+      <c r="E31">
+        <v>85.530851999999996</v>
+      </c>
+      <c r="F31">
+        <v>15.706075999999985</v>
+      </c>
       <c r="H31">
         <v>29</v>
+      </c>
+      <c r="I31">
+        <v>75.539623999999904</v>
+      </c>
+      <c r="J31">
+        <v>173.23187200000007</v>
+      </c>
+      <c r="K31">
+        <v>158.08513999999991</v>
+      </c>
+      <c r="L31">
+        <v>124.30661599999989</v>
+      </c>
+      <c r="M31">
+        <v>28.083187999999986</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>30</v>
       </c>
+      <c r="B32">
+        <v>69.356487999999985</v>
+      </c>
+      <c r="C32">
+        <v>156.37242000000009</v>
+      </c>
+      <c r="D32">
+        <v>140.73029999999991</v>
+      </c>
+      <c r="E32">
+        <v>144.90369999999996</v>
+      </c>
+      <c r="F32">
+        <v>28.824643999999967</v>
+      </c>
       <c r="H32">
         <v>30</v>
+      </c>
+      <c r="I32">
+        <v>75.623091999999929</v>
+      </c>
+      <c r="J32">
+        <v>134.60461600000005</v>
+      </c>
+      <c r="K32">
+        <v>119.27035199999992</v>
+      </c>
+      <c r="L32">
+        <v>171.27958799999993</v>
+      </c>
+      <c r="M32">
+        <v>28.234947999999978</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.2">
@@ -1525,46 +1675,46 @@
       </c>
       <c r="B33">
         <f>AVERAGE(B3:B32)</f>
-        <v>69.359089599999962</v>
+        <v>70.119118133333302</v>
       </c>
       <c r="C33">
         <f t="shared" ref="C33" si="0">AVERAGE(C3:C32)</f>
-        <v>125.88275199999997</v>
+        <v>126.01557813333331</v>
       </c>
       <c r="D33">
         <f t="shared" ref="D33" si="1">AVERAGE(D3:D32)</f>
-        <v>111.32372143999999</v>
+        <v>111.30634853333331</v>
       </c>
       <c r="E33">
         <f t="shared" ref="E33" si="2">AVERAGE(E3:E32)</f>
-        <v>122.76447423999994</v>
+        <v>120.47351973333326</v>
       </c>
       <c r="F33">
         <f t="shared" ref="F33" si="3">AVERAGE(F3:F32)</f>
-        <v>23.75065679999998</v>
+        <v>24.064583199999973</v>
       </c>
       <c r="H33" t="s">
         <v>9</v>
       </c>
       <c r="I33">
         <f>AVERAGE(I3:I32)</f>
-        <v>75.506973919999979</v>
+        <v>75.478992266666637</v>
       </c>
       <c r="J33">
         <f t="shared" ref="J33" si="4">AVERAGE(J3:J32)</f>
-        <v>149.38118367999999</v>
+        <v>149.54947106666668</v>
       </c>
       <c r="K33">
         <f t="shared" ref="K33" si="5">AVERAGE(K3:K32)</f>
-        <v>133.97325103999998</v>
+        <v>134.16816146666662</v>
       </c>
       <c r="L33">
         <f t="shared" ref="L33" si="6">AVERAGE(L3:L32)</f>
-        <v>164.6751662399999</v>
+        <v>163.96327453333322</v>
       </c>
       <c r="M33">
         <f t="shared" ref="M33" si="7">AVERAGE(M3:M32)</f>
-        <v>27.418479199999979</v>
+        <v>27.548197866666648</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.2">
@@ -1573,46 +1723,46 @@
       </c>
       <c r="B34">
         <f>STDEV(B3:B32)</f>
-        <v>8.6387179871601472</v>
+        <v>8.1357316305630505</v>
       </c>
       <c r="C34">
         <f t="shared" ref="C34:F34" si="8">STDEV(C3:C32)</f>
-        <v>40.407139843852185</v>
+        <v>37.398225381104879</v>
       </c>
       <c r="D34">
         <f t="shared" si="8"/>
-        <v>38.624991647636875</v>
+        <v>35.755483501462898</v>
       </c>
       <c r="E34">
         <f t="shared" si="8"/>
-        <v>39.982298396542731</v>
+        <v>36.771672735704165</v>
       </c>
       <c r="F34">
         <f t="shared" si="8"/>
-        <v>6.9327485540366656</v>
+        <v>6.6747483741139257</v>
       </c>
       <c r="H34" t="s">
         <v>10</v>
       </c>
       <c r="I34">
         <f>STDEV(I3:I32)</f>
-        <v>0.60473359608908928</v>
+        <v>0.56997389335490511</v>
       </c>
       <c r="J34">
         <f t="shared" ref="J34:M34" si="9">STDEV(J3:J32)</f>
-        <v>18.384716847407148</v>
+        <v>18.48690055029039</v>
       </c>
       <c r="K34">
         <f t="shared" si="9"/>
-        <v>18.086299828898646</v>
+        <v>18.296556309610594</v>
       </c>
       <c r="L34">
         <f t="shared" si="9"/>
-        <v>33.515719839359996</v>
+        <v>32.768380937999822</v>
       </c>
       <c r="M34">
         <f t="shared" si="9"/>
-        <v>1.9024936807194193</v>
+        <v>1.7644378924674196</v>
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.2">
@@ -1621,46 +1771,46 @@
       </c>
       <c r="B35">
         <f>B34/(SQRT(30))</f>
-        <v>1.5772069031644123</v>
+        <v>1.4853745786225565</v>
       </c>
       <c r="C35">
         <f t="shared" ref="C35" si="10">C34/(SQRT(30))</f>
-        <v>7.3773006589145389</v>
+        <v>6.8279505506311269</v>
       </c>
       <c r="D35">
         <f t="shared" ref="D35" si="11">D34/(SQRT(30))</f>
-        <v>7.0519264029531161</v>
+        <v>6.5280282894183435</v>
       </c>
       <c r="E35">
         <f t="shared" ref="E35" si="12">E34/(SQRT(30))</f>
-        <v>7.2997355775630286</v>
+        <v>6.7135582115142913</v>
       </c>
       <c r="F35">
         <f t="shared" ref="F35" si="13">F34/(SQRT(30))</f>
-        <v>1.2657409228524015</v>
+        <v>1.2186367500577096</v>
       </c>
       <c r="H35" t="s">
         <v>11</v>
       </c>
       <c r="I35">
         <f>I34/(SQRT(30))</f>
-        <v>0.1104087439530707</v>
+        <v>0.10406251952650848</v>
       </c>
       <c r="J35">
         <f t="shared" ref="J35" si="14">J34/(SQRT(30))</f>
-        <v>3.356574710223386</v>
+        <v>3.375230816582905</v>
       </c>
       <c r="K35">
         <f t="shared" ref="K35" si="15">K34/(SQRT(30))</f>
-        <v>3.3020914660298715</v>
+        <v>3.3404788718123992</v>
       </c>
       <c r="L35">
         <f t="shared" ref="L35" si="16">L34/(SQRT(30))</f>
-        <v>6.1191052623469639</v>
+        <v>5.9826604708882654</v>
       </c>
       <c r="M35">
         <f t="shared" ref="M35" si="17">M34/(SQRT(30))</f>
-        <v>0.34734623481368576</v>
+        <v>0.32214081167376007</v>
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.2">
@@ -1669,46 +1819,46 @@
       </c>
       <c r="B36" s="4">
         <f>_xlfn.CONFIDENCE.T(0.005,B34,30)</f>
-        <v>4.7916282981122906</v>
+        <v>4.5126374034659733</v>
       </c>
       <c r="C36" s="4">
         <f t="shared" ref="C36:F36" si="18">_xlfn.CONFIDENCE.T(0.005,C34,30)</f>
-        <v>22.412584252588992</v>
+        <v>20.743632944336028</v>
       </c>
       <c r="D36" s="4">
         <f t="shared" si="18"/>
-        <v>21.424082053407666</v>
+        <v>19.832455094950728</v>
       </c>
       <c r="E36" s="4">
         <f t="shared" si="18"/>
-        <v>22.176937909675072</v>
+        <v>20.396103670846443</v>
       </c>
       <c r="F36" s="4">
         <f t="shared" si="18"/>
-        <v>3.8453800904941295</v>
+        <v>3.7022754116664025</v>
       </c>
       <c r="H36" t="s">
         <v>15</v>
       </c>
       <c r="I36" s="4">
         <f>_xlfn.CONFIDENCE.T(0.005,I34,30)</f>
-        <v>0.3354269251695125</v>
+        <v>0.3161467987083128</v>
       </c>
       <c r="J36" s="4">
         <f t="shared" ref="J36:M36" si="19">_xlfn.CONFIDENCE.T(0.005,J34,30)</f>
-        <v>10.197430872237222</v>
+        <v>10.254108995434319</v>
       </c>
       <c r="K36" s="4">
         <f t="shared" si="19"/>
-        <v>10.031908229566293</v>
+        <v>10.148530962747104</v>
       </c>
       <c r="L36" s="4">
         <f t="shared" si="19"/>
-        <v>18.590127823662652</v>
+        <v>18.17560216911993</v>
       </c>
       <c r="M36" s="4">
         <f t="shared" si="19"/>
-        <v>1.0552540980113354</v>
+        <v>0.97867884428853802</v>
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.2">
@@ -2686,19 +2836,19 @@
         <v>25</v>
       </c>
       <c r="B65">
-        <v>55.79796311475409</v>
+        <v>52.080806896551699</v>
       </c>
       <c r="C65">
-        <v>391.44266086956537</v>
+        <v>408.37133913043471</v>
       </c>
       <c r="D65">
-        <v>451.80895979899503</v>
+        <v>469.22396500000025</v>
       </c>
       <c r="E65">
-        <v>412.06182887700521</v>
+        <v>452.00303999999988</v>
       </c>
       <c r="F65">
-        <v>87.074427272727235</v>
+        <v>110.94514814814818</v>
       </c>
       <c r="H65">
         <v>25</v>
@@ -2723,40 +2873,190 @@
       <c r="A66">
         <v>26</v>
       </c>
+      <c r="B66">
+        <v>80.7236989619377</v>
+      </c>
+      <c r="C66">
+        <v>426.15640772532203</v>
+      </c>
+      <c r="D66">
+        <v>493.63699014778319</v>
+      </c>
+      <c r="E66">
+        <v>478.36264179104495</v>
+      </c>
+      <c r="F66">
+        <v>165.56251818181812</v>
+      </c>
       <c r="H66">
         <v>26</v>
+      </c>
+      <c r="I66">
+        <v>18.220810996563571</v>
+      </c>
+      <c r="J66">
+        <v>343.49981222707419</v>
+      </c>
+      <c r="K66">
+        <v>393.60746733668373</v>
+      </c>
+      <c r="L66">
+        <v>402.08233678756471</v>
+      </c>
+      <c r="M66">
+        <v>71.219889908256846</v>
       </c>
     </row>
     <row r="67" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>27</v>
       </c>
+      <c r="B67">
+        <v>68.191800687285209</v>
+      </c>
+      <c r="C67">
+        <v>401.54954978354965</v>
+      </c>
+      <c r="D67">
+        <v>459.86859798994965</v>
+      </c>
+      <c r="E67">
+        <v>431.76561306532665</v>
+      </c>
+      <c r="F67">
+        <v>171.97608256880733</v>
+      </c>
       <c r="H67">
         <v>27</v>
+      </c>
+      <c r="I67">
+        <v>19.43078397212544</v>
+      </c>
+      <c r="J67">
+        <v>343.51538461538479</v>
+      </c>
+      <c r="K67">
+        <v>391.13265463917548</v>
+      </c>
+      <c r="L67">
+        <v>435.89298930481266</v>
+      </c>
+      <c r="M67">
+        <v>77.510607476635499</v>
       </c>
     </row>
     <row r="68" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>28</v>
       </c>
+      <c r="B68">
+        <v>88.486162068965527</v>
+      </c>
+      <c r="C68">
+        <v>393.6964521739128</v>
+      </c>
+      <c r="D68">
+        <v>453.55574874371842</v>
+      </c>
+      <c r="E68">
+        <v>453.03530303030323</v>
+      </c>
+      <c r="F68">
+        <v>186.06137383177563</v>
+      </c>
       <c r="H68">
         <v>28</v>
+      </c>
+      <c r="I68">
+        <v>12.101393103448277</v>
+      </c>
+      <c r="J68">
+        <v>246.891051948052</v>
+      </c>
+      <c r="K68">
+        <v>286.96788999999984</v>
+      </c>
+      <c r="L68">
+        <v>252.73590588235302</v>
+      </c>
+      <c r="M68">
+        <v>25.67534862385321</v>
       </c>
     </row>
     <row r="69" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>29</v>
       </c>
+      <c r="B69">
+        <v>32.844613821138232</v>
+      </c>
+      <c r="C69">
+        <v>237.88431901840477</v>
+      </c>
+      <c r="D69">
+        <v>300.66594074074078</v>
+      </c>
+      <c r="E69">
+        <v>226.66262992125982</v>
+      </c>
+      <c r="F69">
+        <v>74.003828124999984</v>
+      </c>
       <c r="H69">
         <v>29</v>
+      </c>
+      <c r="I69">
+        <v>16.009244827586212</v>
+      </c>
+      <c r="J69">
+        <v>326.15174122807025</v>
+      </c>
+      <c r="K69">
+        <v>370.8199292929296</v>
+      </c>
+      <c r="L69">
+        <v>439.01883243243225</v>
+      </c>
+      <c r="M69">
+        <v>100.22802752293578</v>
       </c>
     </row>
     <row r="70" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>30</v>
       </c>
+      <c r="B70">
+        <v>48.403992619926299</v>
+      </c>
+      <c r="C70">
+        <v>368.87675965665227</v>
+      </c>
+      <c r="D70">
+        <v>428.09344059405919</v>
+      </c>
+      <c r="E70">
+        <v>406.44307772020721</v>
+      </c>
+      <c r="F70">
+        <v>95.218127272727259</v>
+      </c>
       <c r="H70">
         <v>30</v>
+      </c>
+      <c r="I70">
+        <v>10.462412371134025</v>
+      </c>
+      <c r="J70">
+        <v>326.86757391304343</v>
+      </c>
+      <c r="K70">
+        <v>370.58977114427842</v>
+      </c>
+      <c r="L70">
+        <v>247.75775324675317</v>
+      </c>
+      <c r="M70">
+        <v>21.853900000000007</v>
       </c>
     </row>
     <row r="71" spans="1:13" x14ac:dyDescent="0.2">
@@ -2765,46 +3065,46 @@
       </c>
       <c r="B71">
         <f>AVERAGE(B41:B70)</f>
-        <v>55.776258196169778</v>
+        <v>56.977985561509833</v>
       </c>
       <c r="C71">
         <f t="shared" ref="C71" si="20">AVERAGE(C41:C70)</f>
-        <v>365.10030266182412</v>
+        <v>365.75332443881047</v>
       </c>
       <c r="D71">
         <f t="shared" ref="D71" si="21">AVERAGE(D41:D70)</f>
-        <v>420.1238709484789</v>
+        <v>421.87774990430756</v>
       </c>
       <c r="E71">
         <f t="shared" ref="E71" si="22">AVERAGE(E41:E70)</f>
-        <v>379.73581533486788</v>
+        <v>384.32019533409442</v>
       </c>
       <c r="F71">
         <f t="shared" ref="F71" si="23">AVERAGE(F41:F70)</f>
-        <v>113.38721888206018</v>
+        <v>118.37910409690178</v>
       </c>
       <c r="H71" t="s">
         <v>9</v>
       </c>
       <c r="I71">
         <f>AVERAGE(I41:I70)</f>
-        <v>22.281726365828881</v>
+        <v>21.10892681388599</v>
       </c>
       <c r="J71">
         <f t="shared" ref="J71:M71" si="24">AVERAGE(J41:J70)</f>
-        <v>361.88985904137104</v>
+        <v>354.47240133219663</v>
       </c>
       <c r="K71">
         <f t="shared" si="24"/>
-        <v>416.68273056918815</v>
+        <v>407.6728658880923</v>
       </c>
       <c r="L71">
         <f t="shared" si="24"/>
-        <v>353.13233529272918</v>
+        <v>353.52653999907153</v>
       </c>
       <c r="M71">
         <f t="shared" si="24"/>
-        <v>71.97866260499265</v>
+        <v>69.86514462188326</v>
       </c>
     </row>
     <row r="72" spans="1:13" x14ac:dyDescent="0.2">
@@ -2813,46 +3113,46 @@
       </c>
       <c r="B72">
         <f>STDEV(B41:B70)</f>
-        <v>18.691202379503924</v>
+        <v>19.281638097290113</v>
       </c>
       <c r="C72">
         <f t="shared" ref="C72:F72" si="25">STDEV(C41:C70)</f>
-        <v>69.710662693694815</v>
+        <v>69.448022971419192</v>
       </c>
       <c r="D72">
         <f t="shared" si="25"/>
-        <v>61.633934299828688</v>
+        <v>62.950341627088818</v>
       </c>
       <c r="E72">
         <f t="shared" si="25"/>
-        <v>68.596441280617384</v>
+        <v>73.912868126204756</v>
       </c>
       <c r="F72">
         <f t="shared" si="25"/>
-        <v>54.695941628195378</v>
+        <v>53.718023322857931</v>
       </c>
       <c r="H72" t="s">
         <v>10</v>
       </c>
       <c r="I72">
         <f>STDEV(I41:I70)</f>
-        <v>9.0834603931081599</v>
+        <v>8.8009729103628764</v>
       </c>
       <c r="J72">
         <f t="shared" ref="J72:M72" si="26">STDEV(J41:J70)</f>
-        <v>45.398860129212444</v>
+        <v>47.057964969239471</v>
       </c>
       <c r="K72">
         <f t="shared" si="26"/>
-        <v>52.351754777505299</v>
+        <v>54.323675888234696</v>
       </c>
       <c r="L72">
         <f t="shared" si="26"/>
-        <v>73.624276511535626</v>
+        <v>76.088270144368778</v>
       </c>
       <c r="M72">
         <f t="shared" si="26"/>
-        <v>26.566309404211214</v>
+        <v>27.724093729709057</v>
       </c>
     </row>
     <row r="73" spans="1:13" x14ac:dyDescent="0.2">
@@ -2861,46 +3161,46 @@
       </c>
       <c r="B73">
         <f>B72/(SQRT(30))</f>
-        <v>3.4125310567161784</v>
+        <v>3.5203293771789284</v>
       </c>
       <c r="C73">
         <f t="shared" ref="C73" si="27">C72/(SQRT(30))</f>
-        <v>12.727367485323498</v>
+        <v>12.679416251861081</v>
       </c>
       <c r="D73">
         <f t="shared" ref="D73" si="28">D72/(SQRT(30))</f>
-        <v>11.252765374602516</v>
+        <v>11.493107370604335</v>
       </c>
       <c r="E73">
         <f t="shared" ref="E73" si="29">E72/(SQRT(30))</f>
-        <v>12.523939417990901</v>
+        <v>13.494581720875647</v>
       </c>
       <c r="F73">
         <f t="shared" ref="F73" si="30">F72/(SQRT(30))</f>
-        <v>9.9860670112494834</v>
+        <v>9.8075243728393033</v>
       </c>
       <c r="H73" t="s">
         <v>11</v>
       </c>
       <c r="I73">
         <f>I72/(SQRT(30))</f>
-        <v>1.6584053858366943</v>
+        <v>1.6068304636658799</v>
       </c>
       <c r="J73">
         <f t="shared" ref="J73:M73" si="31">J72/(SQRT(30))</f>
-        <v>8.2886599259305189</v>
+        <v>8.5915696413134537</v>
       </c>
       <c r="K73">
         <f t="shared" si="31"/>
-        <v>9.5580790055395006</v>
+        <v>9.918100896861878</v>
       </c>
       <c r="L73">
         <f t="shared" si="31"/>
-        <v>13.441892341788607</v>
+        <v>13.89175397320588</v>
       </c>
       <c r="M73">
         <f t="shared" si="31"/>
-        <v>4.8503223101160371</v>
+        <v>5.0617038407163948</v>
       </c>
     </row>
     <row r="74" spans="1:13" x14ac:dyDescent="0.2">
@@ -2909,23 +3209,23 @@
       </c>
       <c r="B74" s="4">
         <f>_xlfn.CONFIDENCE.T(0.005,B72,30)</f>
-        <v>10.367428868553302</v>
+        <v>10.694925205135368</v>
       </c>
       <c r="C74" s="4">
         <f t="shared" ref="C74:F74" si="32">_xlfn.CONFIDENCE.T(0.005,C72,30)</f>
-        <v>38.666337359286288</v>
+        <v>38.52065927055429</v>
       </c>
       <c r="D74" s="4">
         <f t="shared" si="32"/>
-        <v>34.186427216862683</v>
+        <v>34.916597435466564</v>
       </c>
       <c r="E74" s="4">
         <f t="shared" si="32"/>
-        <v>38.048313381515534</v>
+        <v>40.997170070207439</v>
       </c>
       <c r="F74" s="4">
         <f t="shared" si="32"/>
-        <v>30.338138377372225</v>
+        <v>29.795717495933395</v>
       </c>
       <c r="G74" s="4"/>
       <c r="H74" t="s">
@@ -2933,23 +3233,23 @@
       </c>
       <c r="I74" s="4">
         <f>_xlfn.CONFIDENCE.T(0.005,I72,30)</f>
-        <v>5.0383130840815094</v>
+        <v>4.881626059664617</v>
       </c>
       <c r="J74" s="4">
         <f t="shared" ref="J74:M74" si="33">_xlfn.CONFIDENCE.T(0.005,J72,30)</f>
-        <v>25.18133630713502</v>
+        <v>26.101590181937333</v>
       </c>
       <c r="K74" s="4">
         <f t="shared" si="33"/>
-        <v>29.037890809790522</v>
+        <v>30.131654144796915</v>
       </c>
       <c r="L74" s="4">
         <f t="shared" si="33"/>
-        <v>40.837097273583936</v>
+        <v>42.203797938543723</v>
       </c>
       <c r="M74" s="4">
         <f t="shared" si="33"/>
-        <v>14.735505905717359</v>
+        <v>15.377692876679012</v>
       </c>
     </row>
   </sheetData>

--- a/graphs/delay_aware_slicing/results/average_results.xlsx
+++ b/graphs/delay_aware_slicing/results/average_results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/phisolani/Github/wifi_monitoring/graphs/delay_aware_slicing/results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7402FCBD-EC25-0248-B8DB-290C49A8CA37}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{610B8A94-3816-0448-8ABF-E7F73FD0E15C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="21140" xr2:uid="{3FEC7344-D201-3244-A186-2559A3F9F96E}"/>
   </bookViews>
